--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2609525-B8AA-4D0F-B693-BB4A09F549F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56ACFB9-7AEA-4DB0-8A54-57E6FCB6747B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="3192" windowWidth="17280" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -144,6 +144,134 @@
   </si>
   <si>
     <t>BulletTriggerEvent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallSelectUnit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallSelectPosition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOnlyPlayer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否只选取玩家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAngleFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否优先筛选角度(否则优先距离)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>angle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>张开的角度(单位度)(圆形则为360)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索半径</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isFriend</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否选取友军(否则选取敌军)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取的数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallSelect</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallParam</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallSelectDirection</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoSelf</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAuto</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCallParam</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallSelectLast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象选择器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级的选择</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动选择对象</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动选择方向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动选择位置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动选择自身</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动选择特定群体</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -543,15 +671,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="9" width="13.44140625" customWidth="1"/>
@@ -657,56 +786,49 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
@@ -715,34 +837,240 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="2"/>
+      <c r="H27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56ACFB9-7AEA-4DB0-8A54-57E6FCB6747B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A5611-8C15-469D-9FD9-C5CFACBCBA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
   <si>
     <t>##var</t>
   </si>
@@ -211,7 +211,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>选取的数量</t>
+    <t>被攻击者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击者</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -272,6 +276,126 @@
   </si>
   <si>
     <t>自动选择特定群体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTweenType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StraightMoveTweenType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线运动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackingMoveTweenType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪运动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AroundMoveTweenType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>环绕运动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛物线运动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParabolaMoveTweenType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>acceleratedSpeed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>环绕半径</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotateAngle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>转弯角度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>parabolaTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛物线时长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>initAngle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始角度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallCasterUnit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallCasterPlayerUnit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹(Buff)的上级发送者(可能是子弹)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹(Buff)的递归发送者(一定是player或monster)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionCall</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTrig</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTriggerEvent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallBeHurtUnit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOnHitUnit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取的数量(-1表示不限制)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -363,6 +487,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -375,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,9 +587,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -393,6 +594,72 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -671,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -683,7 +950,8 @@
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -709,13 +977,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -761,316 +1029,716 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="25"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="C25" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="21"/>
+      <c r="K27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="21"/>
+      <c r="K28" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="14"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="22"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="22"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="J30" s="13"/>
+      <c r="K30" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="22"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="J31" s="13"/>
+      <c r="K31" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="22"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="14"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H23" s="4" t="s">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L39" s="14"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="14"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="J42" s="13"/>
+      <c r="K42" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="10"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="2"/>
-      <c r="H27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H36" s="4"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="L43" s="14"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="17"/>
+      <c r="K44" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A5611-8C15-469D-9FD9-C5CFACBCBA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4FC80F-23EF-49C2-BB5C-350AD5DDDDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -579,7 +579,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,76 +590,67 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -940,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -977,13 +968,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1101,634 +1092,526 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="7" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="12" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="14"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12" t="s">
+      <c r="B13" s="18"/>
+      <c r="H13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="12" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="14"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="14"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="14"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="14"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="10"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="14"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="14"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="14"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="12" t="s">
+      <c r="D27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="11" t="s">
+      <c r="J27" s="17"/>
+      <c r="K27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L27" s="14"/>
+      <c r="L27" s="10"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="20"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12" t="s">
+      <c r="B28" s="16"/>
+      <c r="C28" s="3"/>
+      <c r="H28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="21"/>
-      <c r="K28" s="11" t="s">
+      <c r="J28" s="17"/>
+      <c r="K28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="14"/>
+      <c r="L28" s="10"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="22"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12" t="s">
+      <c r="B29" s="18"/>
+      <c r="H29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="14"/>
+      <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="22"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12" t="s">
+      <c r="B30" s="18"/>
+      <c r="H30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L30" s="14"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12" t="s">
+      <c r="B31" s="18"/>
+      <c r="H31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L31" s="14"/>
+      <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12" t="s">
+      <c r="B32" s="18"/>
+      <c r="H32" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L32" s="14"/>
+      <c r="L32" s="10"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="14"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="14"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="10"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="14"/>
+      <c r="L35" s="10"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="16" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7" t="s">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="7" t="s">
+      <c r="J38" s="7"/>
+      <c r="K38" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L38" s="9"/>
+      <c r="L38" s="8"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="12" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="H39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L39" s="14"/>
+      <c r="L39" s="10"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="14"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="10"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L41" s="14"/>
+      <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L42" s="14"/>
+      <c r="L42" s="10"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="10"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="12" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="H43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="L43" s="14"/>
+      <c r="L43" s="10"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="16" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="16" t="s">
+      <c r="G44" s="13"/>
+      <c r="H44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="I44" s="16" t="s">
+      <c r="I44" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J44" s="17"/>
-      <c r="K44" s="16" t="s">
+      <c r="J44" s="13"/>
+      <c r="K44" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L44" s="18"/>
+      <c r="L44" s="14"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4FC80F-23EF-49C2-BB5C-350AD5DDDDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FCE233-CA99-4239-B4B9-4C7CAC99D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>攻击者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCallSelect</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -391,12 +387,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ActionCallOnHitUnit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>选取的数量(-1表示不限制)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击者(可能是子弹,也可能是人)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOnAttackUnit</t>
   </si>
 </sst>
 </file>
@@ -932,7 +931,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1024,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
@@ -1049,10 +1048,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="3"/>
     </row>
@@ -1097,7 +1096,7 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1132,10 +1131,10 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="10"/>
     </row>
@@ -1147,16 +1146,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="L15" s="10"/>
     </row>
@@ -1185,10 +1184,10 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -1200,15 +1199,15 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
@@ -1219,10 +1218,10 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1230,13 +1229,13 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1249,10 +1248,10 @@
         <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1262,13 +1261,13 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1281,10 +1280,10 @@
         <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1294,10 +1293,10 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1307,13 +1306,13 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1326,11 +1325,11 @@
         <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>45</v>
@@ -1407,19 +1406,19 @@
         <v>47</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L32" s="10"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -1429,13 +1428,13 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1445,22 +1444,22 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
@@ -1480,24 +1479,24 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L38" s="8"/>
     </row>
@@ -1506,25 +1505,25 @@
       <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L39" s="10"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1533,34 +1532,34 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L41" s="10"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>40</v>
@@ -1569,7 +1568,7 @@
         <v>19</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L42" s="10"/>
     </row>
@@ -1578,38 +1577,38 @@
       <c r="C43" s="3"/>
       <c r="F43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L43" s="10"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13"/>
       <c r="F44" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L44" s="14"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FCE233-CA99-4239-B4B9-4C7CAC99D439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1752EBB3-4EBB-46A4-980D-6EFC02E9A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1752EBB3-4EBB-46A4-980D-6EFC02E9A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20311951-A26E-4866-A6BB-D67AA240BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="263">
   <si>
     <t>##var</t>
   </si>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>张开的角度(单位度)(圆形则为360)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索半径</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -239,10 +235,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCallSelectLast</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -396,6 +388,664 @@
   </si>
   <si>
     <t>ActionCallOnAttackUnit</t>
+  </si>
+  <si>
+    <t>运动轨迹(子弹,Aoe)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间节点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间节点跳转</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaType</t>
+  </si>
+  <si>
+    <t>AreaType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RectangleArea</t>
+  </si>
+  <si>
+    <t>RectangleArea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UmbellateArea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽度(最左到最右)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>offSetPosition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>relateForward</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对偏移</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对旋转</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OffSetInfo</t>
+  </si>
+  <si>
+    <t>OffSetInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>offSetInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害计算方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否忽略高度</t>
+  </si>
+  <si>
+    <t>keepHorizontal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ignoringHeight </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保持水平(忽略高度时此字段无效)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞型张开的角度(单位度)(360则为圆形)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitWhenUmbellate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞型选择</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitWhenRectangle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形选择</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>rectangleArea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>umbellateArea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞型信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageAllot</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个都是总额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均分摊总额伤害</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageAllotShare</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageAllotTotal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围伤害分配方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害逐个变化(递增/递减)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageAllotChg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>weightChg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isKeepTotal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保持总伤害不变(false的时候，第一个伤害为原伤害，后面逐步变化)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重提升百分比(weight取值10表示递增10%，取值-15表示递减15%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向目标运动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetMoveTweenType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBuffInfo</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>addStack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffAction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(s)</t>
+  </si>
+  <si>
+    <t>新增的层数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff基本逻辑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAction</t>
+  </si>
+  <si>
+    <t>BuffAction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionModifyAttribute</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionModifyMotion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionNone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做事情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改运动</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>numericType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始附加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照层数附加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ControlState</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>controlState</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>delayTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟多久后触发action</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffRemoveType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffRemoveCur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffRemoveByTag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffRemoveByType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=ActionCfg_ref_group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除当前Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除包含tag的Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除增益/减益Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTagType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDurationChgType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDurationChgCur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDurationChgOrg</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改Buff剩余时长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftTimeScale</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackCountScale</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余时长的缩放</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>层数的缩放</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用当前剩余时长进行修改(leftTime*leftTimeScale+stackCountScale*orgDuration*(stackCount-1))</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用原时长进行修改(orgDuration + stackCountScale*orgDuration*(stackCount-1))</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>BuffStackCountCondition</t>
+  </si>
+  <si>
+    <t>BuffPassTimeCondition</t>
+  </si>
+  <si>
+    <t>BuffLeftTimeCondition</t>
+  </si>
+  <si>
+    <t>BuffTagTypeCondition</t>
+  </si>
+  <si>
+    <t>BuffTypeCondition</t>
+  </si>
+  <si>
+    <t>AttributeCondition</t>
+  </si>
+  <si>
+    <t>ProbabilityCondition</t>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断Buff层数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断Buff过去时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断Buff剩余时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断Buff tag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断Buff type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断属性值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCompare</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionCompare</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件符号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackCount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>passTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPercent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff层数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否百分比</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>leftTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurHpCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断剩余血量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断概率(0-100)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个条件与操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象选择器</t>
+  </si>
+  <si>
+    <t>(list#sep=|),SubCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,Condition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发事件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionModifyControlState</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitOne</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallAutoUnitArea</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffRemoveByTagGroup</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除包含tagGroup的Buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffTagGroupType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffTagGroupType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackActionCall</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHitChkCanBeControl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时,能否被控制(破霸体)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>beControl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>radiusAddSpeed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>环绕半径增加速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -478,7 +1128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -566,6 +1216,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,7 +1265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -646,6 +1333,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -928,10 +1648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -967,13 +1690,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1023,7 +1746,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>140</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
@@ -1036,53 +1762,61 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1091,71 +1825,73 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="H13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="L14" s="10"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>91</v>
+        <v>19</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="L15" s="10"/>
     </row>
@@ -1170,457 +1906,1694 @@
         <v>22</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="H17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="18"/>
+      <c r="H18" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" s="10"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="B20" s="18"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="D22" s="3"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="21"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="17" t="s">
+        <v>241</v>
+      </c>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>242</v>
+      </c>
       <c r="J25" s="17"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="10"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" s="14"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="10"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="B28" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="18"/>
-      <c r="H29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>39</v>
+      <c r="B29" s="9"/>
+      <c r="D29" s="3"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="H30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>43</v>
+      <c r="B30" s="21"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17" t="s">
+        <v>255</v>
       </c>
       <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
-      <c r="H31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="I31" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
-      <c r="H32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L32" s="10"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="10"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="10"/>
+      <c r="B34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="8"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="L35" s="10"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="12" t="s">
+      <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L38" s="8"/>
+      <c r="F38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="H39" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="B39" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="2"/>
       <c r="L39" s="10"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>67</v>
+      <c r="B40" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="2"/>
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" s="10"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="10"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="10"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="3"/>
+      <c r="H44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="17"/>
+      <c r="K44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" s="10"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="18"/>
+      <c r="H45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="17"/>
+      <c r="K45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45" s="10"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="18"/>
+      <c r="H46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" s="17"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="10"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="10"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="18"/>
+      <c r="H48" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L48" s="10"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L49" s="10"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="10"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="18"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="10"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="10"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="7"/>
+      <c r="H57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="9"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="10"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="10"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L60" s="10"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="C61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L61" s="10"/>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" s="9"/>
+      <c r="C62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="H62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L62" s="10"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" s="9"/>
+      <c r="C63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="H63" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L63" s="10"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="10"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I65" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="J65" s="13"/>
+      <c r="K65" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L41" s="10"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="L65" s="14"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" s="9"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L69" s="10"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L42" s="10"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="H43" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I43" s="3" t="s">
+      <c r="K70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L70" s="10"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="18"/>
+      <c r="H71" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L43" s="10"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I44" s="12" t="s">
+      <c r="K71" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L71" s="10"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H47" s="3"/>
+      <c r="K72" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L72" s="10"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="22"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="13"/>
+      <c r="K73" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L73" s="14"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" s="18"/>
+      <c r="H76" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K76" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="22"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J77" s="13"/>
+      <c r="K77" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J79" s="7"/>
+      <c r="K79" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="22"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="13"/>
+      <c r="K80" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83" s="24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="9"/>
+      <c r="C84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="H84" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K84" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="14"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="7"/>
+      <c r="D88" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="7"/>
+      <c r="K88" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="18"/>
+      <c r="H89" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="18"/>
+      <c r="H90" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K90" s="24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="22"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" s="13"/>
+      <c r="K91" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="8"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s">
+        <v>163</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K94" s="10"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" t="s">
+        <v>163</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="9"/>
+      <c r="D96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="H96" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="9"/>
+      <c r="F97" s="3"/>
+      <c r="H97" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="14"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="8"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K102" s="10"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K103" s="10"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K104" s="10"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G105" s="13"/>
+      <c r="H105" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I105" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="J105" s="13"/>
+      <c r="K105" s="14"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" s="7"/>
+      <c r="F107" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="8"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B108" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="9"/>
+      <c r="C109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="H109" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G110" s="13"/>
+      <c r="H110" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="13"/>
+      <c r="K110" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J112" s="7"/>
+      <c r="K112" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C113" t="s">
+        <v>208</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K113" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C114" t="s">
+        <v>208</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K114" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="18"/>
+      <c r="F115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K115" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" t="s">
+        <v>208</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="18"/>
+      <c r="F117" s="3"/>
+      <c r="H117" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K117" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" t="s">
+        <v>208</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K118" s="10"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C119" t="s">
+        <v>208</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K119" s="10"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" t="s">
+        <v>208</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K120" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="18"/>
+      <c r="F121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K121" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C122" t="s">
+        <v>208</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K122" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="18"/>
+      <c r="F123" s="3"/>
+      <c r="H123" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K123" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C124" t="s">
+        <v>208</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K124" s="24"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G125" s="13"/>
+      <c r="H125" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J125" s="13"/>
+      <c r="K125" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" s="29"/>
+      <c r="D127" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E127" s="29"/>
+      <c r="F127" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G127" s="29"/>
+      <c r="H127" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="I127" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J127" s="29"/>
+      <c r="K127" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1628,6 +3601,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20311951-A26E-4866-A6BB-D67AA240BEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264B953A-B338-43AC-8FFF-1A2F2FA28522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="280">
   <si>
     <t>##var</t>
   </si>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>上级的选择</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>手动选择对象</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -414,9 +410,6 @@
   </si>
   <si>
     <t>RectangleArea</t>
-  </si>
-  <si>
-    <t>RectangleArea</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1045,6 +1038,75 @@
   </si>
   <si>
     <t>环绕半径增加速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterWaveCallNode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷怪节点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多久之后发生，单位：秒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalNum</t>
+  </si>
+  <si>
+    <t>总刷怪数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterCfgId</t>
+  </si>
+  <si>
+    <t>rewardGold</t>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个击杀奖励金币</t>
+  </si>
+  <si>
+    <t>怪物等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>onceCallNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>onceIntervalTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次出怪数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出怪间隔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>isSave</t>
+  </si>
+  <si>
+    <t>是否存储选择结果</t>
+  </si>
+  <si>
+    <t>保持的选择</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1648,13 +1710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K64" sqref="K64"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1746,10 +1808,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
@@ -1766,13 +1828,13 @@
       <c r="D5" s="3"/>
       <c r="F5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1780,7 +1842,7 @@
         <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>23</v>
@@ -1794,29 +1856,29 @@
         <v>50</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1829,7 +1891,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>25</v>
@@ -1863,7 +1925,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -1876,7 +1938,7 @@
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L14" s="8"/>
     </row>
@@ -1885,13 +1947,13 @@
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L15" s="10"/>
     </row>
@@ -1906,7 +1968,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J16" s="17"/>
       <c r="K16" s="3" t="s">
@@ -1923,20 +1985,20 @@
         <v>50</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L17" s="10"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="H18" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -1948,14 +2010,14 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L19" s="14"/>
     </row>
@@ -1967,24 +2029,24 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="27" t="s">
         <v>88</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>89</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -1993,14 +2055,14 @@
       <c r="D22" s="3"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L22" s="10"/>
     </row>
@@ -2015,7 +2077,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="17" t="s">
@@ -2038,7 +2100,7 @@
       </c>
       <c r="J24" s="17"/>
       <c r="K24" s="17" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L24" s="10"/>
     </row>
@@ -2050,14 +2112,14 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L25" s="10"/>
     </row>
@@ -2069,14 +2131,14 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L26" s="14"/>
     </row>
@@ -2087,24 +2149,24 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="27"/>
       <c r="H28" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I28" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J28" s="27"/>
       <c r="K28" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L28" s="8"/>
     </row>
@@ -2116,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17" t="s">
@@ -2132,14 +2194,14 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L30" s="10"/>
     </row>
@@ -2151,14 +2213,14 @@
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I31" s="33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L31" s="14"/>
     </row>
@@ -2177,7 +2239,7 @@
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="6" t="s">
@@ -2187,34 +2249,41 @@
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="6"/>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="F35" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="2"/>
       <c r="L35" s="10"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>278</v>
+      </c>
       <c r="L36" s="10"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -2225,7 +2294,7 @@
         <v>49</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2241,7 +2310,7 @@
         <v>49</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -2257,7 +2326,7 @@
         <v>49</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2272,10 +2341,16 @@
       <c r="C40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="H40" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="J40" s="17"/>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="L40" s="10"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -2286,7 +2361,7 @@
         <v>53</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L41" s="10"/>
     </row>
@@ -2298,10 +2373,10 @@
         <v>53</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2310,14 +2385,14 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C43" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>47</v>
@@ -2326,7 +2401,7 @@
         <v>46</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L43" s="10"/>
     </row>
@@ -2362,10 +2437,10 @@
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="18"/>
       <c r="H46" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J46" s="17"/>
       <c r="K46" s="2"/>
@@ -2373,13 +2448,13 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>38</v>
@@ -2395,46 +2470,46 @@
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="18"/>
       <c r="H48" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="I49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L49" s="10"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2448,13 +2523,13 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2464,13 +2539,13 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -2480,19 +2555,19 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L54" s="10"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" s="20" t="s">
         <v>50</v>
@@ -2515,26 +2590,26 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J57" s="7"/>
       <c r="K57" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L57" s="8"/>
     </row>
@@ -2543,25 +2618,25 @@
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="H58" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L58" s="10"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -2570,43 +2645,43 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H60" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L60" s="10"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="H61" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L61" s="10"/>
     </row>
@@ -2621,7 +2696,7 @@
         <v>19</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L62" s="10"/>
     </row>
@@ -2630,25 +2705,25 @@
       <c r="C63" s="3"/>
       <c r="F63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L63" s="10"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -2657,26 +2732,26 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
       <c r="F65" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G65" s="13"/>
       <c r="H65" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L65" s="14"/>
     </row>
@@ -2689,26 +2764,26 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>36</v>
       </c>
       <c r="J68" s="7"/>
       <c r="K68" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L68" s="8"/>
     </row>
@@ -2718,25 +2793,25 @@
       <c r="D69" s="3"/>
       <c r="F69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L69" s="10"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>40</v>
@@ -2758,28 +2833,28 @@
         <v>19</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L71" s="10"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L72" s="10"/>
     </row>
@@ -2791,49 +2866,49 @@
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
       <c r="H73" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I73" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J73" s="13"/>
       <c r="K73" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L73" s="14"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="6"/>
       <c r="E75" s="7"/>
       <c r="F75" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J75" s="7"/>
       <c r="K75" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="18"/>
       <c r="H76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I76" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="K76" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -2844,36 +2919,36 @@
       <c r="F77" s="13"/>
       <c r="G77" s="13"/>
       <c r="H77" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J77" s="13"/>
       <c r="K77" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="6"/>
       <c r="E79" s="7"/>
       <c r="F79" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J79" s="7"/>
       <c r="K79" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -2884,27 +2959,27 @@
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I80" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -2914,22 +2989,22 @@
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F83" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K83" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
@@ -2937,38 +3012,38 @@
       <c r="C84" s="3"/>
       <c r="F84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I84" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K84" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="K85" s="10"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13"/>
       <c r="F86" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -2978,50 +3053,50 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>19</v>
       </c>
       <c r="J88" s="7"/>
       <c r="K88" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="18"/>
       <c r="H89" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K89" s="24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="18"/>
       <c r="H90" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
@@ -3032,27 +3107,27 @@
       <c r="F91" s="13"/>
       <c r="G91" s="13"/>
       <c r="H91" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I91" s="12" t="s">
         <v>29</v>
       </c>
       <c r="J91" s="13"/>
       <c r="K91" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
@@ -3062,34 +3137,34 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C94" t="s">
-        <v>163</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="K94" s="10"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C95" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
@@ -3097,59 +3172,59 @@
       <c r="D96" s="3"/>
       <c r="F96" s="3"/>
       <c r="H96" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
       <c r="F97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K97" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I98" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K98" s="24" t="s">
         <v>178</v>
-      </c>
-      <c r="K98" s="24" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13"/>
       <c r="F99" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G99" s="13"/>
       <c r="H99" s="13"/>
@@ -3159,11 +3234,11 @@
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
@@ -3175,85 +3250,85 @@
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K102" s="10"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F103" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I103" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="K103" s="10"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I104" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="K104" s="10"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
       <c r="F105" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G105" s="13"/>
       <c r="H105" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J105" s="13"/>
       <c r="K105" s="14"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
@@ -3263,22 +3338,22 @@
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
@@ -3286,263 +3361,263 @@
       <c r="C109" s="3"/>
       <c r="F109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G110" s="13"/>
       <c r="H110" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I110" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J110" s="13"/>
       <c r="K110" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" s="7"/>
       <c r="H112" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J112" s="7"/>
       <c r="K112" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C113" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I113" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K114" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" s="18"/>
       <c r="F115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K115" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K116" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="18"/>
       <c r="F117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K117" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C118" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K118" s="10"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K119" s="10"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C120" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K120" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="18"/>
       <c r="F121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K121" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C122" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I122" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K122" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="18"/>
       <c r="F123" s="3"/>
       <c r="H123" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K123" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C124" t="s">
+        <v>206</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H124" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="C124" t="s">
-        <v>208</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>36</v>
@@ -3551,49 +3626,155 @@
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13"/>
       <c r="F125" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G125" s="13"/>
       <c r="H125" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I125" s="12" t="s">
         <v>46</v>
       </c>
       <c r="J125" s="13"/>
       <c r="K125" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C127" s="29"/>
       <c r="D127" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E127" s="29"/>
       <c r="F127" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G127" s="29"/>
       <c r="H127" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I127" s="30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J127" s="29"/>
       <c r="K127" s="31"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" s="7"/>
+      <c r="K129" s="23" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="9"/>
+      <c r="D130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="H130" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K130" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="9"/>
+      <c r="D131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="H131" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K131" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="18"/>
+      <c r="H132" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K132" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="18"/>
+      <c r="H133" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K133" s="24" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="18"/>
+      <c r="H134" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K134" s="24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="22"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J135" s="13"/>
+      <c r="K135" s="25" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264B953A-B338-43AC-8FFF-1A2F2FA28522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91CA79-45F3-4D67-A555-50736EACEDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="303">
   <si>
     <t>##var</t>
   </si>
@@ -977,10 +977,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>自身</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ActionCallAutoUnitArea</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1107,6 +1103,101 @@
   </si>
   <si>
     <t>保持的选择</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayModeBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔防</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefense1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayPK1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamModeBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllPlayersOneGroup</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerAlone</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>团体合作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>各自为战</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerTeam</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>组队合作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTeamCount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAllowDiffTeamMember</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法配置表id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大队伍数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许队伍人数不一致</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=GamePlayTowerDefenseCfgCategory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamePlayModeCfgId</t>
+  </si>
+  <si>
+    <t>string#ref=GamePlayPKCfgCategory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isChgToSelectPos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否转为记录成Pos位置信息(需要在特定位置施法有效,因为unit可能已走开)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅ActionCfg_AttackArea中使用,表示使用调用时传入的对象进行处理</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1327,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,6 +1523,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1710,13 +1804,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1861,24 +1955,24 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H8" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>240</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H9" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>240</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1992,13 +2086,13 @@
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="H18" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>240</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -2010,14 +2104,14 @@
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
       <c r="H19" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>240</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L19" s="14"/>
     </row>
@@ -2112,14 +2206,14 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>240</v>
       </c>
       <c r="J25" s="17"/>
       <c r="K25" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L25" s="10"/>
     </row>
@@ -2131,14 +2225,14 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>240</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L26" s="14"/>
     </row>
@@ -2149,7 +2243,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
@@ -2194,14 +2288,14 @@
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I30" s="17" t="s">
         <v>240</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L30" s="10"/>
     </row>
@@ -2213,14 +2307,14 @@
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
       <c r="H31" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>240</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L31" s="14"/>
     </row>
@@ -2260,7 +2354,7 @@
         <v>50</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -2276,13 +2370,13 @@
         <v>50</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="K36" t="s">
         <v>277</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="K36" t="s">
-        <v>278</v>
       </c>
       <c r="L36" s="10"/>
     </row>
@@ -2342,14 +2436,14 @@
         <v>50</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L40" s="10"/>
     </row>
@@ -2385,7 +2479,7 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>43</v>
@@ -2451,7 +2545,7 @@
         <v>130</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>131</v>
@@ -2481,1005 +2575,1002 @@
       <c r="L48" s="10"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="B49" s="18"/>
       <c r="H49" s="3" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="L49" s="10"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>43</v>
+        <v>132</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="K50" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="L50" s="10"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="18"/>
-      <c r="K51" s="3"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="35"/>
+      <c r="F51" s="3"/>
+      <c r="H51" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>301</v>
+      </c>
       <c r="L51" s="10"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="17"/>
       <c r="K52" s="2"/>
       <c r="L52" s="10"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="B53" s="18"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="17"/>
       <c r="K53" s="2"/>
       <c r="L53" s="10"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F54" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L54" s="10"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="19" t="s">
+      <c r="L56" s="10"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C57" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="12" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="14"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6" t="s">
+      <c r="E59" s="7"/>
+      <c r="F59" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="6" t="s">
+      <c r="G59" s="7"/>
+      <c r="H59" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I59" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="6" t="s">
+      <c r="J59" s="7"/>
+      <c r="K59" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L57" s="8"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
-      <c r="H58" s="3" t="s">
+      <c r="L59" s="8"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" s="9"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="3"/>
+      <c r="H60" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L58" s="10"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="10"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L60" s="10"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="K61" s="3"/>
       <c r="L61" s="10"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
-      <c r="C62" s="3"/>
-      <c r="F62" s="3"/>
+      <c r="B62" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="H62" s="3" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L62" s="10"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
-      <c r="C63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="B63" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="H63" s="3" t="s">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="L63" s="10"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="H64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L64" s="10"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" s="9"/>
+      <c r="C65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="H65" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L65" s="10"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F66" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="10"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="11" t="s">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="10"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="12" t="s">
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G65" s="13"/>
-      <c r="H65" s="12" t="s">
+      <c r="G67" s="13"/>
+      <c r="H67" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="13"/>
-      <c r="K65" s="12" t="s">
+      <c r="J67" s="13"/>
+      <c r="K67" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L65" s="14"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H67" s="3"/>
+      <c r="L67" s="14"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="6" t="s">
+      <c r="C70" s="5"/>
+      <c r="D70" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="6" t="s">
+      <c r="E70" s="7"/>
+      <c r="F70" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6" t="s">
+      <c r="G70" s="7"/>
+      <c r="H70" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I70" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="6" t="s">
+      <c r="J70" s="7"/>
+      <c r="K70" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L68" s="8"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="H69" s="3" t="s">
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" s="9"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="H71" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K71" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="L69" s="10"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" t="s">
-        <v>96</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L70" s="10"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
-      <c r="H71" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="L71" s="10"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
         <v>96</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L72" s="10"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="18"/>
+      <c r="H73" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L73" s="10"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L72" s="10"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="22"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13" t="s">
+      <c r="L74" s="10"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" s="22"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I73" s="12" t="s">
+      <c r="I75" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J73" s="13"/>
-      <c r="K73" s="12" t="s">
+      <c r="J75" s="13"/>
+      <c r="K75" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="L73" s="14"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
+      <c r="L75" s="14"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="6" t="s">
+      <c r="C77" s="7"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="6" t="s">
+      <c r="G77" s="7"/>
+      <c r="H77" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I75" s="6" t="s">
+      <c r="I77" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="23" t="s">
+      <c r="J77" s="7"/>
+      <c r="K77" s="23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
-      <c r="H76" s="3" t="s">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" s="18"/>
+      <c r="H78" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I78" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K76" s="24" t="s">
+      <c r="K78" s="24" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="22"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="12" t="s">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" s="22"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I77" s="12" t="s">
+      <c r="I79" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J77" s="13"/>
-      <c r="K77" s="25" t="s">
+      <c r="J79" s="13"/>
+      <c r="K79" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="6" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="6" t="s">
+      <c r="G81" s="7"/>
+      <c r="H81" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I81" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="7"/>
-      <c r="K79" s="23" t="s">
+      <c r="J81" s="7"/>
+      <c r="K81" s="23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="22"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="12" t="s">
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="22"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I80" s="12" t="s">
+      <c r="I82" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J80" s="13"/>
-      <c r="K80" s="25" t="s">
+      <c r="J82" s="13"/>
+      <c r="K82" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="6" t="s">
+      <c r="C84" s="7"/>
+      <c r="D84" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="6" t="s">
+      <c r="E84" s="7"/>
+      <c r="F84" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="8"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K83" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
-      <c r="C84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="H84" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K84" s="24" t="s">
-        <v>149</v>
-      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="8"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>139</v>
       </c>
       <c r="F85" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="9"/>
+      <c r="C86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="H86" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K86" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K85" s="10"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="11" t="s">
+      <c r="K87" s="10"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C88" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="12" t="s">
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="14"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" s="4" t="s">
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="14"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="6" t="s">
+      <c r="C90" s="7"/>
+      <c r="D90" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="6" t="s">
+      <c r="E90" s="7"/>
+      <c r="F90" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="6" t="s">
+      <c r="G90" s="7"/>
+      <c r="H90" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I88" s="6" t="s">
+      <c r="I90" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J88" s="7"/>
-      <c r="K88" s="8" t="s">
+      <c r="J90" s="7"/>
+      <c r="K90" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="18"/>
-      <c r="H89" s="3" t="s">
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="18"/>
+      <c r="H91" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I91" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K89" s="24" t="s">
+      <c r="K91" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="18"/>
-      <c r="H90" s="3" t="s">
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" s="18"/>
+      <c r="H92" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I92" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K90" s="24" t="s">
+      <c r="K92" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="22"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="12" t="s">
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" s="22"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="I91" s="12" t="s">
+      <c r="I93" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J91" s="13"/>
-      <c r="K91" s="25" t="s">
+      <c r="J93" s="13"/>
+      <c r="K93" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="4" t="s">
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="6" t="s">
+      <c r="C95" s="7"/>
+      <c r="D95" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E93" s="7"/>
-      <c r="F93" s="6" t="s">
+      <c r="E95" s="7"/>
+      <c r="F95" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="8"/>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="8"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C96" t="s">
         <v>161</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F96" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="K94" s="10"/>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
+      <c r="K96" s="10"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F97" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K95" s="24" t="s">
+      <c r="K97" s="24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
-      <c r="D96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="H96" s="3" t="s">
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" s="9"/>
+      <c r="D98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="H98" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="I98" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K96" s="24" t="s">
+      <c r="K98" s="24" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="9"/>
-      <c r="F97" s="3"/>
-      <c r="H97" s="3" t="s">
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" s="9"/>
+      <c r="F99" s="3"/>
+      <c r="H99" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="I99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K97" s="24" t="s">
+      <c r="K99" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="9" t="s">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>161</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F100" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H100" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="I100" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K98" s="24" t="s">
+      <c r="K100" s="24" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="11" t="s">
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C101" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="12" t="s">
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="14"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="4" t="s">
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="14"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="6" t="s">
+      <c r="C103" s="7"/>
+      <c r="D103" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="8"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K102" s="10"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K103" s="10"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="8"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F104" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K104" s="10"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K105" s="10"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H104" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="K104" s="10"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="11" t="s">
+      <c r="K106" s="10"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C107" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="12" t="s">
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G105" s="13"/>
-      <c r="H105" s="12" t="s">
+      <c r="G107" s="13"/>
+      <c r="H107" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="I105" s="12" t="s">
+      <c r="I107" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J105" s="13"/>
-      <c r="K105" s="14"/>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="4" t="s">
+      <c r="J107" s="13"/>
+      <c r="K107" s="14"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B109" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C107" s="7"/>
-      <c r="D107" s="6" t="s">
+      <c r="C109" s="7"/>
+      <c r="D109" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="6" t="s">
+      <c r="E109" s="7"/>
+      <c r="F109" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="8"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="9" t="s">
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="8"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K108" s="24" t="s">
+      <c r="K110" s="24" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="9"/>
-      <c r="C109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="H109" s="3" t="s">
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B111" s="9"/>
+      <c r="C111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="H111" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="I111" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K109" s="24" t="s">
+      <c r="K111" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="11" t="s">
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C112" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="12" t="s">
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G110" s="13"/>
-      <c r="H110" s="12" t="s">
+      <c r="G112" s="13"/>
+      <c r="H112" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="I110" s="12" t="s">
+      <c r="I112" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J110" s="13"/>
-      <c r="K110" s="25" t="s">
+      <c r="J112" s="13"/>
+      <c r="K112" s="25" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="26" t="s">
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7" t="s">
+      <c r="C114" s="7"/>
+      <c r="D114" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="6" t="s">
+      <c r="E114" s="7"/>
+      <c r="F114" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G112" s="7"/>
-      <c r="H112" s="6" t="s">
+      <c r="G114" s="7"/>
+      <c r="H114" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="I112" s="6" t="s">
+      <c r="I114" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J112" s="7"/>
-      <c r="K112" s="23" t="s">
+      <c r="J114" s="7"/>
+      <c r="K114" s="23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B113" s="18" t="s">
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C115" t="s">
         <v>206</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="I115" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K113" s="24" t="s">
+      <c r="K115" s="24" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C114" t="s">
-        <v>206</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K114" s="24" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="18"/>
-      <c r="F115" s="3"/>
-      <c r="H115" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K115" s="24" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C116" t="s">
         <v>206</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>226</v>
@@ -3495,7 +3586,7 @@
       <c r="B117" s="18"/>
       <c r="F117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>19</v>
@@ -3506,91 +3597,91 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C118" t="s">
         <v>206</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K118" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="K118" s="24" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="C119" t="s">
-        <v>206</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="B119" s="18"/>
+      <c r="F119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K119" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="K119" s="24" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C120" t="s">
         <v>206</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K120" s="24" t="s">
-        <v>181</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="K120" s="10"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="18"/>
-      <c r="F121" s="3"/>
+      <c r="B121" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" t="s">
+        <v>206</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="H121" s="3" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K121" s="24" t="s">
-        <v>123</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="K121" s="10"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="9" t="s">
-        <v>231</v>
+      <c r="B122" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="C122" t="s">
         <v>206</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="K122" s="24" t="s">
-        <v>228</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
@@ -3608,172 +3699,317 @@
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C124" t="s">
         <v>206</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K124" s="24"/>
+      <c r="K124" s="24" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="22" t="s">
+      <c r="B125" s="18"/>
+      <c r="F125" s="3"/>
+      <c r="H125" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K125" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" t="s">
+        <v>206</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K126" s="24"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C127" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="12" t="s">
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="G125" s="13"/>
-      <c r="H125" s="12" t="s">
+      <c r="G127" s="13"/>
+      <c r="H127" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I125" s="12" t="s">
+      <c r="I127" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J125" s="13"/>
-      <c r="K125" s="25" t="s">
+      <c r="J127" s="13"/>
+      <c r="K127" s="25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="28" t="s">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="C127" s="29"/>
-      <c r="D127" s="30" t="s">
+      <c r="C129" s="29"/>
+      <c r="D129" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="E127" s="29"/>
-      <c r="F127" s="30" t="s">
+      <c r="E129" s="29"/>
+      <c r="F129" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="G127" s="29"/>
-      <c r="H127" s="30" t="s">
+      <c r="G129" s="29"/>
+      <c r="H129" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="I127" s="30" t="s">
+      <c r="I129" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="J127" s="29"/>
-      <c r="K127" s="31"/>
-    </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="4" t="s">
+      <c r="J129" s="29"/>
+      <c r="K129" s="31"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E129" s="7"/>
-      <c r="F129" s="6" t="s">
+      <c r="G131" s="7"/>
+      <c r="H131" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" s="7"/>
+      <c r="K131" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J129" s="7"/>
-      <c r="K129" s="23" t="s">
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="9"/>
+      <c r="D132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="H132" s="3" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B130" s="9"/>
-      <c r="D130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="H130" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="I130" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K130" s="24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B131" s="9"/>
-      <c r="D131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="H131" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="I131" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K131" s="24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="18"/>
-      <c r="H132" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K132" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="9"/>
+      <c r="D133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K133" s="24" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B133" s="18"/>
-      <c r="H133" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K133" s="24" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" s="18"/>
       <c r="H134" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I134" s="3" t="s">
         <v>46</v>
       </c>
       <c r="K134" s="24" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="18"/>
+      <c r="H135" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K135" s="24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="22"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="12" t="s">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="18"/>
+      <c r="H136" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I135" s="12" t="s">
+      <c r="I136" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J135" s="13"/>
-      <c r="K135" s="25" t="s">
+      <c r="K136" s="24" t="s">
         <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="22"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J137" s="13"/>
+      <c r="K137" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H148" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37597F3-A9A1-42C8-8311-611E753C4F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005CB708-15C8-4864-9203-85F32AC946B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="415">
   <si>
     <t>##var</t>
   </si>
@@ -1032,14 +1021,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayTowerDefense1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayPK1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>TeamModeBase</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1095,454 +1076,540 @@
     <t>gamePlayModeCfgId</t>
   </si>
   <si>
+    <t>isChgToSelectPos</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否转为记录成Pos位置信息(需要在特定位置施法有效,因为unit可能已走开)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅ActionCfg_AttackArea中使用,表示使用调用时传入的对象进行处理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOnAttackUnit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProbabilityCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnHitChkCanBeControlCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillIdCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断当前是否这个技能id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotTypeCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断当前是否类型的技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotType</t>
+  </si>
+  <si>
+    <t>skillSlotType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=SkillCfgCategory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffIdCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断BuffId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=BuffCfgCategory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordIntCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断recordInt值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordKey</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordStringCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断recordString值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChkSelectUnitNumCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断当前选中对象数量(目前仅AttackArea时判断是否攻击到人使用)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改属性(float chgValue = buffActionModifyAttribute.BaseValue + buffActionModifyAttribute.StackValue * stackCount)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改技能cd或距离(float chgValue = buffActionModifyAttribute.BaseValue + buffActionModifyAttribute.StackValue * stackCount)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能的CD属性或Dis属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionModifySkillAttribute</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillId</t>
+  </si>
+  <si>
+    <t>skillSlotType</t>
+  </si>
+  <si>
+    <t>技能id</t>
+  </si>
+  <si>
+    <t>技能类型</t>
+  </si>
+  <si>
+    <t>string#ref=SkillCfgCategory?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordKeyInt</t>
+  </si>
+  <si>
+    <t>RecordKeyString</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不做额外事情</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,BuffAction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffActions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛物线轨迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向目标轨迹(实时面向目标)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>环绕轨迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪轨迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>直线轨迹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>acceleratedSpeed</t>
+  </si>
+  <si>
+    <t>加速度</t>
+  </si>
+  <si>
+    <t>BuffActionModifyMotionHorizontal_Forward</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionModifyMotionHorizontal_Back</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionModifyMotionVertical</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改运动水平方向_面向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改运动水平方向_背向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改运动垂直方向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffActionModifyMotionHorizontal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改运动水平方向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MotionTargetType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>motionTargetType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动目标状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>被召唤Actor属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeCallActorAttrType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseSelfAttrTypeAndCallerLevel</t>
+  </si>
+  <si>
+    <t>UseSelfAttrTypeAndFixedLevel</t>
+  </si>
+  <si>
+    <t>UseCallerAttrTypeAndCallerLevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCallerAttrTypeAndFixedLevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用自身属性类型+召唤者等级 进行偏移</t>
+  </si>
+  <si>
+    <t>使用自身属性类型+固定等级</t>
+  </si>
+  <si>
+    <t>使用召唤者属性类型+等级 进行偏移</t>
+  </si>
+  <si>
+    <t>使用召唤者属性类型+固定等级</t>
+  </si>
+  <si>
+    <t>使用召唤者当前属性</t>
+  </si>
+  <si>
+    <t>offsetLevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixedLevel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseCallerCurAttr</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeActionCall</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoeTrig</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeTriggerEvent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeTargetCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aoe目标筛选器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>范围半径(米)</t>
+  </si>
+  <si>
+    <t>ActionCallOnAoeInUnit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aoe中的unit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOnAoeChgUnit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aoe刚进入或刚退出的unit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngleCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断和发起者的夹角</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>夹角(度)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALocalizeConfig</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>LocalizeConfig_EN</t>
+  </si>
+  <si>
+    <t>text_cn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_tw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_en</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_CN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalizeConfig_TW</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProbabilityRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordKeyInt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AngleRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChkSelectUnitNumRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordKey</t>
+  </si>
+  <si>
+    <t>CurHpRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffLeftTimeRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffStackCountRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffPassTimeRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordIntRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordStringRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordKey2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordKey1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxChgValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大允许修改值(-1表示不限制)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改运动(击退，吸引，击飞等)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseEndlessChallenge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔防(无尽模式)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefensePVE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔防(单人闯关模式)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeatNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterWaveNumScalePercentCoefficient</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterWaveLevelScalePercentCoefficient</t>
+  </si>
+  <si>
+    <t>使用最后N关进行轮询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每重复最后关卡时刷怪数量增加x%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每重复最后关卡时刷怪等级增加y%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每重复最后关卡时关卡奖励增加y%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>waveRewardGoldScalePercentCoefficient</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性的计算都由这几个组合而成 // 一个数值可能会多种情况影响，比如速度,加个buff可能增加速度绝对值100，也有些buff增加10%速度，所以一个值可以由5个值进行控制其最终结果 // final = (((base + add) * (100 + pct) / 100) + finalAdd) * (100 + finalPct) / 100;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseNormal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseTutorialFirst</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔防(新手引导模式)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayPKNormal</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefensePVP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔防(无尽出怪模式)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseEndlessChallengeMonster</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseEndlessChallengeMonster</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔防(PVP模式)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>string#ref=GamePlayPKCfgCategory</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>isChgToSelectPos</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否转为记录成Pos位置信息(需要在特定位置施法有效,因为unit可能已走开)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅ActionCfg_AttackArea中使用,表示使用调用时传入的对象进行处理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCallOnAttackUnit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProbabilityCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnHitChkCanBeControlCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillIdCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断当前是否这个技能id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillSlotTypeCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断当前是否类型的技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillSlotType</t>
-  </si>
-  <si>
-    <t>skillSlotType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string#ref=SkillCfgCategory</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffIdCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断BuffId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>string#ref=BuffCfgCategory</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordIntCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断recordInt值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordKey</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordStringCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断recordString值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChkSelectUnitNumCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断当前选中对象数量(目前仅AttackArea时判断是否攻击到人使用)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改属性(float chgValue = buffActionModifyAttribute.BaseValue + buffActionModifyAttribute.StackValue * stackCount)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改技能cd或距离(float chgValue = buffActionModifyAttribute.BaseValue + buffActionModifyAttribute.StackValue * stackCount)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能的CD属性或Dis属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffActionModifySkillAttribute</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillId</t>
-  </si>
-  <si>
-    <t>skillSlotType</t>
-  </si>
-  <si>
-    <t>技能id</t>
-  </si>
-  <si>
-    <t>技能类型</t>
-  </si>
-  <si>
-    <t>string#ref=SkillCfgCategory?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordKeyInt</t>
-  </si>
-  <si>
-    <t>RecordKeyString</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不做额外事情</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,BuffAction</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffActions</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>抛物线轨迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>定向目标轨迹(实时面向目标)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>环绕轨迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>追踪轨迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>直线轨迹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>acceleratedSpeed</t>
-  </si>
-  <si>
-    <t>加速度</t>
-  </si>
-  <si>
-    <t>BuffActionModifyMotionHorizontal_Forward</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffActionModifyMotionHorizontal_Back</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffActionModifyMotionVertical</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改运动水平方向_面向</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改运动水平方向_背向</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改运动垂直方向</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffActionModifyMotionHorizontal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改运动水平方向</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MotionTargetType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>motionTargetType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>运动目标状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>被召唤Actor属性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeCallActorAttrType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseSelfAttrTypeAndCallerLevel</t>
-  </si>
-  <si>
-    <t>UseSelfAttrTypeAndFixedLevel</t>
-  </si>
-  <si>
-    <t>UseCallerAttrTypeAndCallerLevel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseCallerAttrTypeAndFixedLevel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用自身属性类型+召唤者等级 进行偏移</t>
-  </si>
-  <si>
-    <t>使用自身属性类型+固定等级</t>
-  </si>
-  <si>
-    <t>使用召唤者属性类型+等级 进行偏移</t>
-  </si>
-  <si>
-    <t>使用召唤者属性类型+固定等级</t>
-  </si>
-  <si>
-    <t>使用召唤者当前属性</t>
-  </si>
-  <si>
-    <t>offsetLevel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixedLevel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏移等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定等级</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UseCallerCurAttr</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AoeActionCall</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>aoeTrig</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AoeTriggerEvent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AoeTargetCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aoe目标筛选器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>范围半径(米)</t>
-  </si>
-  <si>
-    <t>ActionCallOnAoeInUnit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aoe中的unit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionCallOnAoeChgUnit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aoe刚进入或刚退出的unit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AngleCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>判断和发起者的夹角</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>夹角(度)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALocalizeConfig</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>LocalizeConfig_EN</t>
-  </si>
-  <si>
-    <t>text_cn</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_tw</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>text_en</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_CN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalizeConfig_TW</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProbabilityRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordKeyInt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AngleRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChkSelectUnitNumRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordKey</t>
-  </si>
-  <si>
-    <t>CurHpRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffLeftTimeRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffStackCountRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffPassTimeRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttributeRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordIntRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordStringRecordCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordKey2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordKey1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxChgValue</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大允许修改值(-1表示不限制)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改运动(击退，吸引，击飞等)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2315,13 +2382,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L212"/>
+  <dimension ref="A1:N224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D134" sqref="D134"/>
+      <selection pane="bottomRight" activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2397,7 @@
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
     <col min="4" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
     <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" customWidth="1"/>
   </cols>
@@ -2410,55 +2477,55 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H5" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I5" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>366</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C8" t="s">
-        <v>369</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="I8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2654,7 +2721,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
@@ -2664,10 +2731,10 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="6" t="s">
@@ -2964,7 +3031,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
@@ -2972,18 +3039,18 @@
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I44" s="27" t="s">
         <v>19</v>
       </c>
       <c r="J44" s="27"/>
       <c r="K44" s="27" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L44" s="8"/>
     </row>
@@ -3279,13 +3346,13 @@
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="18"/>
       <c r="H63" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L63" s="10"/>
     </row>
@@ -3315,13 +3382,13 @@
       <c r="C65" s="2"/>
       <c r="F65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L65" s="10"/>
     </row>
@@ -3333,7 +3400,7 @@
         <v>38</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -3349,43 +3416,43 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L68" s="10"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L69" s="10"/>
     </row>
@@ -3400,13 +3467,13 @@
         <v>75</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L70" s="10"/>
     </row>
@@ -3421,19 +3488,19 @@
         <v>76</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I71" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L71" s="10"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>45</v>
@@ -3442,13 +3509,13 @@
         <v>82</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L72" s="10"/>
     </row>
@@ -3466,13 +3533,13 @@
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I73" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L73" s="14"/>
     </row>
@@ -3528,7 +3595,7 @@
         <v>57</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
@@ -3543,7 +3610,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>67</v>
@@ -3564,7 +3631,7 @@
         <v>57</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>71</v>
@@ -3615,7 +3682,7 @@
         <v>57</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -3632,7 +3699,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="F83" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="12" t="s">
@@ -3950,7 +4017,7 @@
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="6" t="s">
@@ -3958,7 +4025,7 @@
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="6"/>
@@ -3968,95 +4035,95 @@
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F107" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K107" s="24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F108" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K108" s="24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F109" t="s">
+        <v>344</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K109" s="24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F110" t="s">
+        <v>345</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K110" s="24" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G111" s="13"/>
       <c r="H111" s="12"/>
@@ -4069,17 +4136,17 @@
       <c r="C112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="4" t="s">
         <v>141</v>
       </c>
@@ -4103,7 +4170,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="18"/>
       <c r="H117" s="3" t="s">
         <v>143</v>
@@ -4115,19 +4182,19 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="18"/>
       <c r="H118" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K118" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="22"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
@@ -4145,7 +4212,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="s">
         <v>149</v>
       </c>
@@ -4162,8 +4229,11 @@
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="8"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N121" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
         <v>153</v>
       </c>
@@ -4171,11 +4241,11 @@
         <v>148</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K122" s="10"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="9" t="s">
         <v>151</v>
       </c>
@@ -4183,7 +4253,7 @@
         <v>148</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>156</v>
@@ -4195,7 +4265,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
       <c r="D124" s="3"/>
       <c r="F124" s="3"/>
@@ -4209,7 +4279,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
       <c r="F125" s="3"/>
       <c r="H125" s="3" t="s">
@@ -4222,28 +4292,28 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
       <c r="F126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K126" s="24" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C127" t="s">
         <v>148</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>156</v>
@@ -4252,10 +4322,10 @@
         <v>155</v>
       </c>
       <c r="K127" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
       <c r="D128" s="3"/>
       <c r="F128" s="3"/>
@@ -4287,39 +4357,39 @@
       <c r="D130" s="3"/>
       <c r="F130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K130" s="24" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
       <c r="F131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K131" s="24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" s="9"/>
       <c r="F132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K132" s="24" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
@@ -4330,16 +4400,16 @@
         <v>148</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K133" s="24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
@@ -4347,24 +4417,24 @@
       <c r="D134" s="3"/>
       <c r="F134" s="3"/>
       <c r="H134" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I134" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K134" s="24" t="s">
         <v>324</v>
-      </c>
-      <c r="K134" s="24" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>152</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
@@ -4372,33 +4442,33 @@
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>152</v>
       </c>
       <c r="F136" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="K136" s="24" t="s">
         <v>335</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="K136" s="24" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
@@ -4406,14 +4476,14 @@
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D138" s="3"/>
       <c r="F138" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
@@ -4639,7 +4709,7 @@
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C154" t="s">
         <v>186</v>
@@ -4648,10 +4718,10 @@
         <v>194</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K154" s="24" t="s">
         <v>206</v>
@@ -4692,7 +4762,7 @@
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B157" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C157" t="s">
         <v>186</v>
@@ -4714,10 +4784,10 @@
       <c r="B158" s="18"/>
       <c r="F158" s="3"/>
       <c r="H158" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K158" s="24" t="s">
         <v>208</v>
@@ -4758,7 +4828,7 @@
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C161" t="s">
         <v>186</v>
@@ -4780,10 +4850,10 @@
       <c r="B162" s="18"/>
       <c r="F162" s="3"/>
       <c r="H162" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K162" s="24" t="s">
         <v>208</v>
@@ -4791,19 +4861,19 @@
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B163" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C163" t="s">
         <v>186</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H163" s="3" t="s">
         <v>144</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K163" s="24" t="s">
         <v>144</v>
@@ -4880,7 +4950,7 @@
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C168" t="s">
         <v>186</v>
@@ -4902,10 +4972,10 @@
       <c r="B169" s="18"/>
       <c r="F169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K169" s="24" t="s">
         <v>112</v>
@@ -4946,7 +5016,7 @@
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C172" t="s">
         <v>186</v>
@@ -4968,10 +5038,10 @@
       <c r="B173" s="18"/>
       <c r="F173" s="3"/>
       <c r="H173" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K173" s="24" t="s">
         <v>112</v>
@@ -4979,19 +5049,19 @@
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C174" t="s">
         <v>186</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K174" s="3"/>
     </row>
@@ -5010,19 +5080,19 @@
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B176" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C176" t="s">
         <v>186</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K176" s="3"/>
     </row>
@@ -5039,19 +5109,19 @@
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C178" t="s">
         <v>186</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K178" s="3"/>
     </row>
@@ -5059,10 +5129,10 @@
       <c r="B179" s="18"/>
       <c r="F179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K179" s="24" t="s">
         <v>112</v>
@@ -5070,19 +5140,19 @@
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C180" t="s">
         <v>186</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K180" s="3"/>
     </row>
@@ -5090,16 +5160,16 @@
       <c r="B181" s="9"/>
       <c r="F181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K181" s="3"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C182" t="s">
         <v>186</v>
@@ -5117,16 +5187,16 @@
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C183" t="s">
         <v>186</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I183" s="3" t="s">
         <v>41</v>
@@ -5135,71 +5205,71 @@
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B184" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C184" t="s">
         <v>186</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K184" s="24"/>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C185" t="s">
         <v>186</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K185" s="24" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C186" t="s">
         <v>186</v>
       </c>
       <c r="F186" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K186" s="24" t="s">
         <v>288</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="K186" s="24" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C187" t="s">
         <v>186</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>36</v>
@@ -5208,32 +5278,32 @@
         <v>19</v>
       </c>
       <c r="K187" s="24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C188" t="s">
         <v>186</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I188" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K188" s="24" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C189" t="s">
         <v>186</v>
@@ -5253,7 +5323,7 @@
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" s="11" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C190" s="13" t="s">
         <v>186</v>
@@ -5265,10 +5335,10 @@
       </c>
       <c r="G190" s="13"/>
       <c r="H190" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I190" s="12" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J190" s="13"/>
       <c r="K190" s="25" t="s">
@@ -5318,7 +5388,7 @@
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B196" s="38" t="s">
-        <v>260</v>
+        <v>405</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>256</v>
@@ -5327,225 +5397,394 @@
         <v>258</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K196" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B197" s="38" t="s">
-        <v>261</v>
+        <v>406</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>256</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>259</v>
+        <v>407</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K197" s="39" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="40"/>
-      <c r="K198" s="41"/>
+      <c r="B198" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K198" s="39" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" s="38" t="s">
-        <v>262</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K199" s="41"/>
+        <v>412</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="K199" s="39" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B200" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="K200" s="41"/>
+      <c r="B200" s="38"/>
+      <c r="C200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="H200" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K200" s="39" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K201" s="41"/>
+      <c r="B201" s="38"/>
+      <c r="C201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="H201" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K201" s="39" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B202" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>268</v>
-      </c>
+      <c r="B202" s="38"/>
+      <c r="C202" s="3"/>
+      <c r="F202" s="3"/>
       <c r="H202" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I202" s="3" t="s">
-        <v>41</v>
+        <v>398</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K202" s="39" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="40"/>
+      <c r="B203" s="38"/>
+      <c r="C203" s="3"/>
+      <c r="F203" s="3"/>
       <c r="H203" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I203" s="3" t="s">
-        <v>31</v>
+        <v>403</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K203" s="39" t="s">
-        <v>273</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="40"/>
-      <c r="K204" s="41"/>
+      <c r="B204" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H204" s="3"/>
+      <c r="I204" s="2"/>
+      <c r="K204" s="39"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="42" t="s">
-        <v>237</v>
-      </c>
-      <c r="C205" s="7"/>
-      <c r="D205" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E205" s="7"/>
-      <c r="F205" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="G205" s="7"/>
-      <c r="H205" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I205" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J205" s="7"/>
-      <c r="K205" s="43" t="s">
-        <v>239</v>
-      </c>
+      <c r="B205" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="H205" s="3"/>
+      <c r="I205" s="2"/>
+      <c r="K205" s="39"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B206" s="38"/>
-      <c r="D206" s="3"/>
+      <c r="C206" s="3"/>
       <c r="F206" s="3"/>
-      <c r="H206" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K206" s="39" t="s">
-        <v>241</v>
-      </c>
+      <c r="H206" s="3"/>
+      <c r="I206" s="2"/>
+      <c r="K206" s="39"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" s="38"/>
-      <c r="D207" s="3"/>
+      <c r="C207" s="3"/>
       <c r="F207" s="3"/>
-      <c r="H207" s="3" t="s">
+      <c r="H207" s="3"/>
+      <c r="I207" s="2"/>
+      <c r="K207" s="39"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B208" s="38"/>
+      <c r="C208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="2"/>
+      <c r="K208" s="39"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="K209" s="39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B210" s="38"/>
+      <c r="K210" s="41"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B211" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K211" s="41"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B212" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K212" s="41"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B213" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K213" s="41"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B214" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K214" s="39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B215" s="40"/>
+      <c r="H215" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K215" s="39" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B216" s="40"/>
+      <c r="K216" s="41"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B217" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C217" s="7"/>
+      <c r="D217" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E217" s="7"/>
+      <c r="F217" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G217" s="7"/>
+      <c r="H217" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I217" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" s="7"/>
+      <c r="K217" s="43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="38"/>
+      <c r="D218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="H218" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K218" s="39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B219" s="38"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="H219" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="I207" s="3" t="s">
+      <c r="I219" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K207" s="39" t="s">
+      <c r="K219" s="39" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="40"/>
-      <c r="H208" s="3" t="s">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="40"/>
+      <c r="H220" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="I208" s="3" t="s">
+      <c r="I220" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K208" s="39" t="s">
+      <c r="K220" s="39" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="40"/>
-      <c r="H209" s="3" t="s">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="40"/>
+      <c r="H221" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="I209" s="3" t="s">
+      <c r="I221" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K209" s="39" t="s">
+      <c r="K221" s="39" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="40"/>
-      <c r="H210" s="3" t="s">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B222" s="40"/>
+      <c r="H222" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I210" s="3" t="s">
+      <c r="I222" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K210" s="39" t="s">
+      <c r="K222" s="39" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="44"/>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="13"/>
-      <c r="H211" s="12" t="s">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B223" s="44"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+      <c r="G223" s="13"/>
+      <c r="H223" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="I211" s="12" t="s">
+      <c r="I223" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J211" s="13"/>
-      <c r="K211" s="45" t="s">
+      <c r="J223" s="13"/>
+      <c r="K223" s="45" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="212" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="46"/>
-      <c r="C212" s="47"/>
-      <c r="D212" s="47"/>
-      <c r="E212" s="47"/>
-      <c r="F212" s="47"/>
-      <c r="G212" s="47"/>
-      <c r="H212" s="47"/>
-      <c r="I212" s="47"/>
-      <c r="J212" s="47"/>
-      <c r="K212" s="48"/>
+    <row r="224" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="46"/>
+      <c r="C224" s="47"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="47"/>
+      <c r="F224" s="47"/>
+      <c r="G224" s="47"/>
+      <c r="H224" s="47"/>
+      <c r="I224" s="47"/>
+      <c r="J224" s="47"/>
+      <c r="K224" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E739C25-A896-4F50-BCF4-A7D332254E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E780955C-CDCE-4FA5-A953-2A0D7074429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="540">
   <si>
     <t>##var</t>
   </si>
@@ -260,14 +260,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>parabolaTime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>抛物线时长</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>initAngle</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -385,10 +377,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>节点名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>OffSetInfo</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1686,10 +1674,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>string#ref=SelectObjectConfigCategory</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>UIAttribute</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1996,6 +1980,128 @@
   </si>
   <si>
     <t>特定时间到达</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>parabolaHeight</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>抛物线高度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectNodeName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效表现节点类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=SelectObjectCfgCategory</t>
+  </si>
+  <si>
+    <t>功能菜单开启条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗局数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手指引完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成挑战模式第N关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARPVE(挑战模式)战斗局数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AREndlessChallenge(无尽模式)战斗局数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARPVP(对战模式)战斗局数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战模式第N关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式第N波</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活无尽模式第N波</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成战斗局数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuCondition</t>
+  </si>
+  <si>
+    <t>FunctionMenuCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionDefault</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionTutorialFirstFinished</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionBattleNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionIndexWhenARPVE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionIndexWhenAREndlessChallenge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意模式战斗局数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionBattleNumARAny</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionBattleNumARPVE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionBattleNumAREndlessChallenge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionMenuConditionBattleNumARPVP</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2768,13 +2874,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N289"/>
+  <dimension ref="A1:N298"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K96" sqref="K96"/>
+      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2848,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2865,55 +2971,55 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>322</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C8" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>331</v>
-      </c>
       <c r="I8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2956,10 +3062,10 @@
         <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
@@ -2976,13 +3082,13 @@
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2990,7 +3096,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>22</v>
@@ -3001,32 +3107,32 @@
         <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H18" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3040,7 +3146,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -3053,7 +3159,7 @@
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -3062,13 +3168,13 @@
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L22" s="10"/>
     </row>
@@ -3083,7 +3189,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J23" s="17"/>
       <c r="K23" s="3" t="s">
@@ -3097,23 +3203,23 @@
         <v>41</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="H25" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L25" s="10"/>
     </row>
@@ -3125,14 +3231,14 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L26" s="14"/>
     </row>
@@ -3144,24 +3250,24 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L28" s="8"/>
     </row>
@@ -3170,13 +3276,13 @@
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L29" s="10"/>
     </row>
@@ -3191,7 +3297,7 @@
         <v>21</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="3" t="s">
@@ -3205,23 +3311,23 @@
         <v>41</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="H32" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -3233,14 +3339,14 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L33" s="14"/>
     </row>
@@ -3252,24 +3358,24 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="27"/>
       <c r="H35" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J35" s="27"/>
       <c r="K35" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L35" s="8"/>
     </row>
@@ -3278,14 +3384,14 @@
       <c r="D36" s="3"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>18</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L36" s="10"/>
     </row>
@@ -3300,7 +3406,7 @@
         <v>21</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="17" t="s">
@@ -3319,11 +3425,11 @@
         <v>41</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L38" s="10"/>
     </row>
@@ -3335,14 +3441,14 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -3354,14 +3460,14 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L40" s="14"/>
     </row>
@@ -3371,24 +3477,24 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="27"/>
       <c r="H42" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J42" s="27"/>
       <c r="K42" s="27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L42" s="8"/>
     </row>
@@ -3397,14 +3503,14 @@
       <c r="D43" s="3"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I43" s="17" t="s">
         <v>18</v>
       </c>
       <c r="J43" s="17"/>
       <c r="K43" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L43" s="10"/>
     </row>
@@ -3419,7 +3525,7 @@
         <v>21</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="17" t="s">
@@ -3435,14 +3541,14 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I45" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J45" s="17"/>
       <c r="K45" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L45" s="10"/>
     </row>
@@ -3454,14 +3560,14 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L46" s="14"/>
     </row>
@@ -3480,24 +3586,24 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="27"/>
       <c r="H50" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I50" s="27" t="s">
         <v>18</v>
       </c>
       <c r="J50" s="27"/>
       <c r="K50" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L50" s="8"/>
     </row>
@@ -3509,7 +3615,7 @@
         <v>21</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="17" t="s">
@@ -3525,14 +3631,14 @@
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L52" s="10"/>
     </row>
@@ -3544,14 +3650,14 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I53" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J53" s="33"/>
       <c r="K53" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L53" s="14"/>
     </row>
@@ -3562,26 +3668,26 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I55" s="27" t="s">
         <v>18</v>
       </c>
       <c r="J55" s="27"/>
       <c r="K55" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L55" s="8"/>
     </row>
@@ -3593,14 +3699,14 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J56" s="17"/>
       <c r="K56" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L56" s="10"/>
     </row>
@@ -3612,14 +3718,14 @@
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I57" s="33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J57" s="33"/>
       <c r="K57" s="33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L57" s="14"/>
     </row>
@@ -3633,7 +3739,7 @@
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="6" t="s">
@@ -3654,7 +3760,7 @@
         <v>37</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -3755,7 +3861,7 @@
         <v>40</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>48</v>
@@ -3767,7 +3873,7 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -3808,22 +3914,22 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L72" s="10"/>
     </row>
@@ -3836,22 +3942,22 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="L74" s="10"/>
     </row>
@@ -3866,13 +3972,13 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -3888,13 +3994,13 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -3903,13 +4009,13 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
@@ -3918,13 +4024,13 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -3933,13 +4039,13 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
@@ -3948,13 +4054,13 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -3963,7 +4069,7 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C83" s="20" t="s">
         <v>37</v>
@@ -3989,22 +4095,22 @@
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J85" s="7"/>
       <c r="K85" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L85" s="8"/>
     </row>
@@ -4047,7 +4153,7 @@
         <v>49</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4062,7 +4168,7 @@
         <v>49</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>59</v>
@@ -4083,16 +4189,16 @@
         <v>49</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I90" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L90" s="10"/>
     </row>
@@ -4116,25 +4222,25 @@
       <c r="C92" s="3"/>
       <c r="F92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I92" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L92" s="10"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4143,43 +4249,43 @@
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L94" s="10"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>49</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L95" s="10"/>
     </row>
@@ -4193,18 +4299,18 @@
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
       <c r="F96" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G96" s="13"/>
       <c r="H96" s="12" t="s">
-        <v>61</v>
+        <v>509</v>
       </c>
       <c r="I96" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J96" s="13"/>
       <c r="K96" s="12" t="s">
-        <v>62</v>
+        <v>510</v>
       </c>
       <c r="L96" s="14"/>
     </row>
@@ -4217,26 +4323,26 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E99" s="7"/>
       <c r="F99" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G99" s="7"/>
       <c r="H99" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J99" s="7"/>
       <c r="K99" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L99" s="8"/>
     </row>
@@ -4246,25 +4352,25 @@
       <c r="D100" s="3"/>
       <c r="F100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L100" s="10"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>30</v>
@@ -4286,28 +4392,28 @@
         <v>18</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="L102" s="10"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L103" s="10"/>
     </row>
@@ -4319,49 +4425,49 @@
       <c r="F104" s="13"/>
       <c r="G104" s="13"/>
       <c r="H104" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I104" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J104" s="13"/>
       <c r="K104" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L104" s="14"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="6"/>
       <c r="E106" s="7"/>
       <c r="F106" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G106" s="7"/>
       <c r="H106" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>23</v>
+        <v>511</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="23" t="s">
-        <v>93</v>
+        <v>512</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" s="18"/>
       <c r="H107" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I107" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I107" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="K107" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
@@ -4372,36 +4478,36 @@
       <c r="F108" s="13"/>
       <c r="G108" s="13"/>
       <c r="H108" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J108" s="13"/>
       <c r="K108" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="6"/>
       <c r="E110" s="7"/>
       <c r="F110" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G110" s="7"/>
       <c r="H110" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="I110" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="23" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
@@ -4409,13 +4515,13 @@
       <c r="D111" s="3"/>
       <c r="F111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="I111" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K111" s="24" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
@@ -4423,13 +4529,13 @@
       <c r="D112" s="3"/>
       <c r="F112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="I112" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K112" s="24" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
@@ -4437,13 +4543,13 @@
       <c r="D113" s="3"/>
       <c r="F113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I113" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K113" s="24" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
@@ -4451,13 +4557,13 @@
       <c r="D114" s="3"/>
       <c r="F114" s="3"/>
       <c r="H114" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I114" t="s">
+        <v>277</v>
+      </c>
+      <c r="K114" s="24" t="s">
         <v>444</v>
-      </c>
-      <c r="I114" t="s">
-        <v>280</v>
-      </c>
-      <c r="K114" s="24" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
@@ -4468,27 +4574,27 @@
       <c r="F115" s="13"/>
       <c r="G115" s="13"/>
       <c r="H115" s="12" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J115" s="13"/>
       <c r="K115" s="25" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -4498,22 +4604,22 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K118" s="24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
@@ -4521,38 +4627,38 @@
       <c r="C119" s="3"/>
       <c r="F119" s="3"/>
       <c r="H119" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K119" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K120" s="10"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G121" s="13"/>
       <c r="H121" s="13"/>
@@ -4567,15 +4673,15 @@
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G123" s="7"/>
       <c r="H123" s="6"/>
@@ -4585,95 +4691,95 @@
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F124" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K124" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F125" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F126" t="s">
+        <v>300</v>
+      </c>
+      <c r="H126" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K126" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F127" t="s">
+        <v>301</v>
+      </c>
+      <c r="H127" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K127" s="24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
       <c r="F128" s="13" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G128" s="13"/>
       <c r="H128" s="12"/>
@@ -4688,50 +4794,50 @@
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C131" s="7"/>
       <c r="D131" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G131" s="7"/>
       <c r="H131" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I131" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="18"/>
       <c r="H132" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K132" s="24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="18"/>
       <c r="H133" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K133" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
@@ -4742,27 +4848,27 @@
       <c r="F134" s="13"/>
       <c r="G134" s="13"/>
       <c r="H134" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I134" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J134" s="13"/>
       <c r="K134" s="25" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
@@ -4770,39 +4876,39 @@
       <c r="J136" s="7"/>
       <c r="K136" s="8"/>
       <c r="N136" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K137" s="10"/>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K138" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
@@ -4810,59 +4916,59 @@
       <c r="D139" s="3"/>
       <c r="F139" s="3"/>
       <c r="H139" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I139" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K139" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="9"/>
       <c r="F140" s="3"/>
       <c r="H140" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I140" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K140" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="9"/>
       <c r="F141" s="3"/>
       <c r="H141" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I141" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K141" s="24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C142" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K142" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
@@ -4870,59 +4976,59 @@
       <c r="D143" s="3"/>
       <c r="F143" s="3"/>
       <c r="H143" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I143" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K143" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="9"/>
       <c r="F144" s="3"/>
       <c r="H144" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K144" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" s="9"/>
       <c r="F145" s="3"/>
       <c r="H145" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I145" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K145" s="24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C146" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K146" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
@@ -4930,59 +5036,59 @@
       <c r="D147" s="3"/>
       <c r="F147" s="3"/>
       <c r="H147" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I147" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K147" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
       <c r="F148" s="3"/>
       <c r="H148" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I148" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K148" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="F149" s="3"/>
       <c r="H149" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I149" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K149" s="24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B150" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C150" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K150" s="24" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.25">
@@ -4990,26 +5096,26 @@
       <c r="D151" s="3"/>
       <c r="F151" s="3"/>
       <c r="H151" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I151" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K151" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
       <c r="F152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K152" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
@@ -5017,59 +5123,59 @@
       <c r="D153" s="3"/>
       <c r="F153" s="3"/>
       <c r="H153" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K153" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="F154" s="3"/>
       <c r="H154" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K154" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="F155" s="3"/>
       <c r="H155" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I155" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K155" s="24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B156" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C156" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K156" s="24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="2:11" x14ac:dyDescent="0.25">
@@ -5077,24 +5183,24 @@
       <c r="D157" s="3"/>
       <c r="F157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I157" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K157" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="K157" s="24" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B158" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F158" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
@@ -5102,33 +5208,33 @@
     </row>
     <row r="159" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="H159" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F159" s="3" t="s">
+      <c r="I159" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K159" s="24" t="s">
         <v>291</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K159" s="24" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="160" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B160" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F160" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
@@ -5136,14 +5242,14 @@
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B161" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D161" s="3"/>
       <c r="F161" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
@@ -5163,15 +5269,15 @@
     </row>
     <row r="164" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B164" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
@@ -5181,100 +5287,100 @@
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B165" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K165" s="10"/>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B166" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K166" s="10"/>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B167" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K167" s="10"/>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B168" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I168" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K168" s="10"/>
     </row>
     <row r="169" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B169" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H169" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I169" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K169" s="10"/>
     </row>
     <row r="170" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B170" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
       <c r="F170" s="12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G170" s="13"/>
       <c r="H170" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I170" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J170" s="13"/>
       <c r="K170" s="14"/>
@@ -5287,15 +5393,15 @@
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B172" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
@@ -5305,31 +5411,31 @@
     </row>
     <row r="173" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B173" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C173" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K173" s="10"/>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B174" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C174" t="s">
+        <v>375</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="H174" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C174" t="s">
-        <v>378</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="I174" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K174" s="10"/>
     </row>
@@ -5337,7 +5443,7 @@
       <c r="B175" s="9"/>
       <c r="F175" s="3"/>
       <c r="H175" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I175" s="3" t="s">
         <v>34</v>
@@ -5346,126 +5452,126 @@
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B176" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C176" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I176" t="s">
         <v>18</v>
       </c>
       <c r="K176" s="24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" s="18"/>
       <c r="H177" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I177" t="s">
         <v>18</v>
       </c>
       <c r="K177" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C178" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I178" t="s">
         <v>18</v>
       </c>
       <c r="K178" s="24" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C179" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I179" t="s">
         <v>18</v>
       </c>
       <c r="K179" s="24" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C180" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I180" t="s">
         <v>18</v>
       </c>
       <c r="K180" s="24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B181" s="18"/>
       <c r="H181" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I181" t="s">
         <v>18</v>
       </c>
       <c r="K181" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C182" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I182" t="s">
         <v>18</v>
       </c>
       <c r="K182" s="24" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
@@ -5476,433 +5582,433 @@
       <c r="F183" s="12"/>
       <c r="G183" s="13"/>
       <c r="H183" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I183" s="12" t="s">
         <v>18</v>
       </c>
       <c r="J183" s="13"/>
       <c r="K183" s="25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" s="26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G185" s="7"/>
       <c r="H185" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J185" s="7"/>
       <c r="K185" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C186" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I186" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K186" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C187" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K187" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" s="18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C188" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I188" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K188" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" s="18"/>
       <c r="F189" s="3"/>
       <c r="H189" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I189" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K189" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C190" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I190" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K190" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B191" s="18"/>
       <c r="F191" s="3"/>
       <c r="H191" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K191" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B192" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C192" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I192" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K192" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B193" s="18"/>
       <c r="F193" s="3"/>
       <c r="H193" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I193" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K193" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C194" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I194" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K194" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="195" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B195" s="18"/>
       <c r="F195" s="3"/>
       <c r="H195" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K195" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="196" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B196" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C196" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K196" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="197" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B197" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C197" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K197" s="10"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B198" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C198" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K198" s="10"/>
     </row>
     <row r="199" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B199" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C199" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K199" s="10"/>
     </row>
     <row r="200" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B200" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C200" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K200" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="201" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B201" s="18"/>
       <c r="F201" s="3"/>
       <c r="H201" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I201" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K201" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C202" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K202" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="203" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B203" s="18"/>
       <c r="F203" s="3"/>
       <c r="H203" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K203" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B204" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C204" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I204" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K204" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B205" s="18"/>
       <c r="F205" s="3"/>
       <c r="H205" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I205" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K205" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B206" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C206" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I206" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K206" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B207" s="18"/>
       <c r="F207" s="3"/>
       <c r="H207" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K207" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B208" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C208" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K208" s="3"/>
     </row>
@@ -5910,30 +6016,30 @@
       <c r="B209" s="18"/>
       <c r="F209" s="3"/>
       <c r="H209" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I209" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K209" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B210" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C210" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K210" s="3"/>
     </row>
@@ -5941,7 +6047,7 @@
       <c r="B211" s="9"/>
       <c r="F211" s="3"/>
       <c r="H211" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I211" s="3" t="s">
         <v>23</v>
@@ -5950,19 +6056,19 @@
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B212" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C212" t="s">
+        <v>157</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H212" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C212" t="s">
-        <v>160</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H212" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="I212" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K212" s="3"/>
     </row>
@@ -5970,30 +6076,30 @@
       <c r="B213" s="18"/>
       <c r="F213" s="3"/>
       <c r="H213" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K213" s="24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" s="9" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C214" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K214" s="3"/>
     </row>
@@ -6001,25 +6107,25 @@
       <c r="B215" s="9"/>
       <c r="F215" s="3"/>
       <c r="H215" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K215" s="3"/>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B216" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C216" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I216" s="3" t="s">
         <v>29</v>
@@ -6028,16 +6134,16 @@
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B217" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C217" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="I217" s="3" t="s">
         <v>29</v>
@@ -6046,16 +6152,16 @@
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B218" s="9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C218" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="I218" s="3" t="s">
         <v>29</v>
@@ -6064,16 +6170,16 @@
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B219" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C219" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I219" s="3" t="s">
         <v>34</v>
@@ -6082,71 +6188,71 @@
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B220" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C220" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K220" s="24"/>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B221" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C221" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K221" s="24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B222" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C222" t="s">
+        <v>157</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H222" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C222" t="s">
-        <v>160</v>
-      </c>
-      <c r="F222" s="3" t="s">
+      <c r="I222" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K222" s="24" t="s">
         <v>246</v>
-      </c>
-      <c r="H222" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I222" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="K222" s="24" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B223" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C223" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H223" s="3" t="s">
         <v>31</v>
@@ -6155,91 +6261,91 @@
         <v>18</v>
       </c>
       <c r="K223" s="24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="224" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B224" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C224" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I224" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K224" s="24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B225" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C225" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I225" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K225" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="226" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B226" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C226" s="13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D226" s="13"/>
       <c r="E226" s="13"/>
       <c r="F226" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G226" s="13"/>
       <c r="H226" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I226" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="J226" s="13"/>
       <c r="K226" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="228" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B228" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C228" s="29"/>
       <c r="D228" s="30" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E228" s="29"/>
       <c r="F228" s="30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G228" s="29"/>
       <c r="H228" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="I228" s="30" t="s">
         <v>185</v>
-      </c>
-      <c r="I228" s="30" t="s">
-        <v>188</v>
       </c>
       <c r="J228" s="29"/>
       <c r="K228" s="31"/>
@@ -6247,15 +6353,15 @@
     <row r="230" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="231" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B231" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C231" s="35"/>
       <c r="D231" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E231" s="35"/>
       <c r="F231" s="36" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G231" s="35"/>
       <c r="H231" s="35"/>
@@ -6265,82 +6371,82 @@
     </row>
     <row r="232" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B232" s="38" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K232" s="39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B233" s="38" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K233" s="39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B234" s="38" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K234" s="39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="235" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B235" s="38" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K235" s="39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
@@ -6348,13 +6454,13 @@
       <c r="C236" s="3"/>
       <c r="F236" s="3"/>
       <c r="H236" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I236" s="2" t="s">
         <v>34</v>
       </c>
       <c r="K236" s="39" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
@@ -6362,13 +6468,13 @@
       <c r="C237" s="3"/>
       <c r="F237" s="3"/>
       <c r="H237" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I237" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K237" s="39" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
@@ -6376,13 +6482,13 @@
       <c r="C238" s="3"/>
       <c r="F238" s="3"/>
       <c r="H238" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="I238" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K238" s="39" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="2:11" x14ac:dyDescent="0.25">
@@ -6390,13 +6496,13 @@
       <c r="C239" s="3"/>
       <c r="F239" s="3"/>
       <c r="H239" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K239" s="39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
@@ -6404,24 +6510,24 @@
       <c r="C240" s="3"/>
       <c r="F240" s="3"/>
       <c r="H240" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K240" s="39" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="38" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H241" s="3"/>
       <c r="I241" s="2"/>
@@ -6429,13 +6535,13 @@
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B242" s="38" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H242" s="3"/>
       <c r="I242" s="2"/>
@@ -6467,22 +6573,22 @@
     </row>
     <row r="246" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B246" s="38" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C246" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F246" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F246" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="H246" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K246" s="39" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.25">
@@ -6491,67 +6597,67 @@
     </row>
     <row r="248" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B248" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K248" s="41"/>
     </row>
     <row r="249" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B249" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C249" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F249" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="K249" s="41"/>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B250" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K250" s="41"/>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B251" s="38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I251" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K251" s="39" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B252" s="40"/>
       <c r="H252" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I252" s="3" t="s">
         <v>29</v>
       </c>
       <c r="K252" s="39" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.25">
@@ -6560,15 +6666,15 @@
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B254" s="42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C254" s="7"/>
       <c r="D254" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E254" s="7"/>
       <c r="F254" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G254" s="7"/>
       <c r="H254" s="6" t="s">
@@ -6579,7 +6685,7 @@
       </c>
       <c r="J254" s="7"/>
       <c r="K254" s="43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.25">
@@ -6587,13 +6693,13 @@
       <c r="D255" s="3"/>
       <c r="F255" s="3"/>
       <c r="H255" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I255" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K255" s="39" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="256" spans="2:11" x14ac:dyDescent="0.25">
@@ -6602,61 +6708,61 @@
       <c r="D256" s="3"/>
       <c r="F256" s="3"/>
       <c r="H256" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I256" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K256" s="39" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="257" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B257" s="40"/>
       <c r="H257" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I257" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K257" s="39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="258" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B258" s="40"/>
       <c r="H258" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I258" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K258" s="39" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="259" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B259" s="40"/>
       <c r="H259" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I259" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K259" s="39" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="260" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B260" s="40"/>
       <c r="H260" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I260" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="K260" s="39" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="261" spans="2:11" x14ac:dyDescent="0.25">
@@ -6667,14 +6773,14 @@
       <c r="F261" s="13"/>
       <c r="G261" s="13"/>
       <c r="H261" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I261" s="12" t="s">
         <v>34</v>
       </c>
       <c r="J261" s="13"/>
       <c r="K261" s="45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="262" spans="2:11" x14ac:dyDescent="0.25">
@@ -6685,50 +6791,50 @@
     </row>
     <row r="263" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B263" s="4" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C263" s="7"/>
       <c r="D263" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G263" s="7"/>
       <c r="H263" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="I263" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J263" s="7"/>
       <c r="K263" s="8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="264" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B264" s="18"/>
       <c r="H264" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="I264" t="s">
         <v>34</v>
       </c>
       <c r="K264" s="24" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="265" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B265" s="18"/>
       <c r="H265" s="3" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="I265" t="s">
         <v>34</v>
       </c>
       <c r="K265" s="24" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="266" spans="2:11" x14ac:dyDescent="0.25">
@@ -6739,14 +6845,14 @@
       <c r="F266" s="13"/>
       <c r="G266" s="13"/>
       <c r="H266" s="12" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I266" s="13" t="s">
         <v>34</v>
       </c>
       <c r="J266" s="13"/>
       <c r="K266" s="25" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="267" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -6763,22 +6869,22 @@
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B271" s="4" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C271" s="7"/>
       <c r="D271" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E271" s="7"/>
       <c r="F271" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G271" s="7"/>
       <c r="H271" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="I271" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J271" s="7"/>
       <c r="K271" s="8"/>
@@ -6786,10 +6892,10 @@
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="18"/>
       <c r="H272" s="3" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="I272" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K272" s="10"/>
     </row>
@@ -6801,117 +6907,117 @@
       <c r="F273" s="13"/>
       <c r="G273" s="13"/>
       <c r="H273" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I273" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J273" s="13"/>
       <c r="K273" s="14"/>
     </row>
     <row r="275" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B275" s="4" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C275" s="7"/>
       <c r="D275" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E275" s="7"/>
       <c r="F275" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G275" s="7"/>
       <c r="H275" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="I275" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J275" s="7"/>
       <c r="K275" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="L275" s="8"/>
     </row>
     <row r="276" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B276" s="18" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C276" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L276" s="10"/>
     </row>
     <row r="277" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B277" s="18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C277" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L277" s="10"/>
     </row>
     <row r="278" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B278" s="18" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C278" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L278" s="10"/>
     </row>
     <row r="279" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B279" s="18" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C279" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H279" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I279" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L279" s="10"/>
     </row>
     <row r="280" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B280" s="18" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C280" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H280" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="I280" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L280" s="10"/>
     </row>
     <row r="281" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B281" s="18" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C281" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L281" s="10"/>
     </row>
     <row r="282" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B282" s="22" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
@@ -6925,86 +7031,259 @@
     </row>
     <row r="284" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B284" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C284" s="7"/>
       <c r="D284" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G284" s="7"/>
       <c r="H284" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I284" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J284" s="7"/>
       <c r="K284" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L284" s="8"/>
     </row>
     <row r="285" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B285" s="18"/>
       <c r="H285" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="I285" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L285" s="10"/>
     </row>
     <row r="286" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B286" s="9" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F286" s="3"/>
       <c r="H286" s="3" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="I286" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K286" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L286" s="10"/>
     </row>
     <row r="287" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B287" s="11" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D287" s="13"/>
       <c r="E287" s="13"/>
       <c r="F287" s="13"/>
       <c r="G287" s="13"/>
       <c r="H287" s="12" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="I287" s="12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J287" s="13"/>
       <c r="K287" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L287" s="14"/>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D289" s="3"/>
+    <row r="289" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B289" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C289" s="7"/>
+      <c r="D289" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E289" s="7"/>
+      <c r="F289" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="G289" s="7"/>
+      <c r="H289" s="6"/>
+      <c r="I289" s="6"/>
+      <c r="J289" s="7"/>
+      <c r="K289" s="6"/>
+      <c r="L289" s="8"/>
+    </row>
+    <row r="290" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B290" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C290" t="s">
+        <v>528</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H290" s="3"/>
+      <c r="I290" s="3"/>
+      <c r="K290" s="3"/>
+      <c r="L290" s="10"/>
+    </row>
+    <row r="291" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B291" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C291" t="s">
+        <v>528</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="10"/>
+    </row>
+    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B292" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C292" t="s">
+        <v>528</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="L292" s="10"/>
+    </row>
+    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B293" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
+      <c r="K293" s="3"/>
+      <c r="L293" s="10"/>
+    </row>
+    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B294" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="10"/>
+    </row>
+    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B295" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="10"/>
+    </row>
+    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B296" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="10"/>
+    </row>
+    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B297" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C297" t="s">
+        <v>528</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="L297" s="10"/>
+    </row>
+    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B298" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D298" s="13"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="G298" s="13"/>
+      <c r="H298" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="I298" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J298" s="13"/>
+      <c r="K298" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="L298" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E780955C-CDCE-4FA5-A953-2A0D7074429E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AD2560-1E23-4A31-BA3A-E1680FF79B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="639">
   <si>
     <t>##var</t>
   </si>
@@ -637,9 +626,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>BuffPassTimeCondition</t>
   </si>
   <si>
@@ -719,10 +705,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>SubCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -738,14 +720,6 @@
     <t>对象选择器</t>
   </si>
   <si>
-    <t>(list#sep=|),SubCondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,Condition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>触发事件</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1364,22 +1338,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayTowerDefenseEndlessChallenge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔防(无尽模式)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePlayTowerDefensePVE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔防(单人闯关模式)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>repeatNum</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1419,34 +1377,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayTowerDefenseTutorialFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔防(新手引导模式)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>GamePlayPKNormal</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>GamePlayTowerDefensePVP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>塔防(无尽出怪模式)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GamePlayTowerDefenseEndlessChallengeMonster</t>
-  </si>
-  <si>
-    <t>GamePlayTowerDefenseEndlessChallengeMonster</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔防(PVP模式)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1662,10 +1601,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>globalBuffTrig</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>停留时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2102,6 +2037,433 @@
   </si>
   <si>
     <t>FunctionMenuConditionBattleNumARPVP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=TowerDefense_MonsterCfgCategory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,UnitConditionBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitConditionBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitConditionBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即触发</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件判断触发</t>
+  </si>
+  <si>
+    <t>triggerType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyBase</t>
+  </si>
+  <si>
+    <t>TriggerImmediatelyBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyNoParam</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyPutTower</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即触发(无参数)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置塔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>TriggerImmediatelyScaleTower</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyReclaimTower</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyUpgradeTower</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级塔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收塔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售塔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerImmediatelyTowerKillMonster</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔击杀怪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerChkConditionBase</t>
+  </si>
+  <si>
+    <t>TriggerChkConditionBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>needCount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerChkConditionImmediately</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件判断触发(立即触发)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerImmediatelyType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChkTriggerBase</t>
+  </si>
+  <si>
+    <t>ChkTriggerBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerChkConditionStatus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件判断触发(判断状态)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要触发次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发的事件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionStatusChkBase</t>
+  </si>
+  <si>
+    <t>ConditionStatusChkBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>conditionStatusChk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionStatusChkTowerNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查塔拥有数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>needTowerCount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),SequenceUnitCondition</t>
+  </si>
+  <si>
+    <t>SequenceUnitCondition</t>
+  </si>
+  <si>
+    <t>list,ChkTriggerBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个触发条件与操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceGlobalCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),SequenceGlobalCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=|),SequenceGlobalCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionCondition2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChkTriggerBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCompare</t>
+  </si>
+  <si>
+    <t>TriggerImmediatelyBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerType</t>
+  </si>
+  <si>
+    <t>TowerType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterType</t>
+  </si>
+  <si>
+    <t>towerCfgId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=TowerDefense_TowerCfgCategory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=TowerDefense_MonsterCfgCategory</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsterCfgId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,TriggerImmediatelyBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerImmediatelyTypes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseBase</t>
+  </si>
+  <si>
+    <t>GamePlayTowerDefenseBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePlayPKBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=ActionGameCfg_ref_group</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillNumericType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StayMoveTweenType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>StayOnGroundMoveTweenType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>停在原地(在地上)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>停在原地(可能在空中)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitActionCall</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>delayTime</t>
+  </si>
+  <si>
+    <t>延迟多久后触发action</t>
+  </si>
+  <si>
+    <t>action_id</t>
+  </si>
+  <si>
+    <t>string#ref=ActionCfg_ref_group</t>
+  </si>
+  <si>
+    <t>触发action</t>
+  </si>
+  <si>
+    <t>actionCallParam</t>
+  </si>
+  <si>
+    <t>actionCondition1</t>
+  </si>
+  <si>
+    <t>条件1</t>
+  </si>
+  <si>
+    <t>DisCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisRecordCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断和发起者的距离</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dis</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordKeyInt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoeSelectObjectType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>aoeSelectObjectType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObjectType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectObjectType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标选择对象类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetExcludeOrder</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionCallOwnCaller</t>
+  </si>
+  <si>
+    <t>ActionCallParam</t>
+  </si>
+  <si>
+    <t>拥有的召唤物(可能是aoe，也可能是actor)</t>
+  </si>
+  <si>
+    <t>ownActor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownBullet</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ownAoe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤的actor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤的bullet</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤的aoe</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillGroupType</t>
+  </si>
+  <si>
+    <t>SkillGroupType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能组类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillGroupType</t>
+  </si>
+  <si>
+    <t>skillGroupType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断当前是否技能组类型的技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillGroupTypeCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSlotType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillSlotIndex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型序号(-1表示所有,0表示第一个)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2446,7 +2808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2523,9 +2885,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -2874,13 +3233,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N298"/>
+  <dimension ref="A1:N345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B235" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B96" sqref="B96"/>
+      <selection pane="bottomRight" activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2918,13 +3277,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2954,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -2971,55 +3330,55 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="I6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3107,32 +3466,32 @@
         <v>41</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H18" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3159,7 +3518,7 @@
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -3203,23 +3562,23 @@
         <v>41</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="H25" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L25" s="10"/>
     </row>
@@ -3231,14 +3590,14 @@
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
       <c r="H26" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L26" s="14"/>
     </row>
@@ -3250,7 +3609,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
@@ -3260,14 +3619,14 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L28" s="8"/>
     </row>
@@ -3308,26 +3667,26 @@
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
       <c r="H31" s="3" t="s">
-        <v>41</v>
+        <v>615</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>513</v>
+        <v>614</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L31" s="10"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="18"/>
       <c r="H32" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -3339,14 +3698,14 @@
       <c r="F33" s="13"/>
       <c r="G33" s="13"/>
       <c r="H33" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L33" s="14"/>
     </row>
@@ -3366,16 +3725,16 @@
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27" t="s">
+      <c r="G35" s="26"/>
+      <c r="H35" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I35" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27" t="s">
-        <v>186</v>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26" t="s">
+        <v>182</v>
       </c>
       <c r="L35" s="8"/>
     </row>
@@ -3425,11 +3784,11 @@
         <v>41</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="J38" s="17"/>
       <c r="K38" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L38" s="10"/>
     </row>
@@ -3441,14 +3800,14 @@
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L39" s="10"/>
     </row>
@@ -3460,14 +3819,14 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L40" s="14"/>
     </row>
@@ -3477,7 +3836,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>421</v>
+        <v>599</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
@@ -3485,16 +3844,16 @@
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27" t="s">
-        <v>186</v>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26" t="s">
+        <v>601</v>
       </c>
       <c r="L42" s="8"/>
     </row>
@@ -3503,14 +3862,14 @@
       <c r="D43" s="3"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17" t="s">
-        <v>146</v>
+        <v>602</v>
       </c>
       <c r="I43" s="17" t="s">
-        <v>18</v>
+        <v>603</v>
       </c>
       <c r="J43" s="17"/>
       <c r="K43" s="17" t="s">
-        <v>147</v>
+        <v>604</v>
       </c>
       <c r="L43" s="10"/>
     </row>
@@ -3522,14 +3881,14 @@
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17" t="s">
-        <v>21</v>
+        <v>605</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>148</v>
+        <v>499</v>
       </c>
       <c r="J44" s="17"/>
       <c r="K44" s="17" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="L44" s="10"/>
     </row>
@@ -3541,14 +3900,14 @@
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>184</v>
+        <v>606</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>570</v>
       </c>
       <c r="J45" s="17"/>
       <c r="K45" s="17" t="s">
-        <v>193</v>
+        <v>607</v>
       </c>
       <c r="L45" s="10"/>
     </row>
@@ -3560,14 +3919,14 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>184</v>
+        <v>570</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L46" s="14"/>
     </row>
@@ -3576,46 +3935,70 @@
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="B48" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="B49" s="9"/>
+      <c r="D49" s="3"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="10"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27" t="s">
+      <c r="B50" s="9"/>
+      <c r="D50" s="3"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I50" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27" t="s">
+      <c r="J50" s="17"/>
+      <c r="K50" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="L50" s="8"/>
+      <c r="L50" s="10"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="D51" s="3"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I51" s="17" t="s">
-        <v>148</v>
+      <c r="I51" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="J51" s="17"/>
       <c r="K51" s="17" t="s">
@@ -3624,263 +4007,238 @@
       <c r="L51" s="10"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="21"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="I52" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="L52" s="10"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="14"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="32"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="L53" s="14"/>
+      <c r="H53" s="3"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6" t="s">
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="I55" s="27" t="s">
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I56" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="L55" s="8"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="21"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="L56" s="10"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="L56" s="8"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="L57" s="14"/>
+      <c r="B57" s="9"/>
+      <c r="D57" s="3"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="10"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="L58" s="10"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="8"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I59" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="L59" s="14"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="10"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="10"/>
+      <c r="B61" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="I61" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="L61" s="8"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
+      <c r="B62" s="9"/>
+      <c r="D62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>616</v>
+      </c>
       <c r="J62" s="17"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2" t="s">
+        <v>618</v>
+      </c>
       <c r="L62" s="10"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>570</v>
+      </c>
       <c r="J63" s="17"/>
-      <c r="K63" s="2"/>
+      <c r="K63" s="17" t="s">
+        <v>189</v>
+      </c>
       <c r="L63" s="10"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="17"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="10"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="L64" s="14"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="10"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L66" s="10"/>
+      <c r="B66" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="2"/>
       <c r="L67" s="10"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D68" s="3"/>
-      <c r="F68" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -3888,8 +4246,15 @@
       <c r="L68" s="10"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="16"/>
-      <c r="C69" s="3"/>
+      <c r="B69" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="17"/>
@@ -3897,7 +4262,15 @@
       <c r="L69" s="10"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="18"/>
+      <c r="B70" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="17"/>
@@ -3905,7 +4278,15 @@
       <c r="L70" s="10"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="18"/>
+      <c r="B71" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="17"/>
@@ -3914,74 +4295,69 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>109</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="2"/>
       <c r="L72" s="10"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="18"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="K73" s="2"/>
+      <c r="B73" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="L73" s="10"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>188</v>
+        <v>33</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="K74" s="3"/>
       <c r="L74" s="10"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="16"/>
-      <c r="C75" s="2"/>
-      <c r="F75" s="3"/>
+      <c r="B75" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="K75" s="2"/>
+      <c r="K75" s="3"/>
       <c r="L75" s="10"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>234</v>
-      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
+      <c r="J76" s="17"/>
       <c r="K76" s="2"/>
       <c r="L76" s="10"/>
     </row>
@@ -3989,49 +4365,41 @@
       <c r="B77" s="18"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
+      <c r="J77" s="17"/>
       <c r="K77" s="2"/>
       <c r="L77" s="10"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>318</v>
-      </c>
+      <c r="B78" s="18"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
+      <c r="J78" s="17"/>
       <c r="K78" s="2"/>
       <c r="L78" s="10"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="K79" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="L79" s="10"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="B80" s="18"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="K80" s="2"/>
@@ -4039,828 +4407,830 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>37</v>
+        <v>105</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="K81" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="L81" s="10"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="2"/>
+      <c r="F82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="K82" s="2"/>
       <c r="L82" s="10"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G83" s="13"/>
+      <c r="B83" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>230</v>
+      </c>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="10"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="18"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="10"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J85" s="7"/>
-      <c r="K85" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="L85" s="8"/>
+      <c r="B85" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="10"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="H86" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B86" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="K86" s="2"/>
       <c r="L86" s="10"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="3"/>
-      <c r="H87" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B87" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="K87" s="2"/>
       <c r="L87" s="10"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>49</v>
+      <c r="B88" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>275</v>
+        <v>66</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="K88" s="2"/>
       <c r="L88" s="10"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>49</v>
+      <c r="B89" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="K89" s="2"/>
       <c r="L89" s="10"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>49</v>
+      <c r="B90" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="K90" s="2"/>
       <c r="L90" s="10"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="9"/>
-      <c r="C91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="B91" s="16" t="s">
+        <v>620</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>622</v>
+      </c>
       <c r="H91" s="3" t="s">
-        <v>30</v>
+        <v>623</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>626</v>
       </c>
       <c r="L91" s="10"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="9"/>
-      <c r="C92" s="3"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="2"/>
       <c r="F92" s="3"/>
       <c r="H92" s="3" t="s">
-        <v>198</v>
+        <v>624</v>
       </c>
       <c r="I92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="L92" s="10"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" s="19"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="L93" s="12"/>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="F94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I96" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K92" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="L92" s="10"/>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="J96" s="7"/>
+      <c r="K96" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="L96" s="8"/>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" s="9"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="H97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L97" s="10"/>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" s="9"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3"/>
+      <c r="H98" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L98" s="10"/>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="10"/>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="D99" s="3"/>
+      <c r="F99" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="10"/>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="L94" s="10"/>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="L95" s="10"/>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="G96" s="13"/>
-      <c r="H96" s="12" t="s">
-        <v>509</v>
-      </c>
-      <c r="I96" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J96" s="13"/>
-      <c r="K96" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="L96" s="14"/>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-    </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J99" s="7"/>
-      <c r="K99" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="9"/>
-      <c r="C100" s="2"/>
       <c r="D100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="H100" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="F100" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="K100" s="3"/>
       <c r="L100" s="10"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" t="s">
-        <v>74</v>
+        <v>50</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>32</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="K101" s="3"/>
       <c r="L101" s="10"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="18"/>
+      <c r="B102" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="H102" s="3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="L102" s="10"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C103" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="L103" s="10"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="22"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I104" s="12" t="s">
+      <c r="B104" s="9"/>
+      <c r="C104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="H104" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J104" s="13"/>
-      <c r="K104" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L104" s="14"/>
+      <c r="K104" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L104" s="10"/>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" s="9"/>
+      <c r="C105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="H105" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L105" s="10"/>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C106" s="7"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G106" s="7"/>
-      <c r="H106" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I106" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="J106" s="7"/>
-      <c r="K106" s="23" t="s">
-        <v>512</v>
-      </c>
+      <c r="B106" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="10"/>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="18"/>
+      <c r="B107" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>490</v>
+      </c>
       <c r="H107" s="3" t="s">
-        <v>86</v>
+        <v>491</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K107" s="24" t="s">
-        <v>89</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L107" s="10"/>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="22"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I108" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J108" s="13"/>
-      <c r="K108" s="25" t="s">
-        <v>90</v>
-      </c>
+      <c r="B108" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L108" s="10"/>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G109" s="13"/>
+      <c r="H109" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="13"/>
+      <c r="K109" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="L109" s="14"/>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G110" s="7"/>
-      <c r="H110" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J110" s="7"/>
-      <c r="K110" s="23" t="s">
-        <v>434</v>
-      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="9"/>
-      <c r="D111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="H111" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="I111" t="s">
-        <v>277</v>
-      </c>
-      <c r="K111" s="24" t="s">
-        <v>436</v>
-      </c>
+      <c r="H111" s="3"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="9"/>
-      <c r="D112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="H112" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I112" t="s">
-        <v>277</v>
-      </c>
-      <c r="K112" s="24" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J112" s="7"/>
+      <c r="K112" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="L112" s="8"/>
+    </row>
+    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
+      <c r="C113" s="2"/>
       <c r="D113" s="3"/>
       <c r="F113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="I113" t="s">
-        <v>277</v>
-      </c>
-      <c r="K113" s="24" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="9"/>
-      <c r="D114" s="3"/>
-      <c r="F114" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L113" s="10"/>
+    </row>
+    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B114" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="H114" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="I114" t="s">
-        <v>277</v>
-      </c>
-      <c r="K114" s="24" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" s="22"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="I115" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="J115" s="13"/>
-      <c r="K115" s="25" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="8"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K118" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="9"/>
-      <c r="C119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="H119" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K119" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K120" s="10"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>112</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L114" s="10"/>
+    </row>
+    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B115" s="18"/>
+      <c r="H115" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L115" s="10"/>
+    </row>
+    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B116" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L116" s="10"/>
+    </row>
+    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B117" s="22"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="I117" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J117" s="13"/>
+      <c r="K117" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L117" s="14"/>
+    </row>
+    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="J119" s="7"/>
+      <c r="K119" s="23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B120" s="18"/>
+      <c r="H120" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K120" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B121" s="22"/>
+      <c r="C121" s="13"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
-      <c r="F121" s="12" t="s">
-        <v>113</v>
-      </c>
+      <c r="F121" s="13"/>
       <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
+      <c r="H121" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="J121" s="13"/>
-      <c r="K121" s="14"/>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K121" s="25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B123" s="4" t="s">
-        <v>293</v>
+        <v>93</v>
       </c>
       <c r="C123" s="7"/>
-      <c r="D123" s="6" t="s">
-        <v>111</v>
-      </c>
+      <c r="D123" s="6"/>
       <c r="E123" s="7"/>
       <c r="F123" s="6" t="s">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="G123" s="7"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
+      <c r="H123" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="J123" s="7"/>
-      <c r="K123" s="8"/>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F124" t="s">
-        <v>298</v>
-      </c>
+      <c r="K123" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B124" s="9"/>
+      <c r="D124" s="3"/>
+      <c r="F124" s="3"/>
       <c r="H124" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>34</v>
+        <v>421</v>
+      </c>
+      <c r="I124" t="s">
+        <v>273</v>
       </c>
       <c r="K124" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F125" t="s">
-        <v>299</v>
-      </c>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B125" s="9"/>
+      <c r="D125" s="3"/>
+      <c r="F125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I125" s="3" t="s">
-        <v>34</v>
+        <v>423</v>
+      </c>
+      <c r="I125" t="s">
+        <v>273</v>
       </c>
       <c r="K125" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F126" t="s">
-        <v>300</v>
-      </c>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B126" s="9"/>
+      <c r="D126" s="3"/>
+      <c r="F126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I126" s="3" t="s">
-        <v>34</v>
+        <v>424</v>
+      </c>
+      <c r="I126" t="s">
+        <v>273</v>
       </c>
       <c r="K126" s="24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B127" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F127" t="s">
-        <v>301</v>
-      </c>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="9"/>
+      <c r="D127" s="3"/>
+      <c r="F127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="I127" s="3" t="s">
-        <v>34</v>
+        <v>426</v>
+      </c>
+      <c r="I127" t="s">
+        <v>273</v>
       </c>
       <c r="K127" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>293</v>
-      </c>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B128" s="22"/>
+      <c r="C128" s="13"/>
       <c r="D128" s="13"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="13" t="s">
-        <v>302</v>
-      </c>
+      <c r="F128" s="13"/>
       <c r="G128" s="13"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
+      <c r="H128" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="I128" s="12" t="s">
+        <v>273</v>
+      </c>
       <c r="J128" s="13"/>
-      <c r="K128" s="25"/>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B131" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="6" t="s">
+      <c r="K128" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G131" s="7"/>
-      <c r="H131" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J131" s="7"/>
-      <c r="K131" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B132" s="18"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="8"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K131" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" s="9"/>
+      <c r="C132" s="3"/>
+      <c r="F132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K132" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B133" s="18"/>
-      <c r="H133" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K133" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B134" s="22"/>
-      <c r="C134" s="13"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K133" s="10"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="D134" s="13"/>
       <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
+      <c r="F134" s="12" t="s">
+        <v>113</v>
+      </c>
       <c r="G134" s="13"/>
-      <c r="H134" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I134" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
       <c r="J134" s="13"/>
-      <c r="K134" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K134" s="14"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" s="4" t="s">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="C136" s="7"/>
       <c r="D136" s="6" t="s">
@@ -4868,2422 +5238,3093 @@
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="6" t="s">
-        <v>138</v>
+        <v>288</v>
       </c>
       <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
       <c r="J136" s="7"/>
       <c r="K136" s="8"/>
-      <c r="N136" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B137" s="9" t="s">
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F137" t="s">
+        <v>294</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K137" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F138" t="s">
+        <v>295</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K138" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F139" t="s">
+        <v>296</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K139" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F140" t="s">
+        <v>297</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K140" s="24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="25"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C144" s="7"/>
+      <c r="D144" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E144" s="7"/>
+      <c r="F144" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G144" s="7"/>
+      <c r="H144" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I144" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J144" s="7"/>
+      <c r="K144" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B145" s="18"/>
+      <c r="H145" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K145" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B146" s="18"/>
+      <c r="H146" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K146" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B147" s="22"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
+      <c r="H147" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="J147" s="13"/>
+      <c r="K147" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B149" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C149" s="7"/>
+      <c r="D149" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E149" s="7"/>
+      <c r="F149" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="8"/>
+      <c r="N149" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B150" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="C137" t="s">
-        <v>132</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="K137" s="10"/>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B138" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C138" t="s">
-        <v>132</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K138" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B139" s="9"/>
-      <c r="D139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="H139" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K139" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B140" s="9"/>
-      <c r="F140" s="3"/>
-      <c r="H140" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K140" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B141" s="9"/>
-      <c r="F141" s="3"/>
-      <c r="H141" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K141" s="24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B142" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="C142" t="s">
-        <v>132</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K142" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B143" s="9"/>
-      <c r="D143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="H143" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K143" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B144" s="9"/>
-      <c r="F144" s="3"/>
-      <c r="H144" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K144" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B145" s="9"/>
-      <c r="F145" s="3"/>
-      <c r="H145" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K145" s="24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B146" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="C146" t="s">
-        <v>132</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K146" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B147" s="9"/>
-      <c r="D147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="H147" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K147" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="9"/>
-      <c r="F148" s="3"/>
-      <c r="H148" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K148" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="9"/>
-      <c r="F149" s="3"/>
-      <c r="H149" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K149" s="24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="9" t="s">
-        <v>260</v>
       </c>
       <c r="C150" t="s">
         <v>132</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H150" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="K150" s="10"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B151" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" t="s">
+        <v>132</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H151" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I150" s="3" t="s">
+      <c r="I151" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K150" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B151" s="9"/>
-      <c r="D151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="H151" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="K151" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
+      <c r="D152" s="3"/>
       <c r="F152" s="3"/>
       <c r="H152" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I152" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K152" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="9"/>
-      <c r="D153" s="3"/>
       <c r="F153" s="3"/>
       <c r="H153" s="3" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="K153" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="F154" s="3"/>
       <c r="H154" s="3" t="s">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>244</v>
+        <v>18</v>
       </c>
       <c r="K154" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="9"/>
-      <c r="F155" s="3"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B155" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C155" t="s">
+        <v>132</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>467</v>
+      </c>
       <c r="H155" s="3" t="s">
-        <v>345</v>
+        <v>140</v>
       </c>
       <c r="I155" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K155" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B156" s="9"/>
+      <c r="D156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="H156" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K155" s="24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C156" t="s">
-        <v>132</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="K156" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="3"/>
-      <c r="D157" s="3"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B157" s="9"/>
       <c r="F157" s="3"/>
       <c r="H157" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K157" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" s="9"/>
+      <c r="F158" s="3"/>
+      <c r="H158" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K158" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159" t="s">
+        <v>132</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K159" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" s="9"/>
+      <c r="D160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="H160" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" s="9"/>
+      <c r="F161" s="3"/>
+      <c r="H161" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K161" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="9"/>
+      <c r="F162" s="3"/>
+      <c r="H162" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K162" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C163" t="s">
+        <v>132</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="K163" s="24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="9"/>
+      <c r="D164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="H164" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K164" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="9"/>
+      <c r="F165" s="3"/>
+      <c r="H165" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K165" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" s="9"/>
+      <c r="D166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="H166" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K166" s="24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" s="9"/>
+      <c r="F167" s="3"/>
+      <c r="H167" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="K167" s="24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" s="9"/>
+      <c r="F168" s="3"/>
+      <c r="H168" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K168" s="24" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" s="9"/>
+      <c r="F169" s="3"/>
+      <c r="H169" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="K169" s="24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" s="9"/>
+      <c r="F170" s="3"/>
+      <c r="H170" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" s="24" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C171" t="s">
+        <v>132</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K171" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="H172" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K172" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I157" s="3" t="s">
+      <c r="C173" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="K173" s="24"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="K174" s="24" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="K157" s="24" t="s">
+      <c r="C175" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F175" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B158" s="3" t="s">
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="K175" s="24"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B176" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="K158" s="24"/>
-    </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B159" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="K159" s="24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B160" s="3" t="s">
+      <c r="D176" s="3"/>
+      <c r="F176" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="K160" s="24"/>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D161" s="3"/>
-      <c r="F161" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="K161" s="24"/>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B162" s="11"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13"/>
-      <c r="J162" s="13"/>
-      <c r="K162" s="14"/>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B164" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C164" s="7"/>
-      <c r="D164" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="E164" s="7"/>
-      <c r="F164" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="G164" s="7"/>
-      <c r="H164" s="7"/>
-      <c r="I164" s="7"/>
-      <c r="J164" s="7"/>
-      <c r="K164" s="8"/>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B165" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="K165" s="10"/>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B166" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="K166" s="10"/>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B167" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K167" s="10"/>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B168" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I168" t="s">
-        <v>151</v>
-      </c>
-      <c r="K168" s="10"/>
-    </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="H169" t="s">
-        <v>150</v>
-      </c>
-      <c r="I169" t="s">
-        <v>149</v>
-      </c>
-      <c r="K169" s="10"/>
-    </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B170" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="I170" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="J170" s="13"/>
-      <c r="K170" s="14"/>
-    </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B171" s="9"/>
-      <c r="C171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="K171" s="10"/>
-    </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B172" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C172" s="6"/>
-      <c r="D172" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E172" s="7"/>
-      <c r="F172" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
-      <c r="I172" s="7"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="8"/>
-    </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B173" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C173" t="s">
-        <v>375</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="K173" s="10"/>
-    </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B174" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C174" t="s">
-        <v>375</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="I174" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K174" s="10"/>
-    </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B175" s="9"/>
-      <c r="F175" s="3"/>
-      <c r="H175" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="I175" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K175" s="10"/>
-    </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B176" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C176" t="s">
-        <v>375</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I176" t="s">
-        <v>18</v>
-      </c>
-      <c r="K176" s="24" t="s">
-        <v>377</v>
-      </c>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="K176" s="24"/>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="18"/>
-      <c r="H177" t="s">
-        <v>154</v>
-      </c>
-      <c r="I177" t="s">
-        <v>18</v>
-      </c>
-      <c r="K177" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C178" t="s">
-        <v>375</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="H178" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="I178" t="s">
-        <v>18</v>
-      </c>
-      <c r="K178" s="24" t="s">
-        <v>417</v>
-      </c>
+      <c r="B177" s="11"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="14"/>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C179" t="s">
-        <v>375</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="H179" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="I179" t="s">
-        <v>18</v>
-      </c>
-      <c r="K179" s="24" t="s">
-        <v>418</v>
-      </c>
+      <c r="B179" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C179" s="7"/>
+      <c r="D179" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="E179" s="7"/>
+      <c r="F179" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="7"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="8"/>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="C180" t="s">
-        <v>375</v>
+        <v>367</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="H180" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I180" t="s">
-        <v>18</v>
-      </c>
-      <c r="K180" s="24" t="s">
-        <v>155</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="K180" s="10"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="18"/>
-      <c r="H181" t="s">
-        <v>154</v>
-      </c>
-      <c r="I181" t="s">
-        <v>18</v>
-      </c>
-      <c r="K181" s="10" t="s">
-        <v>156</v>
-      </c>
+      <c r="B181" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K181" s="10"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C182" t="s">
-        <v>375</v>
+        <v>370</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="I182" t="s">
+        <v>371</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K182" s="10"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I183" t="s">
+        <v>151</v>
+      </c>
+      <c r="K183" s="10"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H184" t="s">
+        <v>150</v>
+      </c>
+      <c r="I184" t="s">
+        <v>149</v>
+      </c>
+      <c r="K184" s="10"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C185" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D185" s="13"/>
+      <c r="E185" s="13"/>
+      <c r="F185" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I185" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J185" s="13"/>
+      <c r="K185" s="14"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" s="9"/>
+      <c r="C186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="K186" s="10"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E187" s="7"/>
+      <c r="F187" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="8"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C188" t="s">
+        <v>362</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="K188" s="10"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C189" t="s">
+        <v>362</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="K189" s="10"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="9"/>
+      <c r="F190" s="3"/>
+      <c r="H190" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K190" s="10"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C191" t="s">
+        <v>362</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I191" t="s">
         <v>18</v>
       </c>
-      <c r="K182" s="24" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="11"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="12" t="s">
+      <c r="K191" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" s="18"/>
+      <c r="H192" t="s">
         <v>154</v>
       </c>
-      <c r="I183" s="12" t="s">
+      <c r="I192" t="s">
         <v>18</v>
       </c>
-      <c r="J183" s="13"/>
-      <c r="K183" s="25" t="s">
+      <c r="K192" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E185" s="7"/>
-      <c r="F185" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G185" s="7"/>
-      <c r="H185" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="I185" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J185" s="7"/>
-      <c r="K185" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C186" t="s">
-        <v>157</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K186" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C187" t="s">
-        <v>157</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="H187" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K187" s="24" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C188" t="s">
-        <v>157</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H188" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K188" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="18"/>
-      <c r="F189" s="3"/>
-      <c r="H189" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="I189" s="3" t="s">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B193" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C193" t="s">
+        <v>362</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I193" t="s">
         <v>18</v>
       </c>
-      <c r="K189" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C190" t="s">
-        <v>157</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K190" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="18"/>
-      <c r="F191" s="3"/>
-      <c r="H191" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K191" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C192" t="s">
-        <v>157</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H192" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I192" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K192" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="18"/>
-      <c r="F193" s="3"/>
-      <c r="H193" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I193" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="K193" s="24" t="s">
-        <v>173</v>
+        <v>404</v>
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
-        <v>337</v>
+        <v>400</v>
       </c>
       <c r="C194" t="s">
-        <v>157</v>
+        <v>362</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
       <c r="H194" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I194" t="s">
+        <v>18</v>
+      </c>
+      <c r="K194" s="24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B195" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C195" t="s">
+        <v>362</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I195" t="s">
+        <v>18</v>
+      </c>
+      <c r="K195" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B196" s="18"/>
+      <c r="H196" t="s">
+        <v>154</v>
+      </c>
+      <c r="I196" t="s">
+        <v>18</v>
+      </c>
+      <c r="K196" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B197" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C197" t="s">
+        <v>362</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I197" t="s">
+        <v>18</v>
+      </c>
+      <c r="K197" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B198" s="11"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I198" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J198" s="13"/>
+      <c r="K198" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E200" s="7"/>
+      <c r="F200" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G200" s="7"/>
+      <c r="H200" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J200" s="7"/>
+      <c r="K200" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B201" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K201" s="24" t="s">
         <v>170</v>
-      </c>
-      <c r="I194" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K194" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="18"/>
-      <c r="F195" s="3"/>
-      <c r="H195" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K195" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B196" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C196" t="s">
-        <v>157</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I196" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K196" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B197" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C197" t="s">
-        <v>157</v>
-      </c>
-      <c r="F197" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H197" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K197" s="10"/>
-    </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B198" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C198" t="s">
-        <v>157</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="H198" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I198" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K198" s="10"/>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C199" t="s">
-        <v>157</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I199" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K199" s="10"/>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B200" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C200" t="s">
-        <v>157</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K200" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="18"/>
-      <c r="F201" s="3"/>
-      <c r="H201" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I201" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K201" s="24" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C202" t="s">
+        <v>334</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K202" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B203" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="F202" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H202" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I202" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K202" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="18"/>
-      <c r="F203" s="3"/>
+      <c r="C203" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="H203" s="3" t="s">
-        <v>335</v>
+        <v>169</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="K203" s="24" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
     </row>
     <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C204" t="s">
-        <v>157</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="B204" s="18"/>
+      <c r="F204" s="3"/>
       <c r="H204" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K204" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="18"/>
-      <c r="F205" s="3"/>
+      <c r="B205" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="H205" s="3" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="K205" s="24" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C206" t="s">
-        <v>157</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="B206" s="18"/>
+      <c r="F206" s="3"/>
       <c r="H206" s="3" t="s">
-        <v>170</v>
+        <v>331</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="K206" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="18"/>
-      <c r="F207" s="3"/>
+      <c r="B207" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="H207" s="3" t="s">
-        <v>335</v>
+        <v>169</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="K207" s="24" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C208" t="s">
-        <v>157</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>250</v>
-      </c>
+      <c r="B208" s="18"/>
+      <c r="F208" s="3"/>
       <c r="H208" s="3" t="s">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K208" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="K208" s="24" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="18"/>
-      <c r="F209" s="3"/>
+      <c r="B209" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="H209" s="3" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K209" s="24" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C210" t="s">
-        <v>157</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>253</v>
-      </c>
+      <c r="B210" s="18"/>
+      <c r="F210" s="3"/>
       <c r="H210" s="3" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K210" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="K210" s="24" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="9"/>
-      <c r="F211" s="3"/>
+      <c r="B211" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="H211" s="3" t="s">
-        <v>95</v>
+        <v>371</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K211" s="3"/>
+        <v>244</v>
+      </c>
+      <c r="K211" s="24" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C212" t="s">
-        <v>157</v>
+      <c r="B212" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>344</v>
+        <v>152</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K212" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="K212" s="10"/>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="18"/>
-      <c r="F213" s="3"/>
+      <c r="B213" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="H213" s="3" t="s">
-        <v>343</v>
+        <v>150</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K213" s="24" t="s">
-        <v>96</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K213" s="10"/>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B214" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C214" t="s">
-        <v>157</v>
+        <v>378</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K214" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="K214" s="10"/>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="9"/>
-      <c r="F215" s="3"/>
+      <c r="B215" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="H215" s="3" t="s">
-        <v>343</v>
+        <v>140</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K215" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="K215" s="24" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="216" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B216" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C216" t="s">
-        <v>157</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="B216" s="18"/>
+      <c r="F216" s="3"/>
       <c r="H216" s="3" t="s">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K216" s="24"/>
+        <v>18</v>
+      </c>
+      <c r="K216" s="24" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="217" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B217" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C217" t="s">
-        <v>157</v>
+        <v>336</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>499</v>
+        <v>163</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>498</v>
+        <v>140</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K217" s="24"/>
+        <v>139</v>
+      </c>
+      <c r="K217" s="24" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C218" t="s">
-        <v>157</v>
-      </c>
-      <c r="F218" s="3" t="s">
-        <v>501</v>
-      </c>
+      <c r="B218" s="18"/>
+      <c r="F218" s="3"/>
       <c r="H218" s="3" t="s">
-        <v>502</v>
+        <v>331</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K218" s="24"/>
+        <v>612</v>
+      </c>
+      <c r="K218" s="24" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B219" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C219" t="s">
-        <v>157</v>
+        <v>174</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K219" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="K219" s="24" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="220" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B220" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C220" t="s">
-        <v>157</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>255</v>
-      </c>
+      <c r="B220" s="18"/>
+      <c r="F220" s="3"/>
       <c r="H220" s="3" t="s">
-        <v>335</v>
+        <v>95</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="K220" s="24"/>
+        <v>18</v>
+      </c>
+      <c r="K220" s="24" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="221" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B221" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C221" t="s">
-        <v>157</v>
+        <v>332</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="K221" s="24" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
     </row>
     <row r="222" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B222" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C222" t="s">
-        <v>157</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="B222" s="18"/>
+      <c r="F222" s="3"/>
       <c r="H222" s="3" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="I222" s="3" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="K222" s="24" t="s">
-        <v>246</v>
+        <v>96</v>
       </c>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B223" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C223" t="s">
-        <v>157</v>
+        <v>245</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="I223" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K223" s="3"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B224" s="18"/>
+      <c r="F224" s="3"/>
+      <c r="H224" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I224" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K223" s="24" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C224" t="s">
-        <v>157</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H224" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="I224" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="K224" s="24" t="s">
-        <v>321</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B225" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K225" s="3"/>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B226" s="9"/>
+      <c r="F226" s="3"/>
+      <c r="H226" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K226" s="3"/>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B227" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K227" s="3"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B228" s="18"/>
+      <c r="F228" s="3"/>
+      <c r="H228" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K228" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B229" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K229" s="3"/>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B230" s="9"/>
+      <c r="F230" s="3"/>
+      <c r="H230" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K230" s="3"/>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B231" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K231" s="24"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B232" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K232" s="24"/>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B233" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K233" s="24"/>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B234" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K234" s="24"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B235" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K235" s="24"/>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B236" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K236" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B237" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C225" t="s">
-        <v>157</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H225" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I225" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K225" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B226" s="11" t="s">
-        <v>331</v>
-      </c>
-      <c r="C226" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D226" s="13"/>
-      <c r="E226" s="13"/>
-      <c r="F226" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G226" s="13"/>
-      <c r="H226" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="I226" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="J226" s="13"/>
-      <c r="K226" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B228" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C228" s="29"/>
-      <c r="D228" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E228" s="29"/>
-      <c r="F228" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="G228" s="29"/>
-      <c r="H228" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="I228" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="J228" s="29"/>
-      <c r="K228" s="31"/>
-    </row>
-    <row r="230" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B231" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="C231" s="35"/>
-      <c r="D231" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="E231" s="35"/>
-      <c r="F231" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="G231" s="35"/>
-      <c r="H231" s="35"/>
-      <c r="I231" s="35"/>
-      <c r="J231" s="35"/>
-      <c r="K231" s="37"/>
-    </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H232" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I232" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K232" s="39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B233" s="38" t="s">
-        <v>362</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K233" s="39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B234" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F234" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H234" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I234" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K234" s="39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B235" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H235" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I235" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="K235" s="39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="38"/>
-      <c r="C236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="H236" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="I236" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K236" s="39" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="38"/>
-      <c r="C237" s="3"/>
-      <c r="F237" s="3"/>
+      <c r="C237" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="H237" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="I237" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K237" s="39" t="s">
-        <v>356</v>
+        <v>241</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K237" s="24" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="38"/>
+      <c r="B238" s="9"/>
       <c r="C238" s="3"/>
       <c r="F238" s="3"/>
       <c r="H238" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="I238" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K238" s="24" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B239" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K239" s="24" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B240" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I240" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K238" s="39" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="38"/>
-      <c r="C239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="H239" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="I239" s="2" t="s">
+      <c r="K240" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B241" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K241" s="24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B242" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="I242" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K239" s="39" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="38"/>
-      <c r="C240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="H240" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="I240" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="K240" s="39" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B241" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H241" s="3"/>
-      <c r="I241" s="2"/>
-      <c r="K241" s="39"/>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B242" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="H242" s="3"/>
-      <c r="I242" s="2"/>
-      <c r="K242" s="39"/>
+      <c r="K242" s="24" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B243" s="38"/>
-      <c r="C243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="2"/>
-      <c r="K243" s="39"/>
+      <c r="B243" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K243" s="24" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="38"/>
-      <c r="C244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="2"/>
-      <c r="K244" s="39"/>
+      <c r="B244" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K244" s="24" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="245" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B245" s="38"/>
-      <c r="C245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="2"/>
-      <c r="K245" s="39"/>
-    </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B246" s="38" t="s">
-        <v>364</v>
-      </c>
-      <c r="C246" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F246" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H246" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="I246" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K246" s="39" t="s">
-        <v>229</v>
+      <c r="B245" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C245" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D245" s="13"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G245" s="13"/>
+      <c r="H245" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="I245" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="J245" s="13"/>
+      <c r="K245" s="25" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="247" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B247" s="38"/>
-      <c r="K247" s="41"/>
-    </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B248" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="D248" s="3" t="s">
+      <c r="B247" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="C247" s="28"/>
+      <c r="D247" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E247" s="28"/>
+      <c r="F247" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G247" s="28"/>
+      <c r="H247" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="I247" s="29" t="s">
+        <v>527</v>
+      </c>
+      <c r="J247" s="28"/>
+      <c r="K247" s="30"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C249" s="7"/>
+      <c r="D249" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K248" s="41"/>
-    </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B249" s="38" t="s">
-        <v>221</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K249" s="41"/>
+      <c r="E249" s="7"/>
+      <c r="F249" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="G249" s="7"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="7"/>
+      <c r="K249" s="23"/>
     </row>
     <row r="250" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B250" s="38" t="s">
-        <v>222</v>
+      <c r="B250" s="9" t="s">
+        <v>535</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>220</v>
+        <v>578</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K250" s="41"/>
+        <v>531</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K250" s="24" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="251" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B251" s="38" t="s">
-        <v>225</v>
+      <c r="B251" s="9" t="s">
+        <v>536</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="H251" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I251" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K251" s="39" t="s">
-        <v>230</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="K251" s="24"/>
     </row>
     <row r="252" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B252" s="40"/>
+      <c r="B252" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>539</v>
+      </c>
       <c r="H252" s="3" t="s">
-        <v>228</v>
+        <v>540</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K252" s="39" t="s">
-        <v>231</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="K252" s="24"/>
     </row>
     <row r="253" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B253" s="40"/>
-      <c r="K253" s="41"/>
+      <c r="B253" s="9"/>
+      <c r="C253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="H253" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K253" s="24"/>
     </row>
     <row r="254" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B254" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="C254" s="7"/>
-      <c r="D254" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E254" s="7"/>
-      <c r="F254" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="G254" s="7"/>
-      <c r="H254" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I254" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J254" s="7"/>
-      <c r="K254" s="43" t="s">
-        <v>202</v>
-      </c>
+      <c r="B254" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="K254" s="24"/>
     </row>
     <row r="255" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B255" s="38"/>
-      <c r="D255" s="3"/>
+      <c r="B255" s="9"/>
+      <c r="C255" s="3"/>
       <c r="F255" s="3"/>
       <c r="H255" s="3" t="s">
-        <v>203</v>
+        <v>584</v>
       </c>
       <c r="I255" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K255" s="24"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="K256" s="24"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B257" s="9"/>
+      <c r="C257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="H257" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K257" s="24"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B258" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="K258" s="24"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B259" s="9"/>
+      <c r="C259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="H259" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K259" s="24"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B260" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="K260" s="24"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B261" s="9"/>
+      <c r="C261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="H261" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K261" s="24"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B262" s="9"/>
+      <c r="C262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="H262" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K262" s="24"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B263" s="9"/>
+      <c r="C263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="H263" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="K263" s="24"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B264" s="9"/>
+      <c r="C264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="H264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="K264" s="24"/>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B265" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="K265" s="24" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B266" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="K266" s="24"/>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B267" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="K267" s="24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B268" s="9"/>
+      <c r="C268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="H268" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="K268" s="24"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B269" s="9"/>
+      <c r="C269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="K269" s="24"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B270" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+      <c r="K270" s="24"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B271" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="K271" s="24"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B272" s="9"/>
+      <c r="C272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="H272" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="K272" s="24"/>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B273" s="9"/>
+      <c r="C273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="H273" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="I273" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K255" s="39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B256" s="38"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="H256" s="3" t="s">
+      <c r="K273" s="24"/>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B274" s="9"/>
+      <c r="C274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="H274" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="K274" s="24"/>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B275" s="11"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="12"/>
+      <c r="G275" s="13"/>
+      <c r="H275" s="12"/>
+      <c r="I275" s="12"/>
+      <c r="J275" s="13"/>
+      <c r="K275" s="25"/>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="H276" s="3"/>
+      <c r="I276" s="3"/>
+      <c r="K276" s="3"/>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B277" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="C277" s="28"/>
+      <c r="D277" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E277" s="28"/>
+      <c r="F277" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="G277" s="28"/>
+      <c r="H277" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="I277" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="J277" s="28"/>
+      <c r="K277" s="30"/>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="H278" s="3"/>
+      <c r="I278" s="3"/>
+      <c r="K278" s="3"/>
+    </row>
+    <row r="279" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B280" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="I256" s="3" t="s">
+      <c r="C280" s="34"/>
+      <c r="D280" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E280" s="34"/>
+      <c r="F280" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G280" s="34"/>
+      <c r="H280" s="34"/>
+      <c r="I280" s="34"/>
+      <c r="J280" s="34"/>
+      <c r="K280" s="36"/>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B281" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K281" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B282" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H282" s="3"/>
+      <c r="I282" s="2"/>
+      <c r="K282" s="38"/>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B283" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="I283" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K283" s="38" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B284" s="37"/>
+      <c r="C284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="H284" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I284" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K256" s="39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B257" s="40"/>
-      <c r="H257" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I257" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K257" s="39" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B258" s="40"/>
-      <c r="H258" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="I258" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K258" s="39" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B259" s="40"/>
-      <c r="H259" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I259" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K259" s="39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B260" s="40"/>
-      <c r="H260" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="I260" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="K260" s="39" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B261" s="44"/>
-      <c r="C261" s="13"/>
-      <c r="D261" s="13"/>
-      <c r="E261" s="13"/>
-      <c r="F261" s="13"/>
-      <c r="G261" s="13"/>
-      <c r="H261" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="I261" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J261" s="13"/>
-      <c r="K261" s="45" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B262" s="40"/>
-      <c r="H262" s="3"/>
-      <c r="I262" s="3"/>
-      <c r="K262" s="39"/>
-    </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B263" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="C263" s="7"/>
-      <c r="D263" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E263" s="7"/>
-      <c r="F263" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="G263" s="7"/>
-      <c r="H263" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="I263" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="J263" s="7"/>
-      <c r="K263" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B264" s="18"/>
-      <c r="H264" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="I264" t="s">
-        <v>34</v>
-      </c>
-      <c r="K264" s="24" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B265" s="18"/>
-      <c r="H265" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="I265" t="s">
-        <v>34</v>
-      </c>
-      <c r="K265" s="24" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B266" s="22"/>
-      <c r="C266" s="13"/>
-      <c r="D266" s="13"/>
-      <c r="E266" s="13"/>
-      <c r="F266" s="13"/>
-      <c r="G266" s="13"/>
-      <c r="H266" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="I266" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J266" s="13"/>
-      <c r="K266" s="25" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="267" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="46"/>
-      <c r="C267" s="47"/>
-      <c r="D267" s="47"/>
-      <c r="E267" s="47"/>
-      <c r="F267" s="47"/>
-      <c r="G267" s="47"/>
-      <c r="H267" s="47"/>
-      <c r="I267" s="47"/>
-      <c r="J267" s="47"/>
-      <c r="K267" s="48"/>
-    </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C271" s="7"/>
-      <c r="D271" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E271" s="7"/>
-      <c r="F271" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="G271" s="7"/>
-      <c r="H271" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="I271" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="J271" s="7"/>
-      <c r="K271" s="8"/>
-    </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B272" s="18"/>
-      <c r="H272" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="I272" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="K272" s="10"/>
-    </row>
-    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B273" s="22"/>
-      <c r="C273" s="13"/>
-      <c r="D273" s="13"/>
-      <c r="E273" s="13"/>
-      <c r="F273" s="13"/>
-      <c r="G273" s="13"/>
-      <c r="H273" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="I273" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="J273" s="13"/>
-      <c r="K273" s="14"/>
-    </row>
-    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B275" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C275" s="7"/>
-      <c r="D275" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="E275" s="7"/>
-      <c r="F275" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="G275" s="7"/>
-      <c r="H275" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="I275" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="J275" s="7"/>
-      <c r="K275" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="L275" s="8"/>
-    </row>
-    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B276" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="C276" t="s">
-        <v>445</v>
-      </c>
-      <c r="L276" s="10"/>
-    </row>
-    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B277" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C277" t="s">
-        <v>445</v>
-      </c>
-      <c r="L277" s="10"/>
-    </row>
-    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B278" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="C278" t="s">
-        <v>445</v>
-      </c>
-      <c r="L278" s="10"/>
-    </row>
-    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B279" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="C279" t="s">
-        <v>445</v>
-      </c>
-      <c r="H279" t="s">
-        <v>453</v>
-      </c>
-      <c r="I279" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="K279" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="L279" s="10"/>
-    </row>
-    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B280" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="C280" t="s">
-        <v>445</v>
-      </c>
-      <c r="H280" t="s">
-        <v>453</v>
-      </c>
-      <c r="I280" t="s">
-        <v>454</v>
-      </c>
-      <c r="K280" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="L280" s="10"/>
-    </row>
-    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B281" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="C281" t="s">
-        <v>445</v>
-      </c>
-      <c r="L281" s="10"/>
-    </row>
-    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B282" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="C282" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D282" s="13"/>
-      <c r="E282" s="13"/>
-      <c r="F282" s="13"/>
-      <c r="G282" s="13"/>
-      <c r="H282" s="13"/>
-      <c r="I282" s="13"/>
-      <c r="J282" s="13"/>
-      <c r="K282" s="13"/>
-      <c r="L282" s="14"/>
-    </row>
-    <row r="284" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B284" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="C284" s="7"/>
-      <c r="D284" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E284" s="7"/>
-      <c r="F284" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="G284" s="7"/>
-      <c r="H284" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="I284" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J284" s="7"/>
-      <c r="K284" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="L284" s="8"/>
-    </row>
-    <row r="285" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B285" s="18"/>
+      <c r="K284" s="38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B285" s="37"/>
+      <c r="C285" s="3"/>
+      <c r="F285" s="3"/>
       <c r="H285" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="I285" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K285" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="L285" s="10"/>
-    </row>
-    <row r="286" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B286" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>468</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K285" s="38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B286" s="37"/>
+      <c r="C286" s="3"/>
       <c r="F286" s="3"/>
       <c r="H286" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="I286" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="K286" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="L286" s="10"/>
-    </row>
-    <row r="287" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B287" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="C287" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="D287" s="13"/>
-      <c r="E287" s="13"/>
-      <c r="F287" s="13"/>
-      <c r="G287" s="13"/>
-      <c r="H287" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K286" s="38" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B287" s="37"/>
+      <c r="C287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="H287" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="I287" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="J287" s="13"/>
-      <c r="K287" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="L287" s="14"/>
-    </row>
-    <row r="289" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B289" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C289" s="7"/>
-      <c r="D289" s="6" t="s">
+      <c r="I287" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="K287" s="38" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B288" s="37"/>
+      <c r="C288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="2"/>
+      <c r="K288" s="38"/>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B289" s="37"/>
+      <c r="C289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="2"/>
+      <c r="K289" s="38"/>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B290" s="37"/>
+      <c r="C290" s="3"/>
+      <c r="F290" s="3"/>
+      <c r="H290" s="3"/>
+      <c r="I290" s="2"/>
+      <c r="K290" s="38"/>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B291" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K291" s="38" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B292" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H292" s="3"/>
+      <c r="I292" s="2"/>
+      <c r="K292" s="38"/>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B293" s="37"/>
+      <c r="K293" s="40"/>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B294" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="D294" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E289" s="7"/>
-      <c r="F289" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="G289" s="7"/>
-      <c r="H289" s="6"/>
-      <c r="I289" s="6"/>
-      <c r="J289" s="7"/>
-      <c r="K289" s="6"/>
-      <c r="L289" s="8"/>
-    </row>
-    <row r="290" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B290" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C290" t="s">
-        <v>528</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="H290" s="3"/>
-      <c r="I290" s="3"/>
-      <c r="K290" s="3"/>
-      <c r="L290" s="10"/>
-    </row>
-    <row r="291" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B291" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="C291" t="s">
-        <v>528</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="H291" s="3"/>
-      <c r="I291" s="3"/>
-      <c r="K291" s="3"/>
-      <c r="L291" s="10"/>
-    </row>
-    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B292" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C292" t="s">
-        <v>528</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="H292" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="I292" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K292" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="L292" s="10"/>
-    </row>
-    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B293" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="H293" s="3"/>
-      <c r="I293" s="3"/>
-      <c r="K293" s="3"/>
-      <c r="L293" s="10"/>
-    </row>
-    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B294" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="H294" s="3"/>
-      <c r="I294" s="3"/>
-      <c r="K294" s="3"/>
-      <c r="L294" s="10"/>
-    </row>
-    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B295" s="3" t="s">
-        <v>538</v>
+      <c r="K294" s="40"/>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B295" s="37" t="s">
+        <v>217</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>532</v>
+        <v>216</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="H295" s="3"/>
-      <c r="I295" s="3"/>
-      <c r="K295" s="3"/>
-      <c r="L295" s="10"/>
-    </row>
-    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B296" s="3" t="s">
-        <v>539</v>
+        <v>219</v>
+      </c>
+      <c r="K295" s="40"/>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B296" s="37" t="s">
+        <v>218</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>532</v>
+        <v>216</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="H296" s="3"/>
-      <c r="I296" s="3"/>
-      <c r="K296" s="3"/>
-      <c r="L296" s="10"/>
-    </row>
-    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B297" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C297" t="s">
-        <v>528</v>
+        <v>220</v>
+      </c>
+      <c r="K296" s="40"/>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B297" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>519</v>
+        <v>222</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>523</v>
+        <v>223</v>
       </c>
       <c r="I297" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K297" s="3" t="s">
+      <c r="K297" s="38" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B298" s="39"/>
+      <c r="H298" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K298" s="38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B299" s="39"/>
+      <c r="K299" s="40"/>
+    </row>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B300" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C300" s="7"/>
+      <c r="D300" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E300" s="7"/>
+      <c r="F300" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G300" s="7"/>
+      <c r="H300" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I300" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J300" s="7"/>
+      <c r="K300" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B301" s="37"/>
+      <c r="D301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="H301" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K301" s="38" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B302" s="37"/>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="H302" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K302" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B303" s="39"/>
+      <c r="H303" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K303" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B304" s="39"/>
+      <c r="H304" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="K304" s="38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B305" s="39"/>
+      <c r="H305" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K305" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B306" s="39"/>
+      <c r="H306" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="K306" s="38" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B307" s="43"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="13"/>
+      <c r="E307" s="13"/>
+      <c r="F307" s="13"/>
+      <c r="G307" s="13"/>
+      <c r="H307" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I307" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J307" s="13"/>
+      <c r="K307" s="44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B308" s="39"/>
+      <c r="H308" s="3"/>
+      <c r="I308" s="3"/>
+      <c r="K308" s="38"/>
+    </row>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B309" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C309" s="7"/>
+      <c r="D309" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E309" s="7"/>
+      <c r="F309" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="G309" s="7"/>
+      <c r="H309" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="I309" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="J309" s="7"/>
+      <c r="K309" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B310" s="18"/>
+      <c r="H310" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I310" t="s">
+        <v>34</v>
+      </c>
+      <c r="K310" s="24" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B311" s="18"/>
+      <c r="H311" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="I311" t="s">
+        <v>34</v>
+      </c>
+      <c r="K311" s="24" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B312" s="22"/>
+      <c r="C312" s="13"/>
+      <c r="D312" s="13"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="13"/>
+      <c r="H312" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="I312" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J312" s="13"/>
+      <c r="K312" s="25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="313" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="45"/>
+      <c r="C313" s="46"/>
+      <c r="D313" s="46"/>
+      <c r="E313" s="46"/>
+      <c r="F313" s="46"/>
+      <c r="G313" s="46"/>
+      <c r="H313" s="46"/>
+      <c r="I313" s="46"/>
+      <c r="J313" s="46"/>
+      <c r="K313" s="47"/>
+    </row>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B317" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C317" s="7"/>
+      <c r="D317" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E317" s="7"/>
+      <c r="F317" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G317" s="7"/>
+      <c r="H317" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="I317" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="J317" s="7"/>
+      <c r="K317" s="8"/>
+    </row>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B318" s="18"/>
+      <c r="H318" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K318" s="10"/>
+    </row>
+    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B319" s="22"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="13"/>
+      <c r="G319" s="13"/>
+      <c r="H319" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="I319" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="J319" s="13"/>
+      <c r="K319" s="14"/>
+    </row>
+    <row r="321" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B321" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C321" s="7"/>
+      <c r="D321" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E321" s="7"/>
+      <c r="F321" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G321" s="7"/>
+      <c r="H321" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="I321" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="J321" s="7"/>
+      <c r="K321" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L321" s="8"/>
+    </row>
+    <row r="322" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B322" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C322" t="s">
+        <v>431</v>
+      </c>
+      <c r="L322" s="10"/>
+    </row>
+    <row r="323" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B323" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="C323" t="s">
+        <v>431</v>
+      </c>
+      <c r="L323" s="10"/>
+    </row>
+    <row r="324" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B324" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="C324" t="s">
+        <v>431</v>
+      </c>
+      <c r="L324" s="10"/>
+    </row>
+    <row r="325" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B325" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="C325" t="s">
+        <v>431</v>
+      </c>
+      <c r="H325" t="s">
+        <v>439</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L325" s="10"/>
+    </row>
+    <row r="326" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B326" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C326" t="s">
+        <v>431</v>
+      </c>
+      <c r="H326" t="s">
+        <v>439</v>
+      </c>
+      <c r="I326" t="s">
+        <v>440</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="L326" s="10"/>
+    </row>
+    <row r="327" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B327" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="C327" t="s">
+        <v>431</v>
+      </c>
+      <c r="L327" s="10"/>
+    </row>
+    <row r="328" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B328" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C328" t="s">
+        <v>431</v>
+      </c>
+      <c r="L328" s="10"/>
+    </row>
+    <row r="329" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B329" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="C329" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D329" s="13"/>
+      <c r="E329" s="13"/>
+      <c r="F329" s="13"/>
+      <c r="G329" s="13"/>
+      <c r="H329" s="13"/>
+      <c r="I329" s="13"/>
+      <c r="J329" s="13"/>
+      <c r="K329" s="13"/>
+      <c r="L329" s="14"/>
+    </row>
+    <row r="331" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B331" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C331" s="7"/>
+      <c r="D331" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E331" s="7"/>
+      <c r="F331" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="G331" s="7"/>
+      <c r="H331" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I331" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J331" s="7"/>
+      <c r="K331" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L331" s="8"/>
+    </row>
+    <row r="332" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B332" s="18"/>
+      <c r="H332" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="L332" s="10"/>
+    </row>
+    <row r="333" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B333" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F333" s="3"/>
+      <c r="H333" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="L333" s="10"/>
+    </row>
+    <row r="334" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B334" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="13"/>
+      <c r="H334" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="I334" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="J334" s="13"/>
+      <c r="K334" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="L334" s="14"/>
+    </row>
+    <row r="336" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B336" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C336" s="7"/>
+      <c r="D336" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E336" s="7"/>
+      <c r="F336" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="G336" s="7"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="7"/>
+      <c r="K336" s="6"/>
+      <c r="L336" s="8"/>
+    </row>
+    <row r="337" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B337" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C337" t="s">
+        <v>514</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H337" s="3"/>
+      <c r="I337" s="3"/>
+      <c r="K337" s="3"/>
+      <c r="L337" s="10"/>
+    </row>
+    <row r="338" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B338" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C338" t="s">
+        <v>514</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H338" s="3"/>
+      <c r="I338" s="3"/>
+      <c r="K338" s="3"/>
+      <c r="L338" s="10"/>
+    </row>
+    <row r="339" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B339" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C339" t="s">
+        <v>514</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K339" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="L339" s="10"/>
+    </row>
+    <row r="340" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B340" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H340" s="3"/>
+      <c r="I340" s="3"/>
+      <c r="K340" s="3"/>
+      <c r="L340" s="10"/>
+    </row>
+    <row r="341" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B341" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="K341" s="3"/>
+      <c r="L341" s="10"/>
+    </row>
+    <row r="342" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B342" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="L297" s="10"/>
-    </row>
-    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B298" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="C298" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D298" s="13"/>
-      <c r="E298" s="13"/>
-      <c r="F298" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="G298" s="13"/>
-      <c r="H298" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="I298" s="12" t="s">
+      <c r="C342" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H342" s="3"/>
+      <c r="I342" s="3"/>
+      <c r="K342" s="3"/>
+      <c r="L342" s="10"/>
+    </row>
+    <row r="343" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B343" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H343" s="3"/>
+      <c r="I343" s="3"/>
+      <c r="K343" s="3"/>
+      <c r="L343" s="10"/>
+    </row>
+    <row r="344" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B344" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C344" t="s">
+        <v>514</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="I344" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J298" s="13"/>
-      <c r="K298" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="L298" s="14"/>
+      <c r="K344" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="L344" s="10"/>
+    </row>
+    <row r="345" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B345" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="D345" s="13"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="G345" s="13"/>
+      <c r="H345" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="I345" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J345" s="13"/>
+      <c r="K345" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="L345" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/__beans__.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BB5A0C-3755-47D9-B452-F64EB1A1581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C46FCE-F253-4921-B8DB-CE23BD437BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="749">
   <si>
     <t>##var</t>
   </si>
@@ -1729,18 +1718,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>通过波次修改属性(float chgValue = buffActionModifyAttribute.BaseValue*waveIndex + buffActionModifyAttribute.StackValue * stackCount*waveIndex)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffActionModifyAttributeByCircleWaveIndex</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过循环波次修改属性(float chgValue = buffActionModifyAttribute.BaseValue*circleWaveIndex + buffActionModifyAttribute.StackValue * stackCount*circleWaveIndex)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>createActionIds</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2730,6 +2707,176 @@
   </si>
   <si>
     <t>heightWhenAir</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRemoveWhenCasterActorUnitNotExist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起者不存在时是否移除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseValueWaveIndex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackValueWaveIndex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseValueCircleWaveIndex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackValueCircleWaveIndex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseValueCircleNumIndex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackValueCircleNumIndex</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始附加(通过波次修改属性)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照层数附加(通过波次修改属性)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始附加(通过循环波次修改属性)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照层数附加(通过循环波次修改属性)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始附加(通过循环次数修改属性)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照层数附加(通过循环次数修改属性)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseValueCircleNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stackValueCircleNum</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照层数附加(通过循环次数中的序号修改属性)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始附加(通过循环次数中的序号修改属性)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过波次修改属性(waveIndex表示实际波数)(float chgValue = buffActionModifyAttribute.BaseValueWaveIndex*waveIndex + buffActionModifyAttribute.StackValueWaveIndex * stackCount*waveIndex)
++
+通过循环波次修改属性(circleWaveIndex表示实际波数-从第N波开始循环)(float chgValue = buffActionModifyAttribute.BaseValueCircleWaveIndex*circleWaveIndex + buffActionModifyAttribute.StackValueCircleWaveIndex * stackCount*circleWaveIndex)
++
+通过循环次数修改属性(circleNum表示第N次循环,circleIndex表示第N次循环中的第几个)(float chgValue = buffActionModifyAttribute.BaseValueCircleNumIndex*circleIndex + buffActionModifyAttribute.StackValueCircleNumIndex * stackCount*circleIndex) + buffActionModifyAttribute.BaseValueCircleNum*circleNum + buffActionModifyAttribute.StackValueCircleNum * stackCount</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLockByPVE</t>
+  </si>
+  <si>
+    <t>UnLockByActivity</t>
+  </si>
+  <si>
+    <t>UnLockByDiamond</t>
+  </si>
+  <si>
+    <t>UnLockByPay</t>
+  </si>
+  <si>
+    <t>UnLockSoon</t>
+  </si>
+  <si>
+    <t>UnLockDefault</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnLockConditionBase</t>
+  </si>
+  <si>
+    <t>UnLockConditionBase</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁条件(塔和玩家技能)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动获得</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费xx钻石解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费xx现金解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬请期待</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>payValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamondValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费钻石数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费现金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在pve中第N关卡解锁 或 在xx赛季第N关卡解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否使用召唤者的移动速度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUseCallerSpeed</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3452,29 +3599,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N381"/>
+  <dimension ref="A1:N392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H109" sqref="H109"/>
+      <selection pane="bottomRight" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" customWidth="1"/>
-    <col min="10" max="10" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="5.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3504,7 +3651,7 @@
       <c r="K1" s="47"/>
       <c r="L1" s="47"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3524,7 +3671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3532,7 +3679,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -3547,7 +3694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" s="6"/>
@@ -3560,7 +3707,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="9"/>
       <c r="D7" s="3"/>
       <c r="F7" s="3"/>
@@ -3569,7 +3716,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" s="22"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -3582,7 +3729,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
@@ -3602,7 +3749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
@@ -3616,7 +3763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
@@ -3627,45 +3774,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" s="3" t="s">
         <v>176</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="3" t="s">
         <v>177</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
@@ -3688,7 +3835,7 @@
       </c>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
@@ -3703,7 +3850,7 @@
       </c>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="21"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -3722,33 +3869,33 @@
       </c>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="H20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>171</v>
       </c>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="18"/>
       <c r="H21" s="3" t="s">
         <v>176</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>178</v>
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="22"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -3759,7 +3906,7 @@
         <v>177</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="12" t="s">
@@ -3767,13 +3914,13 @@
       </c>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="18"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="L23" s="10"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>292</v>
       </c>
@@ -3796,7 +3943,7 @@
       </c>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
@@ -3811,7 +3958,7 @@
       </c>
       <c r="L25" s="10"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="21"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -3830,33 +3977,33 @@
       </c>
       <c r="L26" s="10"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="18"/>
       <c r="H27" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>171</v>
       </c>
       <c r="L27" s="10"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="18"/>
       <c r="H28" s="3" t="s">
         <v>176</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>178</v>
       </c>
       <c r="L28" s="10"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="22"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -3867,7 +4014,7 @@
         <v>177</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="12" t="s">
@@ -3875,13 +4022,13 @@
       </c>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="18"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
@@ -3904,7 +4051,7 @@
       </c>
       <c r="L31" s="8"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
       <c r="D32" s="3"/>
       <c r="G32" s="17"/>
@@ -3920,7 +4067,7 @@
       </c>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="21"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -3939,7 +4086,7 @@
       </c>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="21"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -3950,7 +4097,7 @@
         <v>37</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17" t="s">
@@ -3958,7 +4105,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="21"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
@@ -3969,7 +4116,7 @@
         <v>176</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17" t="s">
@@ -3977,7 +4124,7 @@
       </c>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="22"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -3988,7 +4135,7 @@
         <v>177</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="12" t="s">
@@ -3996,13 +4143,13 @@
       </c>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
@@ -4012,34 +4159,34 @@
       <c r="F38" s="7"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I38" s="23" t="s">
         <v>261</v>
       </c>
       <c r="J38" s="23"/>
       <c r="K38" s="23" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="L38" s="8"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="9"/>
       <c r="D39" s="3"/>
       <c r="G39" s="17"/>
       <c r="H39" s="17" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L39" s="10"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="21"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
@@ -4047,10 +4194,10 @@
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J40" s="17"/>
       <c r="K40" s="17" t="s">
@@ -4058,7 +4205,7 @@
       </c>
       <c r="L40" s="10"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="21"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
@@ -4066,18 +4213,18 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="L41" s="10"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" s="22"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -4088,7 +4235,7 @@
         <v>177</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J42" s="13"/>
       <c r="K42" s="12" t="s">
@@ -4096,11 +4243,11 @@
       </c>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
         <v>387</v>
       </c>
@@ -4115,7 +4262,7 @@
         <v>176</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="23" t="s">
@@ -4123,21 +4270,21 @@
       </c>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="9"/>
       <c r="D45" s="3"/>
       <c r="G45" s="17"/>
       <c r="H45" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="10"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="9"/>
       <c r="D46" s="3"/>
       <c r="G46" s="17"/>
@@ -4153,7 +4300,7 @@
       </c>
       <c r="L46" s="10"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="21"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -4164,7 +4311,7 @@
         <v>21</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J47" s="17"/>
       <c r="K47" s="17" t="s">
@@ -4172,7 +4319,7 @@
       </c>
       <c r="L47" s="10"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="22"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -4185,20 +4332,20 @@
       <c r="K48" s="12"/>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>180</v>
       </c>
@@ -4221,7 +4368,7 @@
       </c>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="9"/>
       <c r="D53" s="3"/>
       <c r="G53" s="17"/>
@@ -4237,7 +4384,7 @@
       </c>
       <c r="L53" s="10"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="21"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
@@ -4248,7 +4395,7 @@
         <v>176</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J54" s="17"/>
       <c r="K54" s="17" t="s">
@@ -4256,7 +4403,7 @@
       </c>
       <c r="L54" s="10"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="24"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4267,7 +4414,7 @@
         <v>177</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J55" s="25"/>
       <c r="K55" s="25" t="s">
@@ -4275,12 +4422,12 @@
       </c>
       <c r="L55" s="14"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>295</v>
       </c>
@@ -4305,24 +4452,24 @@
       </c>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="9"/>
       <c r="D58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="17"/>
       <c r="H58" s="2" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J58" s="17"/>
       <c r="K58" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L58" s="10"/>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="21"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -4333,7 +4480,7 @@
         <v>176</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J59" s="17"/>
       <c r="K59" s="17" t="s">
@@ -4341,7 +4488,7 @@
       </c>
       <c r="L59" s="10"/>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4352,7 +4499,7 @@
         <v>177</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="J60" s="25"/>
       <c r="K60" s="25" t="s">
@@ -4360,11 +4507,11 @@
       </c>
       <c r="L60" s="14"/>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="15" t="s">
         <v>34</v>
       </c>
@@ -4383,7 +4530,7 @@
       <c r="K62" s="6"/>
       <c r="L62" s="8"/>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="16" t="s">
         <v>38</v>
       </c>
@@ -4399,30 +4546,30 @@
       <c r="K63" s="2"/>
       <c r="L63" s="10"/>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="16" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="10"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="16" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -4430,15 +4577,15 @@
       <c r="K65" s="2"/>
       <c r="L65" s="10"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="16" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -4446,15 +4593,15 @@
       <c r="K66" s="2"/>
       <c r="L66" s="10"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="16" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
@@ -4462,15 +4609,15 @@
       <c r="K67" s="2"/>
       <c r="L67" s="10"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="16" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -4478,15 +4625,15 @@
       <c r="K68" s="2"/>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="16" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
@@ -4494,37 +4641,37 @@
       <c r="K69" s="2"/>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>692</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J70" s="17"/>
       <c r="K70" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="L70" s="10"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>668</v>
-      </c>
-      <c r="L70" s="10"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>671</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>97</v>
@@ -4538,15 +4685,15 @@
       </c>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="16" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>98</v>
@@ -4556,11 +4703,11 @@
       </c>
       <c r="J72" s="17"/>
       <c r="K72" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="16"/>
       <c r="C73" s="2"/>
       <c r="F73" s="3"/>
@@ -4570,15 +4717,15 @@
       <c r="K73" s="2"/>
       <c r="L73" s="10"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="16" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
@@ -4586,37 +4733,37 @@
       <c r="K74" s="2"/>
       <c r="L74" s="10"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="16" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>18</v>
       </c>
       <c r="J75" s="17"/>
       <c r="K75" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="L75" s="10"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="16" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>97</v>
@@ -4630,15 +4777,15 @@
       </c>
       <c r="L76" s="10"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="16" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>98</v>
@@ -4648,11 +4795,11 @@
       </c>
       <c r="J77" s="17"/>
       <c r="K77" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="L77" s="10"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="16"/>
       <c r="C78" s="2"/>
       <c r="F78" s="3"/>
@@ -4662,7 +4809,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="10"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="16" t="s">
         <v>36</v>
       </c>
@@ -4675,7 +4822,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="10"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="16" t="s">
         <v>35</v>
       </c>
@@ -4687,7 +4834,7 @@
       </c>
       <c r="L80" s="10"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="16" t="s">
         <v>31</v>
       </c>
@@ -4705,7 +4852,7 @@
       <c r="K81" s="3"/>
       <c r="L81" s="10"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="16" t="s">
         <v>173</v>
       </c>
@@ -4721,7 +4868,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="10"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="16"/>
       <c r="C83" s="3"/>
       <c r="H83" s="3"/>
@@ -4730,7 +4877,7 @@
       <c r="K83" s="2"/>
       <c r="L83" s="10"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="16" t="s">
         <v>93</v>
       </c>
@@ -4751,14 +4898,14 @@
       </c>
       <c r="L84" s="10"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="18"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="K85" s="2"/>
       <c r="L85" s="10"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="16" t="s">
         <v>95</v>
       </c>
@@ -4779,7 +4926,7 @@
       </c>
       <c r="L86" s="10"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="16"/>
       <c r="C87" s="2"/>
       <c r="F87" s="3"/>
@@ -4788,7 +4935,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="10"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="16" t="s">
         <v>301</v>
       </c>
@@ -4803,7 +4950,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="10"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="16" t="s">
         <v>299</v>
       </c>
@@ -4818,7 +4965,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="10"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="16" t="s">
         <v>56</v>
       </c>
@@ -4833,24 +4980,24 @@
       <c r="K90" s="2"/>
       <c r="L90" s="10"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="16" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="K91" s="2"/>
       <c r="L91" s="10"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>34</v>
@@ -4863,7 +5010,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="10"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="16" t="s">
         <v>219</v>
       </c>
@@ -4878,7 +5025,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="10"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="16" t="s">
         <v>62</v>
       </c>
@@ -4893,58 +5040,58 @@
       <c r="K94" s="2"/>
       <c r="L94" s="10"/>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="16" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="K95" s="2"/>
       <c r="L95" s="10"/>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H96" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="I96" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L96" s="10"/>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="16"/>
       <c r="C97" s="2"/>
       <c r="F97" s="3"/>
       <c r="H97" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I97" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L97" s="10"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="19"/>
       <c r="C98" s="20"/>
       <c r="D98" s="13"/>
@@ -4952,18 +5099,18 @@
       <c r="F98" s="12"/>
       <c r="G98" s="13"/>
       <c r="H98" s="12" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="I98" s="12" t="s">
         <v>27</v>
       </c>
       <c r="J98" s="12"/>
       <c r="K98" s="12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L98" s="12"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="F99" s="3"/>
@@ -4971,11 +5118,11 @@
       <c r="I99" s="3"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="26" t="s">
         <v>42</v>
       </c>
@@ -4994,73 +5141,73 @@
       <c r="K101" s="40"/>
       <c r="L101" s="8"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="30" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D102" s="3"/>
       <c r="F102" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>412</v>
       </c>
       <c r="K102" s="31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L102" s="10"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="30" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D103" s="3"/>
       <c r="F103" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>412</v>
       </c>
       <c r="K103" s="31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L103" s="10"/>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="30" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D104" s="3"/>
       <c r="F104" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>261</v>
       </c>
       <c r="K104" s="31" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="L104" s="10"/>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="30"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
@@ -5076,7 +5223,7 @@
       </c>
       <c r="L105" s="10"/>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="30"/>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
@@ -5091,63 +5238,63 @@
       </c>
       <c r="L106" s="10"/>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>259</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>412</v>
       </c>
       <c r="K107" s="31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="L107" s="10"/>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="30"/>
       <c r="C108" s="3"/>
       <c r="F108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K108" s="31" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L108" s="10"/>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" s="30"/>
       <c r="C109" s="3"/>
       <c r="F109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K109" s="31" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="L109" s="10"/>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" s="30" t="s">
         <v>44</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>258</v>
@@ -5163,12 +5310,12 @@
       </c>
       <c r="L110" s="10"/>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>257</v>
@@ -5184,7 +5331,7 @@
       </c>
       <c r="L111" s="10"/>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" s="30"/>
       <c r="C112" s="3"/>
       <c r="F112" s="3"/>
@@ -5199,7 +5346,7 @@
       </c>
       <c r="L112" s="10"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B113" s="30"/>
       <c r="C113" s="3"/>
       <c r="F113" s="3"/>
@@ -5214,120 +5361,120 @@
       </c>
       <c r="L113" s="10"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114" s="30" t="s">
         <v>114</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>256</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I114" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K114" s="31" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L114" s="10"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115" s="30"/>
       <c r="C115" s="3"/>
       <c r="F115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K115" s="31" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="L115" s="10"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116" s="30" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I116" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K116" s="31" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L116" s="10"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117" s="30"/>
       <c r="C117" s="3"/>
       <c r="F117" s="3"/>
       <c r="H117" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I117" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K117" s="31" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="L117" s="10"/>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118" s="30"/>
       <c r="C118" s="3"/>
       <c r="F118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I118" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K118" s="31" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="L118" s="10"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B119" s="30" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I119" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K119" s="31" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L119" s="10"/>
     </row>
-    <row r="120" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B120" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
@@ -5336,25 +5483,25 @@
       </c>
       <c r="G120" s="35"/>
       <c r="H120" s="37" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I120" s="37" t="s">
         <v>18</v>
       </c>
       <c r="J120" s="35"/>
       <c r="K120" s="38" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L120" s="14"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B123" s="26" t="s">
         <v>67</v>
       </c>
@@ -5379,7 +5526,7 @@
       </c>
       <c r="L123" s="8"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B124" s="30"/>
       <c r="C124" s="2"/>
       <c r="D124" s="3"/>
@@ -5395,7 +5542,7 @@
       </c>
       <c r="L124" s="10"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B125" s="30" t="s">
         <v>70</v>
       </c>
@@ -5416,7 +5563,7 @@
       </c>
       <c r="L125" s="10"/>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B126" s="32"/>
       <c r="H126" s="3" t="s">
         <v>29</v>
@@ -5429,7 +5576,7 @@
       </c>
       <c r="L126" s="10"/>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B127" s="30" t="s">
         <v>69</v>
       </c>
@@ -5450,7 +5597,7 @@
       </c>
       <c r="L127" s="10"/>
     </row>
-    <row r="128" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B128" s="34"/>
       <c r="C128" s="35"/>
       <c r="D128" s="35"/>
@@ -5469,8 +5616,8 @@
       </c>
       <c r="L128" s="14"/>
     </row>
-    <row r="129" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B130" s="26" t="s">
         <v>81</v>
       </c>
@@ -5485,14 +5632,14 @@
         <v>77</v>
       </c>
       <c r="I130" s="28" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="J130" s="27"/>
       <c r="K130" s="40" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B131" s="32"/>
       <c r="H131" s="3" t="s">
         <v>78</v>
@@ -5504,19 +5651,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B132" s="32"/>
       <c r="H132" s="3" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="K132" s="31" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B133" s="34"/>
       <c r="C133" s="35"/>
       <c r="D133" s="35"/>
@@ -5531,11 +5678,11 @@
       </c>
       <c r="J133" s="35"/>
       <c r="K133" s="38" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B135" s="26" t="s">
         <v>83</v>
       </c>
@@ -5557,7 +5704,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B136" s="30"/>
       <c r="D136" s="3"/>
       <c r="F136" s="3"/>
@@ -5571,7 +5718,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B137" s="30"/>
       <c r="D137" s="3"/>
       <c r="F137" s="3"/>
@@ -5585,7 +5732,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B138" s="30"/>
       <c r="D138" s="3"/>
       <c r="F138" s="3"/>
@@ -5599,7 +5746,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B139" s="30"/>
       <c r="D139" s="3"/>
       <c r="F139" s="3"/>
@@ -5613,7 +5760,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="140" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="34"/>
       <c r="C140" s="35"/>
       <c r="D140" s="35"/>
@@ -5631,8 +5778,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="141" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B142" s="26" t="s">
         <v>102</v>
       </c>
@@ -5650,7 +5797,7 @@
       <c r="J142" s="27"/>
       <c r="K142" s="29"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B143" s="30" t="s">
         <v>109</v>
       </c>
@@ -5670,7 +5817,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B144" s="30"/>
       <c r="C144" s="3"/>
       <c r="F144" s="3"/>
@@ -5684,7 +5831,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B145" s="30" t="s">
         <v>105</v>
       </c>
@@ -5696,7 +5843,7 @@
       </c>
       <c r="K145" s="33"/>
     </row>
-    <row r="146" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="39" t="s">
         <v>106</v>
       </c>
@@ -5714,12 +5861,12 @@
       <c r="J146" s="35"/>
       <c r="K146" s="36"/>
     </row>
-    <row r="147" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B148" s="26" t="s">
         <v>277</v>
       </c>
@@ -5737,7 +5884,7 @@
       <c r="J148" s="27"/>
       <c r="K148" s="29"/>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B149" s="32" t="s">
         <v>278</v>
       </c>
@@ -5757,7 +5904,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B150" s="32" t="s">
         <v>279</v>
       </c>
@@ -5777,7 +5924,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B151" s="30" t="s">
         <v>280</v>
       </c>
@@ -5797,7 +5944,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B152" s="30" t="s">
         <v>281</v>
       </c>
@@ -5817,7 +5964,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="153" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B153" s="39" t="s">
         <v>291</v>
       </c>
@@ -5830,18 +5977,24 @@
         <v>286</v>
       </c>
       <c r="G153" s="35"/>
-      <c r="H153" s="37"/>
-      <c r="I153" s="37"/>
+      <c r="H153" s="37" t="s">
+        <v>748</v>
+      </c>
+      <c r="I153" s="37" t="s">
+        <v>747</v>
+      </c>
       <c r="J153" s="35"/>
-      <c r="K153" s="38"/>
-    </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K153" s="38" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B156" s="26" t="s">
         <v>115</v>
       </c>
@@ -5865,3327 +6018,3479 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B157" s="32"/>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B157" s="30"/>
+      <c r="D157" s="3"/>
+      <c r="F157" s="3"/>
       <c r="H157" s="3" t="s">
-        <v>117</v>
+        <v>706</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K157" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B158" s="32"/>
       <c r="H158" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K158" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B159" s="32"/>
+      <c r="H159" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="I159" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K158" s="31" t="s">
+      <c r="K159" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="34"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="35"/>
-      <c r="F159" s="35"/>
-      <c r="G159" s="35"/>
-      <c r="H159" s="37" t="s">
+    <row r="160" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="34"/>
+      <c r="C160" s="35"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="35"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="I159" s="37" t="s">
+      <c r="I160" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="J159" s="35"/>
-      <c r="K159" s="38" t="s">
+      <c r="J160" s="35"/>
+      <c r="K160" s="38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="160" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B161" s="26" t="s">
+    <row r="161" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B162" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C161" s="27"/>
-      <c r="D161" s="28" t="s">
+      <c r="C162" s="27"/>
+      <c r="D162" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E161" s="27"/>
-      <c r="F161" s="28" t="s">
+      <c r="E162" s="27"/>
+      <c r="F162" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
-      <c r="K161" s="29"/>
-      <c r="N161" s="3" t="s">
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="27"/>
+      <c r="K162" s="29"/>
+      <c r="N162" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B162" s="30" t="s">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B163" s="30" t="s">
         <v>127</v>
-      </c>
-      <c r="C162" t="s">
-        <v>122</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="K162" s="33"/>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B163" s="30" t="s">
-        <v>125</v>
       </c>
       <c r="C163" t="s">
         <v>122</v>
       </c>
       <c r="F163" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="K163" s="33"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B164" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164" t="s">
+        <v>122</v>
+      </c>
+      <c r="F164" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H164" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I163" s="3" t="s">
+      <c r="I164" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K163" s="31" t="s">
+      <c r="K164" s="31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B164" s="30"/>
-      <c r="D164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="H164" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K164" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B165" s="30"/>
+      <c r="D165" s="3"/>
       <c r="F165" s="3"/>
       <c r="H165" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I165" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K165" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B166" s="30"/>
       <c r="F166" s="3"/>
       <c r="H166" s="3" t="s">
-        <v>320</v>
+        <v>134</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K166" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B167" s="30"/>
+      <c r="F167" s="3"/>
+      <c r="H167" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K167" s="31" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B167" s="30" t="s">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B168" s="30" t="s">
         <v>439</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>122</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="H167" s="3" t="s">
+      <c r="F168" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="H168" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I167" s="3" t="s">
+      <c r="I168" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K167" s="31" t="s">
+      <c r="K168" s="31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B168" s="30"/>
-      <c r="D168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="H168" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K168" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B169" s="30"/>
+      <c r="D169" s="3"/>
       <c r="F169" s="3"/>
       <c r="H169" s="3" t="s">
-        <v>134</v>
+        <v>708</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K169" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B170" s="30"/>
       <c r="F170" s="3"/>
       <c r="H170" s="3" t="s">
-        <v>320</v>
+        <v>709</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K170" s="31" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B171" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="C171" t="s">
-        <v>122</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>446</v>
-      </c>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B171" s="30"/>
+      <c r="D171" s="3"/>
+      <c r="F171" s="3"/>
       <c r="H171" s="3" t="s">
-        <v>130</v>
+        <v>710</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="K171" s="31" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B172" s="30"/>
-      <c r="D172" s="3"/>
       <c r="F172" s="3"/>
       <c r="H172" s="3" t="s">
-        <v>133</v>
+        <v>711</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K172" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B173" s="30"/>
+      <c r="D173" s="3"/>
       <c r="F173" s="3"/>
       <c r="H173" s="3" t="s">
-        <v>134</v>
+        <v>712</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K173" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B174" s="30"/>
       <c r="F174" s="3"/>
       <c r="H174" s="3" t="s">
-        <v>320</v>
+        <v>713</v>
       </c>
       <c r="I174" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K174" s="31" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B175" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="C175" t="s">
-        <v>122</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>242</v>
-      </c>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B175" s="30"/>
+      <c r="D175" s="3"/>
+      <c r="F175" s="3"/>
       <c r="H175" s="3" t="s">
-        <v>130</v>
+        <v>720</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>571</v>
+        <v>18</v>
       </c>
       <c r="K175" s="31" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B176" s="30"/>
-      <c r="D176" s="3"/>
       <c r="F176" s="3"/>
       <c r="H176" s="3" t="s">
-        <v>133</v>
+        <v>721</v>
       </c>
       <c r="I176" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K176" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B177" s="30"/>
       <c r="F177" s="3"/>
       <c r="H177" s="3" t="s">
-        <v>134</v>
+        <v>320</v>
       </c>
       <c r="I177" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K177" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="30"/>
-      <c r="D178" s="3"/>
-      <c r="F178" s="3"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B178" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C178" t="s">
+        <v>122</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="H178" s="3" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>249</v>
+        <v>568</v>
       </c>
       <c r="K178" s="31" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B179" s="30"/>
+      <c r="D179" s="3"/>
       <c r="F179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>611</v>
+        <v>18</v>
       </c>
       <c r="K179" s="31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B180" s="30"/>
       <c r="F180" s="3"/>
       <c r="H180" s="3" t="s">
-        <v>612</v>
+        <v>134</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K180" s="31" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B181" s="30"/>
+      <c r="D181" s="3"/>
       <c r="F181" s="3"/>
       <c r="H181" s="3" t="s">
-        <v>607</v>
+        <v>245</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>604</v>
+        <v>249</v>
       </c>
       <c r="K181" s="31" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B182" s="30"/>
       <c r="F182" s="3"/>
       <c r="H182" s="3" t="s">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>18</v>
+        <v>608</v>
       </c>
       <c r="K182" s="31" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="C183" t="s">
-        <v>122</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>322</v>
-      </c>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B183" s="30"/>
+      <c r="F183" s="3"/>
       <c r="H183" s="3" t="s">
-        <v>260</v>
+        <v>609</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="K183" s="31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B184" s="30"/>
-      <c r="D184" s="3"/>
       <c r="F184" s="3"/>
       <c r="H184" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="K184" s="31" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B185" s="30"/>
+      <c r="F185" s="3"/>
+      <c r="H185" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K185" s="31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B186" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C186" t="s">
+        <v>122</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K186" s="31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B187" s="30"/>
+      <c r="D187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="H187" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="I184" s="3" t="s">
+      <c r="I187" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="K184" s="31" t="s">
+      <c r="K187" s="31" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="30" t="s">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B188" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="F188" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-      <c r="K185" s="31"/>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I186" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="K186" s="31" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-      <c r="K187" s="31"/>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D188" s="3"/>
-      <c r="F188" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="K188" s="31"/>
     </row>
-    <row r="189" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="39"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
-      <c r="F189" s="37"/>
-      <c r="G189" s="35"/>
-      <c r="H189" s="35"/>
-      <c r="I189" s="35"/>
-      <c r="J189" s="35"/>
-      <c r="K189" s="36"/>
-    </row>
-    <row r="190" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="26" t="s">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B189" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="K189" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B190" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="K190" s="31"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B191" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D191" s="3"/>
+      <c r="F191" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="K191" s="31"/>
+    </row>
+    <row r="192" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="39"/>
+      <c r="C192" s="35"/>
+      <c r="D192" s="35"/>
+      <c r="E192" s="35"/>
+      <c r="F192" s="37"/>
+      <c r="G192" s="35"/>
+      <c r="H192" s="35"/>
+      <c r="I192" s="35"/>
+      <c r="J192" s="35"/>
+      <c r="K192" s="36"/>
+    </row>
+    <row r="193" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B194" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="C191" s="27"/>
-      <c r="D191" s="28" t="s">
+      <c r="C194" s="27"/>
+      <c r="D194" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="E191" s="27"/>
-      <c r="F191" s="28" t="s">
+      <c r="E194" s="27"/>
+      <c r="F194" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
-      <c r="K191" s="29"/>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" s="30" t="s">
+      <c r="G194" s="27"/>
+      <c r="H194" s="27"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="27"/>
+      <c r="K194" s="29"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B195" s="30" t="s">
         <v>346</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="K192" s="33"/>
-    </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="K193" s="33"/>
-    </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B194" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H194" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="I194" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="K194" s="33"/>
-    </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="30" t="s">
-        <v>348</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>345</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I195" t="s">
-        <v>141</v>
+        <v>364</v>
       </c>
       <c r="K195" s="33"/>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B196" s="30" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>345</v>
       </c>
       <c r="F196" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K196" s="33"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B197" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K197" s="33"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B198" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I198" t="s">
+        <v>141</v>
+      </c>
+      <c r="K198" s="33"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B199" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F199" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H199" t="s">
         <v>140</v>
       </c>
-      <c r="I196" t="s">
+      <c r="I199" t="s">
         <v>139</v>
       </c>
-      <c r="K196" s="33"/>
-    </row>
-    <row r="197" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="39" t="s">
+      <c r="K199" s="33"/>
+    </row>
+    <row r="200" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="39" t="s">
         <v>352</v>
       </c>
-      <c r="C197" s="37" t="s">
+      <c r="C200" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="D197" s="35"/>
-      <c r="E197" s="35"/>
-      <c r="F197" s="37" t="s">
+      <c r="D200" s="35"/>
+      <c r="E200" s="35"/>
+      <c r="F200" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="G197" s="35"/>
-      <c r="H197" s="35" t="s">
+      <c r="G200" s="35"/>
+      <c r="H200" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="I197" s="35" t="s">
+      <c r="I200" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="J197" s="35"/>
-      <c r="K197" s="36"/>
-    </row>
-    <row r="198" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="9"/>
-      <c r="C198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="K198" s="10"/>
-    </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="26" t="s">
+      <c r="J200" s="35"/>
+      <c r="K200" s="36"/>
+    </row>
+    <row r="201" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="9"/>
+      <c r="C201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="K201" s="10"/>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B202" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="C199" s="28"/>
-      <c r="D199" s="27" t="s">
+      <c r="C202" s="28"/>
+      <c r="D202" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E199" s="27"/>
-      <c r="F199" s="28" t="s">
+      <c r="E202" s="27"/>
+      <c r="F202" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="G199" s="27"/>
-      <c r="H199" s="27"/>
-      <c r="I199" s="27"/>
-      <c r="J199" s="27"/>
-      <c r="K199" s="29"/>
-    </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B200" s="30" t="s">
+      <c r="G202" s="27"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="27"/>
+      <c r="K202" s="29"/>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B203" s="30" t="s">
         <v>361</v>
-      </c>
-      <c r="C200" t="s">
-        <v>341</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="K200" s="33"/>
-    </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C201" t="s">
-        <v>341</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H201" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="I201" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="K201" s="33"/>
-    </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B202" s="30"/>
-      <c r="F202" s="3"/>
-      <c r="H202" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I202" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K202" s="33"/>
-    </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="30" t="s">
-        <v>376</v>
       </c>
       <c r="C203" t="s">
         <v>341</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="H203" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="I203" t="s">
-        <v>18</v>
-      </c>
-      <c r="K203" s="31" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B204" s="32"/>
-      <c r="H204" t="s">
-        <v>144</v>
-      </c>
-      <c r="I204" t="s">
-        <v>18</v>
-      </c>
-      <c r="K204" s="33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="C205" t="s">
+        <v>359</v>
+      </c>
+      <c r="K203" s="33"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B204" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C204" t="s">
         <v>341</v>
       </c>
-      <c r="F205" s="3" t="s">
-        <v>380</v>
-      </c>
+      <c r="F204" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="K204" s="33"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B205" s="30"/>
+      <c r="F205" s="3"/>
       <c r="H205" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="I205" t="s">
-        <v>18</v>
-      </c>
-      <c r="K205" s="31" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K205" s="33"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B206" s="30" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C206" t="s">
         <v>341</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="I206" t="s">
         <v>18</v>
       </c>
       <c r="K206" s="31" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="C207" t="s">
-        <v>341</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="H207" s="3" t="s">
-        <v>143</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B207" s="32"/>
+      <c r="H207" t="s">
+        <v>144</v>
       </c>
       <c r="I207" t="s">
         <v>18</v>
       </c>
-      <c r="K207" s="31" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="32"/>
-      <c r="H208" t="s">
-        <v>144</v>
+      <c r="K207" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B208" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="C208" t="s">
+        <v>341</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="I208" t="s">
         <v>18</v>
       </c>
-      <c r="K208" s="33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K208" s="31" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B209" s="30" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="C209" t="s">
         <v>341</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="I209" t="s">
         <v>18</v>
       </c>
       <c r="K209" s="31" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B210" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="C210" t="s">
+        <v>341</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I210" t="s">
+        <v>18</v>
+      </c>
+      <c r="K210" s="31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B211" s="32"/>
+      <c r="H211" t="s">
+        <v>144</v>
+      </c>
+      <c r="I211" t="s">
+        <v>18</v>
+      </c>
+      <c r="K211" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B212" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="C212" t="s">
+        <v>341</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="I212" t="s">
+        <v>18</v>
+      </c>
+      <c r="K212" s="31" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="210" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="39"/>
-      <c r="C210" s="37"/>
-      <c r="D210" s="35"/>
-      <c r="E210" s="35"/>
-      <c r="F210" s="37"/>
-      <c r="G210" s="35"/>
-      <c r="H210" s="37" t="s">
+    <row r="213" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="39"/>
+      <c r="C213" s="37"/>
+      <c r="D213" s="35"/>
+      <c r="E213" s="35"/>
+      <c r="F213" s="37"/>
+      <c r="G213" s="35"/>
+      <c r="H213" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="I210" s="37" t="s">
+      <c r="I213" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J210" s="35"/>
-      <c r="K210" s="38" t="s">
+      <c r="J213" s="35"/>
+      <c r="K213" s="38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="211" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="C212" s="27"/>
-      <c r="D212" s="27" t="s">
+    <row r="214" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B215" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="C215" s="27"/>
+      <c r="D215" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E212" s="27"/>
-      <c r="F212" s="28" t="s">
+      <c r="E215" s="27"/>
+      <c r="F215" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="G212" s="27"/>
-      <c r="H212" s="28" t="s">
+      <c r="G215" s="27"/>
+      <c r="H215" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="I212" s="28" t="s">
+      <c r="I215" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="J212" s="27"/>
-      <c r="K212" s="40" t="s">
+      <c r="J215" s="27"/>
+      <c r="K215" s="40" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="30" t="s">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B216" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F213" s="3" t="s">
+      <c r="C216" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F216" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="H213" s="3" t="s">
+      <c r="H216" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="I213" s="3" t="s">
+      <c r="I216" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K213" s="31" t="s">
+      <c r="K216" s="31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="30" t="s">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B217" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F214" s="3" t="s">
+      <c r="C217" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F217" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="H214" s="3" t="s">
+      <c r="H217" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I214" s="3" t="s">
+      <c r="I217" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="K214" s="31" t="s">
+      <c r="K217" s="31" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="32" t="s">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B218" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F215" s="3" t="s">
+      <c r="C218" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F218" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H215" s="3" t="s">
+      <c r="H218" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I215" s="3" t="s">
+      <c r="I218" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K215" s="31" t="s">
+      <c r="K218" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B216" s="32"/>
-      <c r="F216" s="3"/>
-      <c r="H216" s="3" t="s">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B219" s="32"/>
+      <c r="F219" s="3"/>
+      <c r="H219" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I216" s="3" t="s">
+      <c r="I219" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K216" s="31" t="s">
+      <c r="K219" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B217" s="30" t="s">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B220" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F217" s="3" t="s">
+      <c r="C220" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F220" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="H217" s="3" t="s">
+      <c r="H220" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I217" s="3" t="s">
+      <c r="I220" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K217" s="31" t="s">
+      <c r="K220" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="32"/>
-      <c r="F218" s="3"/>
-      <c r="H218" s="3" t="s">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B221" s="32"/>
+      <c r="F221" s="3"/>
+      <c r="H221" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I218" s="3" t="s">
+      <c r="I221" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="K218" s="31" t="s">
+      <c r="K221" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B219" s="32" t="s">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B222" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C219" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F219" s="3" t="s">
+      <c r="C222" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F222" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H219" s="3" t="s">
+      <c r="H222" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I219" s="3" t="s">
+      <c r="I222" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K219" s="31" t="s">
+      <c r="K222" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B220" s="32"/>
-      <c r="F220" s="3"/>
-      <c r="H220" s="3" t="s">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B223" s="32"/>
+      <c r="F223" s="3"/>
+      <c r="H223" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I220" s="3" t="s">
+      <c r="I223" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K220" s="31" t="s">
+      <c r="K223" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B221" s="30" t="s">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B224" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="C221" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F221" s="3" t="s">
+      <c r="C224" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F224" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H221" s="3" t="s">
+      <c r="H224" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I221" s="3" t="s">
+      <c r="I224" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K221" s="31" t="s">
+      <c r="K224" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B222" s="32"/>
-      <c r="F222" s="3"/>
-      <c r="H222" s="3" t="s">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B225" s="32"/>
+      <c r="F225" s="3"/>
+      <c r="H225" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I222" s="3" t="s">
+      <c r="I225" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="K222" s="31" t="s">
+      <c r="K225" s="31" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="30" t="s">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B226" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C223" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F223" s="3" t="s">
+      <c r="C226" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F226" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="H223" s="3" t="s">
+      <c r="H226" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="I223" s="3" t="s">
+      <c r="I226" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K223" s="31" t="s">
+      <c r="K226" s="31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="32" t="s">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B227" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C224" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F224" s="3" t="s">
+      <c r="C227" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F227" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H224" s="3" t="s">
+      <c r="H227" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I224" s="3" t="s">
+      <c r="I227" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K224" s="33"/>
-    </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B225" s="32" t="s">
+      <c r="K227" s="33"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B228" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="C225" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F225" s="3" t="s">
+      <c r="C228" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F228" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="H225" s="3" t="s">
+      <c r="H228" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="I225" s="3" t="s">
+      <c r="I228" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K225" s="33"/>
-    </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B226" s="30" t="s">
+      <c r="K228" s="33"/>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B229" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="C226" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F226" s="3" t="s">
+      <c r="C229" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F229" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="H226" s="3" t="s">
+      <c r="H229" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="I226" s="3" t="s">
+      <c r="I229" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="K226" s="33"/>
-    </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B227" s="32" t="s">
+      <c r="K229" s="33"/>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B230" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C227" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F227" s="3" t="s">
+      <c r="C230" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F230" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H227" s="3" t="s">
+      <c r="H230" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I227" s="3" t="s">
+      <c r="I230" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K227" s="31" t="s">
+      <c r="K230" s="31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B228" s="32"/>
-      <c r="F228" s="3"/>
-      <c r="H228" s="3" t="s">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B231" s="32"/>
+      <c r="F231" s="3"/>
+      <c r="H231" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I228" s="3" t="s">
+      <c r="I231" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K228" s="31" t="s">
+      <c r="K231" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B229" s="30" t="s">
+    <row r="232" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B232" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="C229" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F229" s="3" t="s">
+      <c r="C232" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H229" s="3" t="s">
+      <c r="H232" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I229" s="3" t="s">
+      <c r="I232" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K229" s="31" t="s">
+      <c r="K232" s="31" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B230" s="32"/>
-      <c r="F230" s="3"/>
-      <c r="H230" s="3" t="s">
+    <row r="233" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B233" s="32"/>
+      <c r="F233" s="3"/>
+      <c r="H233" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="I230" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="K230" s="31" t="s">
+      <c r="I233" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="K233" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B231" s="30" t="s">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B234" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="C231" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F231" s="3" t="s">
+      <c r="C234" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F234" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H231" s="3" t="s">
+      <c r="H234" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I231" s="3" t="s">
+      <c r="I234" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K231" s="31" t="s">
+      <c r="K234" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="32"/>
-      <c r="F232" s="3"/>
-      <c r="H232" s="3" t="s">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B235" s="32"/>
+      <c r="F235" s="3"/>
+      <c r="H235" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I232" s="3" t="s">
+      <c r="I235" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K232" s="31" t="s">
+      <c r="K235" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B233" s="30" t="s">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B236" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="C233" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F233" s="3" t="s">
+      <c r="C236" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F236" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="H233" s="3" t="s">
+      <c r="H236" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="I233" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K233" s="31" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B234" s="32"/>
-      <c r="F234" s="3"/>
-      <c r="H234" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K234" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B235" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F235" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="H235" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="I235" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K235" s="31" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="30"/>
-      <c r="C236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="H236" s="3" t="s">
-        <v>644</v>
       </c>
       <c r="I236" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K236" s="31" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="30"/>
-      <c r="C237" s="3"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B237" s="32"/>
       <c r="F237" s="3"/>
       <c r="H237" s="3" t="s">
-        <v>645</v>
+        <v>310</v>
       </c>
       <c r="I237" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K237" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B238" s="30" t="s">
+        <v>637</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I238" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K237" s="31" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="32"/>
-      <c r="F238" s="3"/>
-      <c r="H238" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I238" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="K238" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="30" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B239" s="30"/>
+      <c r="C239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="H239" s="3" t="s">
         <v>641</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="H239" s="3" t="s">
-        <v>643</v>
       </c>
       <c r="I239" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K239" s="31" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B240" s="30"/>
       <c r="C240" s="3"/>
       <c r="F240" s="3"/>
       <c r="H240" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I240" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K240" s="31" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B241" s="30"/>
-      <c r="C241" s="3"/>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B241" s="32"/>
       <c r="F241" s="3"/>
       <c r="H241" s="3" t="s">
-        <v>645</v>
+        <v>85</v>
       </c>
       <c r="I241" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K241" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B242" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I242" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K241" s="31" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B242" s="32"/>
-      <c r="F242" s="3"/>
-      <c r="H242" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="K242" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B243" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>234</v>
-      </c>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B243" s="30"/>
+      <c r="C243" s="3"/>
+      <c r="F243" s="3"/>
       <c r="H243" s="3" t="s">
-        <v>235</v>
+        <v>641</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K243" s="31"/>
-    </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="32"/>
+        <v>27</v>
+      </c>
+      <c r="K243" s="31" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B244" s="30"/>
+      <c r="C244" s="3"/>
       <c r="F244" s="3"/>
       <c r="H244" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K244" s="31" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B245" s="32"/>
+      <c r="F245" s="3"/>
+      <c r="H245" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K245" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B246" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K246" s="31"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B247" s="32"/>
+      <c r="F247" s="3"/>
+      <c r="H247" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="I244" s="3" t="s">
+      <c r="I247" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K244" s="31" t="s">
+      <c r="K247" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B245" s="30" t="s">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B248" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C248" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K248" s="31"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B249" s="30"/>
+      <c r="F249" s="3"/>
+      <c r="H249" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K249" s="31"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B250" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K250" s="31"/>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B251" s="32"/>
+      <c r="F251" s="3"/>
+      <c r="H251" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K251" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B252" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K252" s="31"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B253" s="30"/>
+      <c r="F253" s="3"/>
+      <c r="H253" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K253" s="31"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B254" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K254" s="31"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B255" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K255" s="31"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B256" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K256" s="31"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B257" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K257" s="31"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B258" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K258" s="31"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B259" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K259" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B260" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K260" s="31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B261" s="30"/>
+      <c r="C261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="H261" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K261" s="31" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B262" s="30" t="s">
+        <v>607</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="K262" s="31" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B263" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K263" s="31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B264" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K264" s="31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B265" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K265" s="31" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B266" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K266" s="31" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B267" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K267" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="268" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B268" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="C268" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="D268" s="35"/>
+      <c r="E268" s="35"/>
+      <c r="F268" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G268" s="35"/>
+      <c r="H268" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="I268" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J268" s="35"/>
+      <c r="K268" s="38" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="269" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="C270" s="42"/>
+      <c r="D270" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E270" s="42"/>
+      <c r="F270" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G270" s="42"/>
+      <c r="H270" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="I270" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="J270" s="42"/>
+      <c r="K270" s="44"/>
+    </row>
+    <row r="271" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B272" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="C272" s="27"/>
+      <c r="D272" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E272" s="27"/>
+      <c r="F272" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="G272" s="27"/>
+      <c r="H272" s="28"/>
+      <c r="I272" s="28"/>
+      <c r="J272" s="27"/>
+      <c r="K272" s="40"/>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B273" s="30" t="s">
+        <v>509</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F273" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="F245" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H245" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I245" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K245" s="31"/>
-    </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B246" s="30"/>
-      <c r="F246" s="3"/>
-      <c r="H246" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I246" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K246" s="31"/>
-    </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B247" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F247" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H247" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="I247" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K247" s="31"/>
-    </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B248" s="32"/>
-      <c r="F248" s="3"/>
-      <c r="H248" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I248" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K248" s="31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B249" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F249" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H249" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="I249" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K249" s="31"/>
-    </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B250" s="30"/>
-      <c r="F250" s="3"/>
-      <c r="H250" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I250" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K250" s="31"/>
-    </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B251" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F251" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H251" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I251" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K251" s="31"/>
-    </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B252" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="H252" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="I252" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K252" s="31"/>
-    </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B253" s="30" t="s">
-        <v>463</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="H253" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="I253" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K253" s="31"/>
-    </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B254" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H254" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="I254" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K254" s="31"/>
-    </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B255" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F255" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H255" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I255" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K255" s="31"/>
-    </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B256" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H256" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I256" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K256" s="31" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B257" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H257" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I257" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="K257" s="31" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B258" s="30"/>
-      <c r="C258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="H258" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="I258" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K258" s="31" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B259" s="30" t="s">
-        <v>610</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="H259" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="I259" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="K259" s="31" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B260" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H260" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I260" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K260" s="31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B261" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H261" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I261" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K261" s="31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B262" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H262" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="I262" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K262" s="31" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B263" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H263" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I263" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K263" s="31" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B264" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I264" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K264" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="265" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="C265" s="37" t="s">
-        <v>505</v>
-      </c>
-      <c r="D265" s="35"/>
-      <c r="E265" s="35"/>
-      <c r="F265" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G265" s="35"/>
-      <c r="H265" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="I265" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="J265" s="35"/>
-      <c r="K265" s="38" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="266" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="267" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="41" t="s">
-        <v>548</v>
-      </c>
-      <c r="C267" s="42"/>
-      <c r="D267" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="E267" s="42"/>
-      <c r="F267" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="G267" s="42"/>
-      <c r="H267" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="I267" s="43" t="s">
-        <v>504</v>
-      </c>
-      <c r="J267" s="42"/>
-      <c r="K267" s="44"/>
-    </row>
-    <row r="268" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B269" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="C269" s="27"/>
-      <c r="D269" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E269" s="27"/>
-      <c r="F269" s="28" t="s">
+      <c r="H273" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="G269" s="27"/>
-      <c r="H269" s="28"/>
-      <c r="I269" s="28"/>
-      <c r="J269" s="27"/>
-      <c r="K269" s="40"/>
-    </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B270" s="30" t="s">
+      <c r="I273" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="K273" s="31" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B274" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="F274" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+      <c r="K274" s="31"/>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B275" s="30" t="s">
+        <v>511</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="I275" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F270" s="3" t="s">
+      <c r="K275" s="31"/>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B276" s="30"/>
+      <c r="C276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="H276" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K276" s="31"/>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B277" s="30" t="s">
+        <v>516</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="H270" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="I270" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="K270" s="31" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="30" t="s">
-        <v>513</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="H271" s="3"/>
-      <c r="I271" s="3"/>
-      <c r="K271" s="31"/>
-    </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B272" s="30" t="s">
+      <c r="F277" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H277" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C272" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="H272" s="3" t="s">
+      <c r="I277" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="K277" s="31"/>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B278" s="30"/>
+      <c r="C278" s="3"/>
+      <c r="F278" s="3"/>
+      <c r="H278" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K278" s="31"/>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B279" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="I272" s="3" t="s">
+      <c r="C279" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="K279" s="31"/>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B280" s="30"/>
+      <c r="C280" s="3"/>
+      <c r="F280" s="3"/>
+      <c r="H280" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="K272" s="31"/>
-    </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B273" s="30"/>
-      <c r="C273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="H273" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I273" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="K273" s="31"/>
-    </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B274" s="30" t="s">
+      <c r="I280" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K280" s="31"/>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B281" s="30" t="s">
+        <v>518</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F281" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C274" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="H274" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="I274" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="K274" s="31"/>
-    </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B275" s="30"/>
-      <c r="C275" s="3"/>
-      <c r="F275" s="3"/>
-      <c r="H275" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I275" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="K275" s="31"/>
-    </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B276" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F276" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="H276" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="I276" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="K276" s="31"/>
-    </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B277" s="30"/>
-      <c r="C277" s="3"/>
-      <c r="F277" s="3"/>
-      <c r="H277" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I277" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="K277" s="31"/>
-    </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B278" s="30" t="s">
-        <v>521</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="H278" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="I278" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="K278" s="31"/>
-    </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B279" s="30"/>
-      <c r="C279" s="3"/>
-      <c r="F279" s="3"/>
-      <c r="H279" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I279" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="K279" s="31"/>
-    </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B280" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="H280" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="I280" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="K280" s="31"/>
-    </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B281" s="30"/>
-      <c r="C281" s="3"/>
-      <c r="F281" s="3"/>
       <c r="H281" s="3" t="s">
-        <v>561</v>
+        <v>514</v>
       </c>
       <c r="I281" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="K281" s="31"/>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B282" s="30"/>
       <c r="C282" s="3"/>
       <c r="F282" s="3"/>
       <c r="H282" s="3" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K282" s="31"/>
     </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B283" s="30"/>
-      <c r="C283" s="3"/>
-      <c r="F283" s="3"/>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B283" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>523</v>
+      </c>
       <c r="H283" s="3" t="s">
-        <v>564</v>
+        <v>514</v>
       </c>
       <c r="I283" s="3" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K283" s="31"/>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B284" s="30"/>
       <c r="C284" s="3"/>
       <c r="F284" s="3"/>
-      <c r="H284" s="3"/>
-      <c r="I284" s="3"/>
+      <c r="H284" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>559</v>
+      </c>
       <c r="K284" s="31"/>
     </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B285" s="30" t="s">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B285" s="30"/>
+      <c r="C285" s="3"/>
+      <c r="F285" s="3"/>
+      <c r="H285" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="K285" s="31"/>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B286" s="30"/>
+      <c r="C286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="H286" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="K286" s="31"/>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B287" s="30"/>
+      <c r="C287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="K287" s="31"/>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B288" s="30" t="s">
+        <v>526</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="K288" s="31" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B289" s="30" t="s">
+        <v>528</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F289" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="H289" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="K289" s="31"/>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B290" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F290" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="F285" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="H285" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="I285" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="K285" s="31" t="s">
+      <c r="H290" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="K290" s="31" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B291" s="30"/>
+      <c r="C291" s="3"/>
+      <c r="F291" s="3"/>
+      <c r="H291" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I291" s="3" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B286" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="C286" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="F286" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="H286" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="I286" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="K286" s="31"/>
-    </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B287" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="C287" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="F287" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H287" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="I287" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="K287" s="31" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B288" s="30"/>
-      <c r="C288" s="3"/>
-      <c r="F288" s="3"/>
-      <c r="H288" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="I288" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="K288" s="31"/>
-    </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B289" s="30"/>
-      <c r="C289" s="3"/>
-      <c r="F289" s="3"/>
-      <c r="H289" s="3"/>
-      <c r="I289" s="3"/>
-      <c r="K289" s="31"/>
-    </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B290" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F290" s="3"/>
-      <c r="H290" s="3"/>
-      <c r="I290" s="3"/>
-      <c r="K290" s="31"/>
-    </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B291" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="F291" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="H291" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="I291" s="3" t="s">
-        <v>559</v>
-      </c>
       <c r="K291" s="31"/>
     </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B292" s="30"/>
       <c r="C292" s="3"/>
       <c r="F292" s="3"/>
-      <c r="H292" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="I292" s="3" t="s">
-        <v>562</v>
-      </c>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
       <c r="K292" s="31"/>
     </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B293" s="30"/>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B293" s="30" t="s">
+        <v>539</v>
+      </c>
       <c r="C293" s="3"/>
+      <c r="D293" s="3" t="s">
+        <v>537</v>
+      </c>
       <c r="F293" s="3"/>
-      <c r="H293" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="I293" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="H293" s="3"/>
+      <c r="I293" s="3"/>
       <c r="K293" s="31"/>
     </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B294" s="30"/>
-      <c r="C294" s="3"/>
-      <c r="F294" s="3"/>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B294" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>542</v>
+      </c>
       <c r="H294" s="3" t="s">
-        <v>155</v>
+        <v>514</v>
       </c>
       <c r="I294" s="3" t="s">
         <v>556</v>
       </c>
       <c r="K294" s="31"/>
     </row>
-    <row r="295" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="39"/>
-      <c r="C295" s="37"/>
-      <c r="D295" s="35"/>
-      <c r="E295" s="35"/>
-      <c r="F295" s="37"/>
-      <c r="G295" s="35"/>
-      <c r="H295" s="37"/>
-      <c r="I295" s="37"/>
-      <c r="J295" s="35"/>
-      <c r="K295" s="38"/>
-    </row>
-    <row r="296" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="3"/>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B295" s="30"/>
+      <c r="C295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="H295" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="K295" s="31"/>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B296" s="30"/>
       <c r="C296" s="3"/>
       <c r="F296" s="3"/>
-      <c r="H296" s="3"/>
-      <c r="I296" s="3"/>
-      <c r="K296" s="3"/>
-    </row>
-    <row r="297" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="41" t="s">
-        <v>551</v>
-      </c>
-      <c r="C297" s="42"/>
-      <c r="D297" s="43" t="s">
+      <c r="H296" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K296" s="31"/>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B297" s="30"/>
+      <c r="C297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="H297" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="K297" s="31"/>
+    </row>
+    <row r="298" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="39"/>
+      <c r="C298" s="37"/>
+      <c r="D298" s="35"/>
+      <c r="E298" s="35"/>
+      <c r="F298" s="37"/>
+      <c r="G298" s="35"/>
+      <c r="H298" s="37"/>
+      <c r="I298" s="37"/>
+      <c r="J298" s="35"/>
+      <c r="K298" s="38"/>
+    </row>
+    <row r="299" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+      <c r="K299" s="3"/>
+    </row>
+    <row r="300" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B300" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="C300" s="42"/>
+      <c r="D300" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E297" s="42"/>
-      <c r="F297" s="43" t="s">
-        <v>550</v>
-      </c>
-      <c r="G297" s="42"/>
-      <c r="H297" s="43" t="s">
+      <c r="E300" s="42"/>
+      <c r="F300" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="G300" s="42"/>
+      <c r="H300" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="I297" s="43" t="s">
-        <v>549</v>
-      </c>
-      <c r="J297" s="42"/>
-      <c r="K297" s="44"/>
-    </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
-      <c r="F298" s="3"/>
-      <c r="H298" s="3"/>
-      <c r="I298" s="3"/>
-      <c r="K298" s="3"/>
-    </row>
-    <row r="299" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B300" s="26" t="s">
+      <c r="I300" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="J300" s="42"/>
+      <c r="K300" s="44"/>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="H301" s="3"/>
+      <c r="I301" s="3"/>
+      <c r="K301" s="3"/>
+    </row>
+    <row r="302" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B303" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C300" s="27"/>
-      <c r="D300" s="28" t="s">
+      <c r="C303" s="27"/>
+      <c r="D303" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E300" s="27"/>
-      <c r="F300" s="28" t="s">
+      <c r="E303" s="27"/>
+      <c r="F303" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="G300" s="27"/>
-      <c r="H300" s="27"/>
-      <c r="I300" s="27"/>
-      <c r="J300" s="27"/>
-      <c r="K300" s="29"/>
-    </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B301" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="C301" s="3" t="s">
+      <c r="G303" s="27"/>
+      <c r="H303" s="27"/>
+      <c r="I303" s="27"/>
+      <c r="J303" s="27"/>
+      <c r="K303" s="29"/>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B304" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F301" s="3" t="s">
+      <c r="F304" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H301" s="3" t="s">
+      <c r="H304" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I301" s="2" t="s">
+      <c r="I304" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K301" s="31" t="s">
+      <c r="K304" s="31" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B302" s="30" t="s">
+    <row r="305" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B305" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="C302" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F302" s="3" t="s">
+      <c r="C305" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F305" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H302" s="3"/>
-      <c r="I302" s="2"/>
-      <c r="K302" s="31"/>
-    </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B303" s="30" t="s">
+      <c r="H305" s="3"/>
+      <c r="I305" s="2"/>
+      <c r="K305" s="31"/>
+    </row>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B306" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="C303" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F303" s="3" t="s">
+      <c r="C306" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F306" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="H303" s="3" t="s">
+      <c r="H306" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="I303" s="2" t="s">
+      <c r="I306" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K303" s="31" t="s">
+      <c r="K306" s="31" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B304" s="30"/>
-      <c r="C304" s="3"/>
-      <c r="F304" s="3"/>
-      <c r="H304" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="I304" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K304" s="31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B305" s="30"/>
-      <c r="C305" s="3"/>
-      <c r="F305" s="3"/>
-      <c r="H305" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I305" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K305" s="31" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B306" s="30"/>
-      <c r="C306" s="3"/>
-      <c r="F306" s="3"/>
-      <c r="H306" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="I306" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K306" s="31" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B307" s="30"/>
       <c r="C307" s="3"/>
       <c r="F307" s="3"/>
       <c r="H307" s="3" t="s">
-        <v>447</v>
+        <v>324</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="K307" s="31" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B308" s="30"/>
       <c r="C308" s="3"/>
       <c r="F308" s="3"/>
-      <c r="H308" s="3"/>
-      <c r="I308" s="2"/>
-      <c r="K308" s="31"/>
-    </row>
-    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B309" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="C309" s="3" t="s">
+      <c r="H308" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K308" s="31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B309" s="30"/>
+      <c r="C309" s="3"/>
+      <c r="F309" s="3"/>
+      <c r="H309" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K309" s="31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B310" s="30"/>
+      <c r="C310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="H310" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="K310" s="31" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B311" s="30"/>
+      <c r="C311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="H311" s="3"/>
+      <c r="I311" s="2"/>
+      <c r="K311" s="31"/>
+    </row>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B312" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F309" s="3" t="s">
+      <c r="F312" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H309" s="3" t="s">
+      <c r="H312" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I309" s="2" t="s">
+      <c r="I312" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="K309" s="31" t="s">
+      <c r="K312" s="31" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B310" s="30" t="s">
+    <row r="313" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B313" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="F310" s="3" t="s">
+      <c r="C313" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F313" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H310" s="3"/>
-      <c r="I310" s="2"/>
-      <c r="K310" s="31"/>
-    </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B311" s="30"/>
-      <c r="K311" s="33"/>
-    </row>
-    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B312" s="30" t="s">
+      <c r="H313" s="3"/>
+      <c r="I313" s="2"/>
+      <c r="K313" s="31"/>
+    </row>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B314" s="30"/>
+      <c r="K314" s="33"/>
+    </row>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B315" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="D312" s="3" t="s">
+      <c r="D315" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K312" s="33"/>
-    </row>
-    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B313" s="30" t="s">
+      <c r="K315" s="33"/>
+    </row>
+    <row r="316" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B316" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="C316" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F313" s="3" t="s">
+      <c r="F316" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="K313" s="33"/>
-    </row>
-    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B314" s="30" t="s">
+      <c r="K316" s="33"/>
+    </row>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B317" s="30" t="s">
         <v>207</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="C317" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F314" s="3" t="s">
+      <c r="F317" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="K314" s="33"/>
-    </row>
-    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B315" s="30" t="s">
+      <c r="K317" s="33"/>
+    </row>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B318" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="C318" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F315" s="3" t="s">
+      <c r="F318" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="H315" s="3" t="s">
+      <c r="H318" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="I315" s="3" t="s">
+      <c r="I318" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K315" s="31" t="s">
+      <c r="K318" s="31" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="316" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B316" s="34"/>
-      <c r="C316" s="35"/>
-      <c r="D316" s="35"/>
-      <c r="E316" s="35"/>
-      <c r="F316" s="35"/>
-      <c r="G316" s="35"/>
-      <c r="H316" s="37" t="s">
+    <row r="319" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="34"/>
+      <c r="C319" s="35"/>
+      <c r="D319" s="35"/>
+      <c r="E319" s="35"/>
+      <c r="F319" s="35"/>
+      <c r="G319" s="35"/>
+      <c r="H319" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="I316" s="37" t="s">
+      <c r="I319" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="J316" s="35"/>
-      <c r="K316" s="38" t="s">
+      <c r="J319" s="35"/>
+      <c r="K319" s="38" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="317" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B318" s="26" t="s">
+    <row r="320" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B321" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="C318" s="27"/>
-      <c r="D318" s="28" t="s">
+      <c r="C321" s="27"/>
+      <c r="D321" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E318" s="27"/>
-      <c r="F318" s="28" t="s">
+      <c r="E321" s="27"/>
+      <c r="F321" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="G318" s="27"/>
-      <c r="H318" s="28" t="s">
+      <c r="G321" s="27"/>
+      <c r="H321" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I318" s="28" t="s">
+      <c r="I321" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J318" s="27"/>
-      <c r="K318" s="40" t="s">
+      <c r="J321" s="27"/>
+      <c r="K321" s="40" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B319" s="30"/>
-      <c r="D319" s="3"/>
-      <c r="F319" s="3"/>
-      <c r="H319" s="3" t="s">
+    <row r="322" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B322" s="30"/>
+      <c r="D322" s="3"/>
+      <c r="F322" s="3"/>
+      <c r="H322" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="I319" s="3" t="s">
+      <c r="I322" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K319" s="31" t="s">
+      <c r="K322" s="31" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B320" s="30"/>
-      <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
-      <c r="F320" s="3"/>
-      <c r="H320" s="3" t="s">
+    <row r="323" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B323" s="30"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="3"/>
+      <c r="F323" s="3"/>
+      <c r="H323" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="I320" s="3" t="s">
+      <c r="I323" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K320" s="31" t="s">
+      <c r="K323" s="31" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B321" s="32"/>
-      <c r="H321" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I321" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K321" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B322" s="32"/>
-      <c r="H322" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="I322" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="K322" s="31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B323" s="32"/>
-      <c r="H323" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="I323" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K323" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B324" s="32"/>
       <c r="H324" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K324" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B325" s="32"/>
+      <c r="H325" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="K325" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B326" s="32"/>
+      <c r="H326" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K326" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B327" s="32"/>
+      <c r="H327" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="K327" s="31" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="328" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="34"/>
+      <c r="C328" s="35"/>
+      <c r="D328" s="35"/>
+      <c r="E328" s="35"/>
+      <c r="F328" s="35"/>
+      <c r="G328" s="35"/>
+      <c r="H328" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="I328" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J328" s="35"/>
+      <c r="K328" s="38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="329" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H329" s="3"/>
+      <c r="I329" s="3"/>
+      <c r="K329" s="3"/>
+    </row>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B330" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="C330" s="27"/>
+      <c r="D330" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E330" s="27"/>
+      <c r="F330" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="G330" s="27"/>
+      <c r="H330" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="I324" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="K324" s="31" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="325" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B325" s="34"/>
-      <c r="C325" s="35"/>
-      <c r="D325" s="35"/>
-      <c r="E325" s="35"/>
-      <c r="F325" s="35"/>
-      <c r="G325" s="35"/>
-      <c r="H325" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="I325" s="37" t="s">
+      <c r="I330" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="J330" s="27"/>
+      <c r="K330" s="29" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B331" s="32"/>
+      <c r="H331" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I331" t="s">
         <v>32</v>
       </c>
-      <c r="J325" s="35"/>
-      <c r="K325" s="38" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="326" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
-      <c r="K326" s="3"/>
-    </row>
-    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B327" s="26" t="s">
-        <v>459</v>
-      </c>
-      <c r="C327" s="27"/>
-      <c r="D327" s="28" t="s">
+      <c r="K331" s="31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B332" s="32"/>
+      <c r="H332" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="I332" t="s">
+        <v>32</v>
+      </c>
+      <c r="K332" s="31" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="333" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B333" s="34"/>
+      <c r="C333" s="35"/>
+      <c r="D333" s="35"/>
+      <c r="E333" s="35"/>
+      <c r="F333" s="35"/>
+      <c r="G333" s="35"/>
+      <c r="H333" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="I333" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J333" s="35"/>
+      <c r="K333" s="38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B337" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C337" s="7"/>
+      <c r="D337" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E327" s="27"/>
-      <c r="F327" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="G327" s="27"/>
-      <c r="H327" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="I327" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="J327" s="27"/>
-      <c r="K327" s="29" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B328" s="32"/>
-      <c r="H328" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="I328" t="s">
-        <v>32</v>
-      </c>
-      <c r="K328" s="31" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B329" s="32"/>
-      <c r="H329" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="I329" t="s">
-        <v>32</v>
-      </c>
-      <c r="K329" s="31" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="330" spans="2:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="34"/>
-      <c r="C330" s="35"/>
-      <c r="D330" s="35"/>
-      <c r="E330" s="35"/>
-      <c r="F330" s="35"/>
-      <c r="G330" s="35"/>
-      <c r="H330" s="37" t="s">
-        <v>452</v>
-      </c>
-      <c r="I330" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="J330" s="35"/>
-      <c r="K330" s="38" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B334" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C334" s="7"/>
-      <c r="D334" s="6" t="s">
+      <c r="E337" s="7"/>
+      <c r="F337" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G337" s="7"/>
+      <c r="H337" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="I337" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J337" s="7"/>
+      <c r="K337" s="8"/>
+    </row>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B338" s="18"/>
+      <c r="H338" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="K338" s="10"/>
+    </row>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B339" s="22"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
+      <c r="H339" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I339" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="J339" s="13"/>
+      <c r="K339" s="14"/>
+    </row>
+    <row r="340" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H340" s="3"/>
+      <c r="I340" s="3"/>
+    </row>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B341" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="C341" s="27"/>
+      <c r="D341" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E334" s="7"/>
-      <c r="F334" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G334" s="7"/>
-      <c r="H334" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="I334" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="J334" s="7"/>
-      <c r="K334" s="8"/>
-    </row>
-    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B335" s="18"/>
-      <c r="H335" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="I335" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="K335" s="10"/>
-    </row>
-    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B336" s="22"/>
-      <c r="C336" s="13"/>
-      <c r="D336" s="13"/>
-      <c r="E336" s="13"/>
-      <c r="F336" s="13"/>
-      <c r="G336" s="13"/>
-      <c r="H336" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="I336" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="J336" s="13"/>
-      <c r="K336" s="14"/>
-    </row>
-    <row r="337" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H337" s="3"/>
-      <c r="I337" s="3"/>
-    </row>
-    <row r="338" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B338" s="26" t="s">
+      <c r="E341" s="27"/>
+      <c r="F341" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="G341" s="27"/>
+      <c r="H341" s="28"/>
+      <c r="I341" s="28"/>
+      <c r="J341" s="27"/>
+      <c r="K341" s="29"/>
+    </row>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B342" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H342" s="3"/>
+      <c r="I342" s="3"/>
+      <c r="K342" s="33"/>
+    </row>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B343" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K343" s="33"/>
+    </row>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B344" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F344" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C338" s="27"/>
-      <c r="D338" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E338" s="27"/>
-      <c r="F338" s="28" t="s">
+      <c r="H344" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K344" s="33"/>
+    </row>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B345" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K345" s="33"/>
+    </row>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B346" s="30" t="s">
+        <v>626</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F346" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="G338" s="27"/>
-      <c r="H338" s="28"/>
-      <c r="I338" s="28"/>
-      <c r="J338" s="27"/>
-      <c r="K338" s="29"/>
-    </row>
-    <row r="339" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B339" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="C339" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="H339" s="3"/>
-      <c r="I339" s="3"/>
-      <c r="K339" s="33"/>
-    </row>
-    <row r="340" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B340" s="30" t="s">
+      <c r="H346" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="K346" s="33"/>
+    </row>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B347" s="30" t="s">
         <v>627</v>
       </c>
-      <c r="C340" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F340" s="3" t="s">
+      <c r="C347" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F347" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="H340" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="I340" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="K340" s="33"/>
-    </row>
-    <row r="341" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B341" s="30" t="s">
+      <c r="H347" s="3"/>
+      <c r="I347" s="3"/>
+      <c r="K347" s="33"/>
+    </row>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B348" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F348" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C341" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F341" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="H341" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="I341" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="K341" s="33"/>
-    </row>
-    <row r="342" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B342" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F342" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="H342" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="I342" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="K342" s="33"/>
-    </row>
-    <row r="343" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B343" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="C343" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F343" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="H343" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="I343" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="K343" s="33"/>
-    </row>
-    <row r="344" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B344" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F344" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="H344" s="3"/>
-      <c r="I344" s="3"/>
-      <c r="K344" s="33"/>
-    </row>
-    <row r="345" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B345" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F345" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="H345" s="3"/>
-      <c r="I345" s="3"/>
-      <c r="K345" s="33"/>
-    </row>
-    <row r="346" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B346" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F346" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="H346" s="3"/>
-      <c r="I346" s="3"/>
-      <c r="K346" s="33"/>
-    </row>
-    <row r="347" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B347" s="39" t="s">
-        <v>632</v>
-      </c>
-      <c r="C347" s="37" t="s">
-        <v>625</v>
-      </c>
-      <c r="D347" s="35"/>
-      <c r="E347" s="35"/>
-      <c r="F347" s="37" t="s">
-        <v>623</v>
-      </c>
-      <c r="G347" s="35"/>
-      <c r="H347" s="37"/>
-      <c r="I347" s="37"/>
-      <c r="J347" s="35"/>
-      <c r="K347" s="36"/>
-    </row>
-    <row r="348" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
-    </row>
-    <row r="350" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B350" s="4" t="s">
+      <c r="K348" s="33"/>
+    </row>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B349" s="30" t="s">
+        <v>628</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H349" s="3"/>
+      <c r="I349" s="3"/>
+      <c r="K349" s="33"/>
+    </row>
+    <row r="350" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="C350" s="37" t="s">
+        <v>622</v>
+      </c>
+      <c r="D350" s="35"/>
+      <c r="E350" s="35"/>
+      <c r="F350" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="G350" s="35"/>
+      <c r="H350" s="37"/>
+      <c r="I350" s="37"/>
+      <c r="J350" s="35"/>
+      <c r="K350" s="36"/>
+    </row>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H351" s="3"/>
+      <c r="I351" s="3"/>
+    </row>
+    <row r="353" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B353" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C350" s="7"/>
-      <c r="D350" s="6" t="s">
+      <c r="C353" s="7"/>
+      <c r="D353" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="E350" s="7"/>
-      <c r="F350" s="6" t="s">
+      <c r="E353" s="7"/>
+      <c r="F353" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="G350" s="7"/>
-      <c r="H350" s="7" t="s">
+      <c r="G353" s="7"/>
+      <c r="H353" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="I350" s="6" t="s">
+      <c r="I353" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="J350" s="7"/>
-      <c r="K350" s="7" t="s">
+      <c r="J353" s="7"/>
+      <c r="K353" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="L350" s="8"/>
-    </row>
-    <row r="351" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B351" s="18" t="s">
+      <c r="L353" s="8"/>
+    </row>
+    <row r="354" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B354" s="18" t="s">
         <v>423</v>
-      </c>
-      <c r="C351" t="s">
-        <v>408</v>
-      </c>
-      <c r="L351" s="10"/>
-    </row>
-    <row r="352" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B352" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="C352" t="s">
-        <v>408</v>
-      </c>
-      <c r="L352" s="10"/>
-    </row>
-    <row r="353" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B353" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="C353" t="s">
-        <v>408</v>
-      </c>
-      <c r="L353" s="10"/>
-    </row>
-    <row r="354" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B354" s="18" t="s">
-        <v>415</v>
       </c>
       <c r="C354" t="s">
         <v>408</v>
       </c>
-      <c r="H354" t="s">
-        <v>416</v>
-      </c>
-      <c r="I354" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="K354" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="L354" s="10"/>
     </row>
-    <row r="355" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B355" s="18" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C355" t="s">
         <v>408</v>
       </c>
-      <c r="H355" t="s">
-        <v>416</v>
-      </c>
-      <c r="I355" t="s">
-        <v>417</v>
-      </c>
-      <c r="K355" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="L355" s="10"/>
     </row>
-    <row r="356" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B356" s="18" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C356" t="s">
         <v>408</v>
       </c>
       <c r="L356" s="10"/>
     </row>
-    <row r="357" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B357" s="9" t="s">
-        <v>594</v>
+    <row r="357" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B357" s="18" t="s">
+        <v>415</v>
       </c>
       <c r="C357" t="s">
         <v>408</v>
       </c>
+      <c r="H357" t="s">
+        <v>416</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>438</v>
+      </c>
       <c r="L357" s="10"/>
     </row>
-    <row r="358" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B358" s="22" t="s">
+    <row r="358" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B358" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="C358" t="s">
+        <v>408</v>
+      </c>
+      <c r="H358" t="s">
+        <v>416</v>
+      </c>
+      <c r="I358" t="s">
+        <v>417</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L358" s="10"/>
+    </row>
+    <row r="359" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B359" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C359" t="s">
+        <v>408</v>
+      </c>
+      <c r="L359" s="10"/>
+    </row>
+    <row r="360" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B360" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="C360" t="s">
+        <v>408</v>
+      </c>
+      <c r="L360" s="10"/>
+    </row>
+    <row r="361" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B361" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="C358" s="13" t="s">
+      <c r="C361" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="D358" s="13"/>
-      <c r="E358" s="13"/>
-      <c r="F358" s="13"/>
-      <c r="G358" s="13"/>
-      <c r="H358" s="13"/>
-      <c r="I358" s="13"/>
-      <c r="J358" s="13"/>
-      <c r="K358" s="13"/>
-      <c r="L358" s="14"/>
-    </row>
-    <row r="360" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B360" s="4" t="s">
+      <c r="D361" s="13"/>
+      <c r="E361" s="13"/>
+      <c r="F361" s="13"/>
+      <c r="G361" s="13"/>
+      <c r="H361" s="13"/>
+      <c r="I361" s="13"/>
+      <c r="J361" s="13"/>
+      <c r="K361" s="13"/>
+      <c r="L361" s="14"/>
+    </row>
+    <row r="363" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B363" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="C360" s="7"/>
-      <c r="D360" s="6" t="s">
+      <c r="C363" s="7"/>
+      <c r="D363" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E360" s="7"/>
-      <c r="F360" s="6" t="s">
+      <c r="E363" s="7"/>
+      <c r="F363" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="G360" s="7"/>
-      <c r="H360" s="6" t="s">
+      <c r="G363" s="7"/>
+      <c r="H363" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="I360" s="6" t="s">
+      <c r="I363" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J360" s="7"/>
-      <c r="K360" s="6" t="s">
+      <c r="J363" s="7"/>
+      <c r="K363" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="L360" s="8"/>
-    </row>
-    <row r="361" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B361" s="18"/>
-      <c r="H361" s="3" t="s">
+      <c r="L363" s="8"/>
+    </row>
+    <row r="364" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B364" s="18"/>
+      <c r="H364" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="I361" s="3" t="s">
+      <c r="I364" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K361" s="3" t="s">
+      <c r="K364" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="L361" s="10"/>
-    </row>
-    <row r="362" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B362" s="9" t="s">
+      <c r="L364" s="10"/>
+    </row>
+    <row r="365" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B365" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C362" s="3" t="s">
+      <c r="C365" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F362" s="3"/>
-      <c r="H362" s="3" t="s">
+      <c r="F365" s="3"/>
+      <c r="H365" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="I362" s="3" t="s">
+      <c r="I365" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="K362" s="3" t="s">
+      <c r="K365" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="L362" s="10"/>
-    </row>
-    <row r="363" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B363" s="11" t="s">
+      <c r="L365" s="10"/>
+    </row>
+    <row r="366" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B366" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="C363" s="12" t="s">
+      <c r="C366" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="D363" s="13"/>
-      <c r="E363" s="13"/>
-      <c r="F363" s="13"/>
-      <c r="G363" s="13"/>
-      <c r="H363" s="12" t="s">
+      <c r="D366" s="13"/>
+      <c r="E366" s="13"/>
+      <c r="F366" s="13"/>
+      <c r="G366" s="13"/>
+      <c r="H366" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="I363" s="12" t="s">
+      <c r="I366" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="J363" s="13"/>
-      <c r="K363" s="12" t="s">
+      <c r="J366" s="13"/>
+      <c r="K366" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="L363" s="14"/>
-    </row>
-    <row r="365" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B365" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C365" s="7"/>
-      <c r="D365" s="6" t="s">
+      <c r="L366" s="14"/>
+    </row>
+    <row r="368" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B368" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C368" s="7"/>
+      <c r="D368" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E365" s="7"/>
-      <c r="F365" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="G365" s="7"/>
-      <c r="H365" s="6"/>
-      <c r="I365" s="6"/>
-      <c r="J365" s="7"/>
-      <c r="K365" s="6"/>
-      <c r="L365" s="8"/>
-    </row>
-    <row r="366" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B366" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="C366" t="s">
-        <v>491</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
-      <c r="K366" s="3"/>
-      <c r="L366" s="10"/>
-    </row>
-    <row r="367" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B367" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C367" t="s">
-        <v>491</v>
-      </c>
-      <c r="F367" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="H367" s="3"/>
-      <c r="I367" s="3"/>
-      <c r="K367" s="3"/>
-      <c r="L367" s="10"/>
-    </row>
-    <row r="368" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B368" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C368" t="s">
-        <v>491</v>
-      </c>
-      <c r="F368" s="3" t="s">
+      <c r="E368" s="7"/>
+      <c r="F368" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="G368" s="7"/>
+      <c r="H368" s="6"/>
+      <c r="I368" s="6"/>
+      <c r="J368" s="7"/>
+      <c r="K368" s="6"/>
+      <c r="L368" s="8"/>
+    </row>
+    <row r="369" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B369" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="H368" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="I368" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K368" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="L368" s="10"/>
-    </row>
-    <row r="369" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B369" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>495</v>
+      <c r="C369" t="s">
+        <v>488</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
       <c r="K369" s="3"/>
       <c r="L369" s="10"/>
     </row>
-    <row r="370" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B370" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>495</v>
+        <v>491</v>
+      </c>
+      <c r="C370" t="s">
+        <v>488</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
       <c r="K370" s="3"/>
       <c r="L370" s="10"/>
     </row>
-    <row r="371" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B371" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C371" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C371" t="s">
+        <v>488</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="I371" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="L371" s="10"/>
+    </row>
+    <row r="372" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B372" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F372" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="F371" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="H371" s="3"/>
-      <c r="I371" s="3"/>
-      <c r="K371" s="3"/>
-      <c r="L371" s="10"/>
-    </row>
-    <row r="372" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B372" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="F372" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
       <c r="K372" s="3"/>
       <c r="L372" s="10"/>
     </row>
-    <row r="373" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B373" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C373" t="s">
-        <v>491</v>
+        <v>497</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="F373" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H373" s="3"/>
+      <c r="I373" s="3"/>
+      <c r="K373" s="3"/>
+      <c r="L373" s="10"/>
+    </row>
+    <row r="374" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B374" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H374" s="3"/>
+      <c r="I374" s="3"/>
+      <c r="K374" s="3"/>
+      <c r="L374" s="10"/>
+    </row>
+    <row r="375" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B375" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F375" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="H373" s="3" t="s">
+      <c r="H375" s="3"/>
+      <c r="I375" s="3"/>
+      <c r="K375" s="3"/>
+      <c r="L375" s="10"/>
+    </row>
+    <row r="376" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B376" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C376" t="s">
+        <v>488</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I376" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K376" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="L376" s="10"/>
+    </row>
+    <row r="377" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B377" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="D377" s="13"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="I373" s="3" t="s">
+      <c r="G377" s="13"/>
+      <c r="H377" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I377" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K373" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="L373" s="10"/>
-    </row>
-    <row r="374" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B374" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C374" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="D374" s="13"/>
-      <c r="E374" s="13"/>
-      <c r="F374" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="G374" s="13"/>
-      <c r="H374" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="I374" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J374" s="13"/>
-      <c r="K374" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="L374" s="14"/>
-    </row>
-    <row r="375" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="376" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B376" s="26" t="s">
-        <v>650</v>
-      </c>
-      <c r="C376" s="27"/>
-      <c r="D376" s="28" t="s">
+      <c r="J377" s="13"/>
+      <c r="K377" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="L377" s="14"/>
+    </row>
+    <row r="378" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="379" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B379" s="26" t="s">
+        <v>647</v>
+      </c>
+      <c r="C379" s="27"/>
+      <c r="D379" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E376" s="27"/>
-      <c r="F376" s="28" t="s">
-        <v>661</v>
-      </c>
-      <c r="G376" s="27"/>
-      <c r="H376" s="28"/>
-      <c r="I376" s="28"/>
-      <c r="J376" s="27"/>
-      <c r="K376" s="28"/>
-      <c r="L376" s="29"/>
-    </row>
-    <row r="377" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B377" s="30" t="s">
-        <v>651</v>
-      </c>
-      <c r="C377" t="s">
-        <v>649</v>
-      </c>
-      <c r="F377" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="H377" s="3"/>
-      <c r="I377" s="3"/>
-      <c r="K377" s="3"/>
-      <c r="L377" s="33"/>
-    </row>
-    <row r="378" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B378" s="30" t="s">
-        <v>652</v>
-      </c>
-      <c r="C378" t="s">
-        <v>649</v>
-      </c>
-      <c r="F378" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="H378" s="3"/>
-      <c r="I378" s="3"/>
-      <c r="K378" s="3"/>
-      <c r="L378" s="33"/>
-    </row>
-    <row r="379" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B379" s="30" t="s">
+      <c r="E379" s="27"/>
+      <c r="F379" s="28" t="s">
+        <v>658</v>
+      </c>
+      <c r="G379" s="27"/>
+      <c r="H379" s="28"/>
+      <c r="I379" s="28"/>
+      <c r="J379" s="27"/>
+      <c r="K379" s="28"/>
+      <c r="L379" s="29"/>
+    </row>
+    <row r="380" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B380" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="C380" t="s">
+        <v>646</v>
+      </c>
+      <c r="F380" s="3" t="s">
         <v>653</v>
-      </c>
-      <c r="C379" t="s">
-        <v>649</v>
-      </c>
-      <c r="F379" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="H379" s="3"/>
-      <c r="I379" s="3"/>
-      <c r="K379" s="3"/>
-      <c r="L379" s="33"/>
-    </row>
-    <row r="380" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B380" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="F380" s="3" t="s">
-        <v>658</v>
       </c>
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
       <c r="K380" s="3"/>
       <c r="L380" s="33"/>
     </row>
-    <row r="381" spans="2:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B381" s="39" t="s">
+    <row r="381" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B381" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="C381" t="s">
+        <v>646</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H381" s="3"/>
+      <c r="I381" s="3"/>
+      <c r="K381" s="3"/>
+      <c r="L381" s="33"/>
+    </row>
+    <row r="382" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B382" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="C382" t="s">
+        <v>646</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="H382" s="3"/>
+      <c r="I382" s="3"/>
+      <c r="K382" s="3"/>
+      <c r="L382" s="33"/>
+    </row>
+    <row r="383" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B383" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="F383" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="C381" s="37" t="s">
-        <v>650</v>
-      </c>
-      <c r="D381" s="35"/>
-      <c r="E381" s="35"/>
-      <c r="F381" s="37" t="s">
-        <v>660</v>
-      </c>
-      <c r="G381" s="35"/>
-      <c r="H381" s="37"/>
-      <c r="I381" s="37"/>
-      <c r="J381" s="35"/>
-      <c r="K381" s="37"/>
-      <c r="L381" s="36"/>
+      <c r="H383" s="3"/>
+      <c r="I383" s="3"/>
+      <c r="K383" s="3"/>
+      <c r="L383" s="33"/>
+    </row>
+    <row r="384" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="39" t="s">
+        <v>652</v>
+      </c>
+      <c r="C384" s="37" t="s">
+        <v>647</v>
+      </c>
+      <c r="D384" s="35"/>
+      <c r="E384" s="35"/>
+      <c r="F384" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="G384" s="35"/>
+      <c r="H384" s="37"/>
+      <c r="I384" s="37"/>
+      <c r="J384" s="35"/>
+      <c r="K384" s="37"/>
+      <c r="L384" s="36"/>
+    </row>
+    <row r="385" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B386" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="C386" s="27"/>
+      <c r="D386" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E386" s="27"/>
+      <c r="F386" s="28" t="s">
+        <v>733</v>
+      </c>
+      <c r="G386" s="27"/>
+      <c r="H386" s="27"/>
+      <c r="I386" s="27"/>
+      <c r="J386" s="27"/>
+      <c r="K386" s="27"/>
+      <c r="L386" s="29"/>
+    </row>
+    <row r="387" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B387" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="C387" t="s">
+        <v>731</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="L387" s="33"/>
+    </row>
+    <row r="388" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B388" s="32" t="s">
+        <v>725</v>
+      </c>
+      <c r="C388" t="s">
+        <v>731</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="L388" s="33"/>
+    </row>
+    <row r="389" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B389" s="32" t="s">
+        <v>726</v>
+      </c>
+      <c r="C389" t="s">
+        <v>731</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="L389" s="33"/>
+    </row>
+    <row r="390" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B390" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="C390" t="s">
+        <v>731</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="I390" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="K390" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="L390" s="33"/>
+    </row>
+    <row r="391" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B391" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="C391" t="s">
+        <v>731</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="I391" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="K391" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="L391" s="33"/>
+    </row>
+    <row r="392" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B392" s="34" t="s">
+        <v>729</v>
+      </c>
+      <c r="C392" s="35" t="s">
+        <v>731</v>
+      </c>
+      <c r="D392" s="35"/>
+      <c r="E392" s="35"/>
+      <c r="F392" s="37" t="s">
+        <v>738</v>
+      </c>
+      <c r="G392" s="35"/>
+      <c r="H392" s="35"/>
+      <c r="I392" s="35"/>
+      <c r="J392" s="35"/>
+      <c r="K392" s="35"/>
+      <c r="L392" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
